--- a/Code/Results/Cases/Case_3_41/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_41/res_bus/vm_pu.xlsx
@@ -421,31 +421,31 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9961520850820033</v>
+        <v>0.9961520850820045</v>
       </c>
       <c r="D2">
-        <v>1.015580671619672</v>
+        <v>1.015580671619673</v>
       </c>
       <c r="E2">
-        <v>1.003595205591552</v>
+        <v>1.003595205591553</v>
       </c>
       <c r="F2">
-        <v>1.002925525126801</v>
+        <v>1.002925525126802</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043550014599062</v>
+        <v>1.043550014599063</v>
       </c>
       <c r="J2">
-        <v>1.018448498919494</v>
+        <v>1.018448498919496</v>
       </c>
       <c r="K2">
-        <v>1.02682712795783</v>
+        <v>1.026827127957831</v>
       </c>
       <c r="L2">
-        <v>1.015004679699427</v>
+        <v>1.015004679699428</v>
       </c>
       <c r="M2">
         <v>1.01434425265077</v>
@@ -497,13 +497,13 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.007332108023672</v>
+        <v>1.007332108023671</v>
       </c>
       <c r="D4">
-        <v>1.024259326907047</v>
+        <v>1.024259326907046</v>
       </c>
       <c r="E4">
-        <v>1.013235261746779</v>
+        <v>1.013235261746778</v>
       </c>
       <c r="F4">
         <v>1.015648663640421</v>
@@ -515,7 +515,7 @@
         <v>1.047820871878112</v>
       </c>
       <c r="J4">
-        <v>1.026550099306142</v>
+        <v>1.026550099306141</v>
       </c>
       <c r="K4">
         <v>1.03407352094551</v>
@@ -524,7 +524,7 @@
         <v>1.023176530698193</v>
       </c>
       <c r="M4">
-        <v>1.025561821677075</v>
+        <v>1.025561821677074</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -562,7 +562,7 @@
         <v>1.02447820350181</v>
       </c>
       <c r="M5">
-        <v>1.02734928494256</v>
+        <v>1.027349284942559</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.009413085866631</v>
+        <v>1.00941308586663</v>
       </c>
       <c r="D6">
-        <v>1.025875579412309</v>
+        <v>1.025875579412308</v>
       </c>
       <c r="E6">
-        <v>1.015032243115124</v>
+        <v>1.015032243115123</v>
       </c>
       <c r="F6">
-        <v>1.0180180267293</v>
+        <v>1.018018026729299</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,7 +591,7 @@
         <v>1.0486071514277</v>
       </c>
       <c r="J6">
-        <v>1.028054900020419</v>
+        <v>1.028054900020418</v>
       </c>
       <c r="K6">
         <v>1.035417957098894</v>
@@ -614,10 +614,10 @@
         <v>1.007356050654593</v>
       </c>
       <c r="D7">
-        <v>1.024277921383882</v>
+        <v>1.024277921383883</v>
       </c>
       <c r="E7">
-        <v>1.013255932132491</v>
+        <v>1.01325593213249</v>
       </c>
       <c r="F7">
         <v>1.015675921754628</v>
@@ -635,7 +635,7 @@
         <v>1.034088997775923</v>
       </c>
       <c r="L7">
-        <v>1.023194010968044</v>
+        <v>1.023194010968045</v>
       </c>
       <c r="M7">
         <v>1.025585824026795</v>
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9985012263996613</v>
+        <v>0.9985012263996598</v>
       </c>
       <c r="D8">
-        <v>1.017403470645496</v>
+        <v>1.017403470645495</v>
       </c>
       <c r="E8">
-        <v>1.005618787543497</v>
+        <v>1.005618787543495</v>
       </c>
       <c r="F8">
-        <v>1.005598214461098</v>
+        <v>1.005598214461097</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.044453512369528</v>
       </c>
       <c r="J8">
-        <v>1.020152994401962</v>
+        <v>1.020152994401961</v>
       </c>
       <c r="K8">
-        <v>1.02835275024577</v>
+        <v>1.028352750245769</v>
       </c>
       <c r="L8">
-        <v>1.016723182914315</v>
+        <v>1.016723182914314</v>
       </c>
       <c r="M8">
-        <v>1.016702884616851</v>
+        <v>1.01670288461685</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9818087442795491</v>
+        <v>0.9818087442795463</v>
       </c>
       <c r="D9">
-        <v>1.004462404429296</v>
+        <v>1.004462404429294</v>
       </c>
       <c r="E9">
-        <v>0.991262512402401</v>
+        <v>0.9912625124023988</v>
       </c>
       <c r="F9">
-        <v>0.9866101602799663</v>
+        <v>0.9866101602799644</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03797261841248</v>
+        <v>1.037972618412478</v>
       </c>
       <c r="J9">
-        <v>1.00802065155446</v>
+        <v>1.008020651554458</v>
       </c>
       <c r="K9">
-        <v>1.017483494759309</v>
+        <v>1.017483494759307</v>
       </c>
       <c r="L9">
-        <v>1.004498957995736</v>
+        <v>1.004498957995734</v>
       </c>
       <c r="M9">
-        <v>0.9999242793499575</v>
+        <v>0.9999242793499555</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9698157725357119</v>
+        <v>0.9698157725357114</v>
       </c>
       <c r="D10">
-        <v>0.9951844391331159</v>
+        <v>0.9951844391331152</v>
       </c>
       <c r="E10">
-        <v>0.9809809941021194</v>
+        <v>0.9809809941021183</v>
       </c>
       <c r="F10">
-        <v>0.9729668651900452</v>
+        <v>0.9729668651900442</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.03324088736353</v>
       </c>
       <c r="J10">
-        <v>0.9992803493189217</v>
+        <v>0.9992803493189208</v>
       </c>
       <c r="K10">
         <v>1.009641187781932</v>
       </c>
       <c r="L10">
-        <v>0.9957023484495212</v>
+        <v>0.9957023484495202</v>
       </c>
       <c r="M10">
-        <v>0.9878419893987066</v>
+        <v>0.9878419893987057</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9643829014974833</v>
+        <v>0.9643829014974822</v>
       </c>
       <c r="D11">
-        <v>0.990988038470638</v>
+        <v>0.990988038470637</v>
       </c>
       <c r="E11">
-        <v>0.9763325804371986</v>
+        <v>0.9763325804371975</v>
       </c>
       <c r="F11">
-        <v>0.9667840750281997</v>
+        <v>0.9667840750281981</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031080349777229</v>
+        <v>1.031080349777228</v>
       </c>
       <c r="J11">
-        <v>0.9953163088960933</v>
+        <v>0.9953163088960922</v>
       </c>
       <c r="K11">
-        <v>1.006081932131066</v>
+        <v>1.006081932131065</v>
       </c>
       <c r="L11">
-        <v>0.9917150709634679</v>
+        <v>0.9917150709634671</v>
       </c>
       <c r="M11">
-        <v>0.9823608101753583</v>
+        <v>0.982360810175357</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9623254335216148</v>
+        <v>0.9623254335216134</v>
       </c>
       <c r="D12">
-        <v>0.989399994669658</v>
+        <v>0.9893999946696567</v>
       </c>
       <c r="E12">
-        <v>0.9745736954602755</v>
+        <v>0.9745736954602741</v>
       </c>
       <c r="F12">
-        <v>0.9644420511365521</v>
+        <v>0.964442051136551</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.030259660348059</v>
+        <v>1.030259660348058</v>
       </c>
       <c r="J12">
-        <v>0.993814492400041</v>
+        <v>0.9938144924000398</v>
       </c>
       <c r="K12">
-        <v>1.004733131250607</v>
+        <v>1.004733131250606</v>
       </c>
       <c r="L12">
-        <v>0.9902047919558693</v>
+        <v>0.9902047919558679</v>
       </c>
       <c r="M12">
-        <v>0.9802837343024704</v>
+        <v>0.9802837343024692</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9627686129203552</v>
+        <v>0.9627686129203544</v>
       </c>
       <c r="D13">
-        <v>0.9897420043447246</v>
+        <v>0.989742004344724</v>
       </c>
       <c r="E13">
-        <v>0.9749524899511018</v>
+        <v>0.974952489951101</v>
       </c>
       <c r="F13">
-        <v>0.9649465527582196</v>
+        <v>0.9649465527582188</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030436547598283</v>
+        <v>1.030436547598282</v>
       </c>
       <c r="J13">
-        <v>0.9941380099970827</v>
+        <v>0.994138009997082</v>
       </c>
       <c r="K13">
         <v>1.005023701442183</v>
       </c>
       <c r="L13">
-        <v>0.9905301172126024</v>
+        <v>0.9905301172126014</v>
       </c>
       <c r="M13">
-        <v>0.9807311988905224</v>
+        <v>0.9807311988905215</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9642136569079308</v>
+        <v>0.9642136569079325</v>
       </c>
       <c r="D14">
-        <v>0.9908573834073329</v>
+        <v>0.9908573834073345</v>
       </c>
       <c r="E14">
-        <v>0.9761878656365188</v>
+        <v>0.9761878656365207</v>
       </c>
       <c r="F14">
-        <v>0.9665914358271049</v>
+        <v>0.9665914358271065</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031012890693029</v>
+        <v>1.031012890693031</v>
       </c>
       <c r="J14">
-        <v>0.9951927831721822</v>
+        <v>0.9951927831721837</v>
       </c>
       <c r="K14">
-        <v>1.005970998793646</v>
+        <v>1.005970998793648</v>
       </c>
       <c r="L14">
-        <v>0.991590842303979</v>
+        <v>0.9915908423039806</v>
       </c>
       <c r="M14">
-        <v>0.9821899801364662</v>
+        <v>0.9821899801364679</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9650986574931711</v>
+        <v>0.9650986574931725</v>
       </c>
       <c r="D15">
-        <v>0.9915406430494279</v>
+        <v>0.9915406430494295</v>
       </c>
       <c r="E15">
-        <v>0.9769446588332427</v>
+        <v>0.9769446588332442</v>
       </c>
       <c r="F15">
-        <v>0.9675987457764493</v>
+        <v>0.9675987457764506</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.031365542286104</v>
+        <v>1.031365542286105</v>
       </c>
       <c r="J15">
-        <v>0.9958386902096577</v>
+        <v>0.995838690209659</v>
       </c>
       <c r="K15">
-        <v>1.00655104749843</v>
+        <v>1.006551047498432</v>
       </c>
       <c r="L15">
-        <v>0.9922404387691292</v>
+        <v>0.9922404387691305</v>
       </c>
       <c r="M15">
-        <v>0.9830832170192476</v>
+        <v>0.9830832170192491</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9701709989692789</v>
+        <v>0.9701709989692774</v>
       </c>
       <c r="D16">
-        <v>0.9954589696134324</v>
+        <v>0.9954589696134311</v>
       </c>
       <c r="E16">
-        <v>0.9812851289130808</v>
+        <v>0.9812851289130795</v>
       </c>
       <c r="F16">
-        <v>0.9733710601545896</v>
+        <v>0.973371060154589</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.033381807602086</v>
       </c>
       <c r="J16">
-        <v>0.9995394482374088</v>
+        <v>0.9995394482374073</v>
       </c>
       <c r="K16">
-        <v>1.009873780250864</v>
+        <v>1.009873780250863</v>
       </c>
       <c r="L16">
-        <v>0.9959630133932216</v>
+        <v>0.9959630133932204</v>
       </c>
       <c r="M16">
-        <v>0.9882002013157432</v>
+        <v>0.9882002013157428</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,22 +991,22 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9732862527350163</v>
+        <v>0.9732862527350161</v>
       </c>
       <c r="D17">
-        <v>0.9978672978534878</v>
+        <v>0.9978672978534876</v>
       </c>
       <c r="E17">
-        <v>0.9839533679816831</v>
+        <v>0.9839533679816828</v>
       </c>
       <c r="F17">
-        <v>0.9769154738731196</v>
+        <v>0.9769154738731188</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03461573285147</v>
+        <v>1.034615732851469</v>
       </c>
       <c r="J17">
         <v>1.001811172379521</v>
@@ -1018,7 +1018,7 @@
         <v>0.9982487268867938</v>
       </c>
       <c r="M17">
-        <v>0.9913407382863898</v>
+        <v>0.9913407382863891</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1032,13 +1032,13 @@
         <v>0.9750804406629975</v>
       </c>
       <c r="D18">
-        <v>0.999254945205575</v>
+        <v>0.9992549452055749</v>
       </c>
       <c r="E18">
         <v>0.9854909552352549</v>
       </c>
       <c r="F18">
-        <v>0.9789566282013887</v>
+        <v>0.9789566282013888</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1053,10 +1053,10 @@
         <v>1.013086551670582</v>
       </c>
       <c r="L18">
-        <v>0.9995649234167403</v>
+        <v>0.9995649234167405</v>
       </c>
       <c r="M18">
-        <v>0.9931487606409473</v>
+        <v>0.9931487606409474</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9756884272351773</v>
+        <v>0.975688427235176</v>
       </c>
       <c r="D19">
-        <v>0.9997252670209363</v>
+        <v>0.9997252670209351</v>
       </c>
       <c r="E19">
-        <v>0.9860121298272438</v>
+        <v>0.9860121298272428</v>
       </c>
       <c r="F19">
-        <v>0.9796482742453265</v>
+        <v>0.9796482742453257</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035564788812645</v>
+        <v>1.035564788812644</v>
       </c>
       <c r="J19">
-        <v>1.003562230579959</v>
+        <v>1.003562230579958</v>
       </c>
       <c r="K19">
-        <v>1.013484175496937</v>
+        <v>1.013484175496936</v>
       </c>
       <c r="L19">
-        <v>1.00001089435564</v>
+        <v>1.000010894355639</v>
       </c>
       <c r="M19">
-        <v>0.9937613155192117</v>
+        <v>0.9937613155192108</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9729544061169108</v>
+        <v>0.9729544061169124</v>
       </c>
       <c r="D20">
-        <v>0.9976106912303785</v>
+        <v>0.9976106912303797</v>
       </c>
       <c r="E20">
-        <v>0.9836690494301576</v>
+        <v>0.9836690494301594</v>
       </c>
       <c r="F20">
-        <v>0.9765379342027323</v>
+        <v>0.9765379342027338</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034484457610411</v>
+        <v>1.034484457610412</v>
       </c>
       <c r="J20">
-        <v>1.001569226550739</v>
+        <v>1.001569226550741</v>
       </c>
       <c r="K20">
-        <v>1.011695684265393</v>
+        <v>1.011695684265394</v>
       </c>
       <c r="L20">
-        <v>0.9980052687069539</v>
+        <v>0.9980052687069554</v>
       </c>
       <c r="M20">
-        <v>0.9910062748803939</v>
+        <v>0.9910062748803954</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9637892464909239</v>
+        <v>0.9637892464909251</v>
       </c>
       <c r="D21">
-        <v>0.9905297623276512</v>
+        <v>0.9905297623276524</v>
       </c>
       <c r="E21">
-        <v>0.9758249925793959</v>
+        <v>0.9758249925793971</v>
       </c>
       <c r="F21">
-        <v>0.9661083496252503</v>
+        <v>0.9661083496252517</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030843685690411</v>
+        <v>1.030843685690412</v>
       </c>
       <c r="J21">
-        <v>0.9948830114057893</v>
+        <v>0.9948830114057906</v>
       </c>
       <c r="K21">
-        <v>1.0056928002297</v>
+        <v>1.005692800229701</v>
       </c>
       <c r="L21">
-        <v>0.9912793132170779</v>
+        <v>0.9912793132170791</v>
       </c>
       <c r="M21">
-        <v>0.9817615723208908</v>
+        <v>0.9817615723208922</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.957796410491019</v>
+        <v>0.9577964104910198</v>
       </c>
       <c r="D22">
-        <v>0.9859066583274448</v>
+        <v>0.9859066583274455</v>
       </c>
       <c r="E22">
-        <v>0.9707048579776371</v>
+        <v>0.9707048579776375</v>
       </c>
       <c r="F22">
-        <v>0.9592853606242795</v>
+        <v>0.9592853606242806</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.028448634117576</v>
       </c>
       <c r="J22">
-        <v>0.9905075964586172</v>
+        <v>0.9905075964586181</v>
       </c>
       <c r="K22">
-        <v>1.001762574249146</v>
+        <v>1.001762574249147</v>
       </c>
       <c r="L22">
-        <v>0.9868798861851867</v>
+        <v>0.9868798861851875</v>
       </c>
       <c r="M22">
-        <v>0.9757089576891064</v>
+        <v>0.9757089576891073</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1222,7 +1222,7 @@
         <v>0.9609964269853016</v>
       </c>
       <c r="D23">
-        <v>0.988374561302397</v>
+        <v>0.9883745613023965</v>
       </c>
       <c r="E23">
         <v>0.9734379972862588</v>
@@ -1237,16 +1237,16 @@
         <v>1.029728854300711</v>
       </c>
       <c r="J23">
-        <v>0.9928442465983716</v>
+        <v>0.9928442465983712</v>
       </c>
       <c r="K23">
-        <v>1.00386164906783</v>
+        <v>1.003861649067829</v>
       </c>
       <c r="L23">
-        <v>0.9892291745132425</v>
+        <v>0.9892291745132424</v>
       </c>
       <c r="M23">
-        <v>0.9789416732849747</v>
+        <v>0.9789416732849748</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9731044237931197</v>
+        <v>0.9731044237931203</v>
       </c>
       <c r="D24">
-        <v>0.9977266933509761</v>
+        <v>0.9977266933509767</v>
       </c>
       <c r="E24">
-        <v>0.9837975784898472</v>
+        <v>0.9837975784898483</v>
       </c>
       <c r="F24">
-        <v>0.9767086089199947</v>
+        <v>0.9767086089199953</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.034543808114916</v>
       </c>
       <c r="J24">
-        <v>1.001678604219238</v>
+        <v>1.001678604219239</v>
       </c>
       <c r="K24">
         <v>1.01179384876164</v>
       </c>
       <c r="L24">
-        <v>0.9981153293996073</v>
+        <v>0.9981153293996083</v>
       </c>
       <c r="M24">
-        <v>0.9911574777753365</v>
+        <v>0.9911574777753371</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9862659315721306</v>
+        <v>0.9862659315721295</v>
       </c>
       <c r="D25">
-        <v>1.007915098863985</v>
+        <v>1.007915098863984</v>
       </c>
       <c r="E25">
-        <v>0.9950906818285434</v>
+        <v>0.9950906818285425</v>
       </c>
       <c r="F25">
-        <v>0.9916798839860328</v>
+        <v>0.991679883986032</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.039716221962372</v>
       </c>
       <c r="J25">
-        <v>1.011264509897506</v>
+        <v>1.011264509897505</v>
       </c>
       <c r="K25">
-        <v>1.020391773249206</v>
+        <v>1.020391773249205</v>
       </c>
       <c r="L25">
-        <v>1.007765689714316</v>
+        <v>1.007765689714315</v>
       </c>
       <c r="M25">
-        <v>1.004408746901842</v>
+        <v>1.004408746901841</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_41/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_41/res_bus/vm_pu.xlsx
@@ -421,31 +421,31 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9961520850820045</v>
+        <v>0.9961520850820033</v>
       </c>
       <c r="D2">
-        <v>1.015580671619673</v>
+        <v>1.015580671619672</v>
       </c>
       <c r="E2">
-        <v>1.003595205591553</v>
+        <v>1.003595205591552</v>
       </c>
       <c r="F2">
-        <v>1.002925525126802</v>
+        <v>1.002925525126801</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043550014599063</v>
+        <v>1.043550014599062</v>
       </c>
       <c r="J2">
-        <v>1.018448498919496</v>
+        <v>1.018448498919494</v>
       </c>
       <c r="K2">
-        <v>1.026827127957831</v>
+        <v>1.02682712795783</v>
       </c>
       <c r="L2">
-        <v>1.015004679699428</v>
+        <v>1.015004679699427</v>
       </c>
       <c r="M2">
         <v>1.01434425265077</v>
@@ -497,13 +497,13 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.007332108023671</v>
+        <v>1.007332108023672</v>
       </c>
       <c r="D4">
-        <v>1.024259326907046</v>
+        <v>1.024259326907047</v>
       </c>
       <c r="E4">
-        <v>1.013235261746778</v>
+        <v>1.013235261746779</v>
       </c>
       <c r="F4">
         <v>1.015648663640421</v>
@@ -515,7 +515,7 @@
         <v>1.047820871878112</v>
       </c>
       <c r="J4">
-        <v>1.026550099306141</v>
+        <v>1.026550099306142</v>
       </c>
       <c r="K4">
         <v>1.03407352094551</v>
@@ -524,7 +524,7 @@
         <v>1.023176530698193</v>
       </c>
       <c r="M4">
-        <v>1.025561821677074</v>
+        <v>1.025561821677075</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -562,7 +562,7 @@
         <v>1.02447820350181</v>
       </c>
       <c r="M5">
-        <v>1.027349284942559</v>
+        <v>1.02734928494256</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.00941308586663</v>
+        <v>1.009413085866631</v>
       </c>
       <c r="D6">
-        <v>1.025875579412308</v>
+        <v>1.025875579412309</v>
       </c>
       <c r="E6">
-        <v>1.015032243115123</v>
+        <v>1.015032243115124</v>
       </c>
       <c r="F6">
-        <v>1.018018026729299</v>
+        <v>1.0180180267293</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,7 +591,7 @@
         <v>1.0486071514277</v>
       </c>
       <c r="J6">
-        <v>1.028054900020418</v>
+        <v>1.028054900020419</v>
       </c>
       <c r="K6">
         <v>1.035417957098894</v>
@@ -614,10 +614,10 @@
         <v>1.007356050654593</v>
       </c>
       <c r="D7">
-        <v>1.024277921383883</v>
+        <v>1.024277921383882</v>
       </c>
       <c r="E7">
-        <v>1.01325593213249</v>
+        <v>1.013255932132491</v>
       </c>
       <c r="F7">
         <v>1.015675921754628</v>
@@ -635,7 +635,7 @@
         <v>1.034088997775923</v>
       </c>
       <c r="L7">
-        <v>1.023194010968045</v>
+        <v>1.023194010968044</v>
       </c>
       <c r="M7">
         <v>1.025585824026795</v>
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9985012263996598</v>
+        <v>0.9985012263996613</v>
       </c>
       <c r="D8">
-        <v>1.017403470645495</v>
+        <v>1.017403470645496</v>
       </c>
       <c r="E8">
-        <v>1.005618787543495</v>
+        <v>1.005618787543497</v>
       </c>
       <c r="F8">
-        <v>1.005598214461097</v>
+        <v>1.005598214461098</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.044453512369528</v>
       </c>
       <c r="J8">
-        <v>1.020152994401961</v>
+        <v>1.020152994401962</v>
       </c>
       <c r="K8">
-        <v>1.028352750245769</v>
+        <v>1.02835275024577</v>
       </c>
       <c r="L8">
-        <v>1.016723182914314</v>
+        <v>1.016723182914315</v>
       </c>
       <c r="M8">
-        <v>1.01670288461685</v>
+        <v>1.016702884616851</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9818087442795463</v>
+        <v>0.9818087442795491</v>
       </c>
       <c r="D9">
-        <v>1.004462404429294</v>
+        <v>1.004462404429296</v>
       </c>
       <c r="E9">
-        <v>0.9912625124023988</v>
+        <v>0.991262512402401</v>
       </c>
       <c r="F9">
-        <v>0.9866101602799644</v>
+        <v>0.9866101602799663</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037972618412478</v>
+        <v>1.03797261841248</v>
       </c>
       <c r="J9">
-        <v>1.008020651554458</v>
+        <v>1.00802065155446</v>
       </c>
       <c r="K9">
-        <v>1.017483494759307</v>
+        <v>1.017483494759309</v>
       </c>
       <c r="L9">
-        <v>1.004498957995734</v>
+        <v>1.004498957995736</v>
       </c>
       <c r="M9">
-        <v>0.9999242793499555</v>
+        <v>0.9999242793499575</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9698157725357114</v>
+        <v>0.9698157725357119</v>
       </c>
       <c r="D10">
-        <v>0.9951844391331152</v>
+        <v>0.9951844391331159</v>
       </c>
       <c r="E10">
-        <v>0.9809809941021183</v>
+        <v>0.9809809941021194</v>
       </c>
       <c r="F10">
-        <v>0.9729668651900442</v>
+        <v>0.9729668651900452</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.03324088736353</v>
       </c>
       <c r="J10">
-        <v>0.9992803493189208</v>
+        <v>0.9992803493189217</v>
       </c>
       <c r="K10">
         <v>1.009641187781932</v>
       </c>
       <c r="L10">
-        <v>0.9957023484495202</v>
+        <v>0.9957023484495212</v>
       </c>
       <c r="M10">
-        <v>0.9878419893987057</v>
+        <v>0.9878419893987066</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9643829014974822</v>
+        <v>0.9643829014974833</v>
       </c>
       <c r="D11">
-        <v>0.990988038470637</v>
+        <v>0.990988038470638</v>
       </c>
       <c r="E11">
-        <v>0.9763325804371975</v>
+        <v>0.9763325804371986</v>
       </c>
       <c r="F11">
-        <v>0.9667840750281981</v>
+        <v>0.9667840750281997</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031080349777228</v>
+        <v>1.031080349777229</v>
       </c>
       <c r="J11">
-        <v>0.9953163088960922</v>
+        <v>0.9953163088960933</v>
       </c>
       <c r="K11">
-        <v>1.006081932131065</v>
+        <v>1.006081932131066</v>
       </c>
       <c r="L11">
-        <v>0.9917150709634671</v>
+        <v>0.9917150709634679</v>
       </c>
       <c r="M11">
-        <v>0.982360810175357</v>
+        <v>0.9823608101753583</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9623254335216134</v>
+        <v>0.9623254335216148</v>
       </c>
       <c r="D12">
-        <v>0.9893999946696567</v>
+        <v>0.989399994669658</v>
       </c>
       <c r="E12">
-        <v>0.9745736954602741</v>
+        <v>0.9745736954602755</v>
       </c>
       <c r="F12">
-        <v>0.964442051136551</v>
+        <v>0.9644420511365521</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.030259660348058</v>
+        <v>1.030259660348059</v>
       </c>
       <c r="J12">
-        <v>0.9938144924000398</v>
+        <v>0.993814492400041</v>
       </c>
       <c r="K12">
-        <v>1.004733131250606</v>
+        <v>1.004733131250607</v>
       </c>
       <c r="L12">
-        <v>0.9902047919558679</v>
+        <v>0.9902047919558693</v>
       </c>
       <c r="M12">
-        <v>0.9802837343024692</v>
+        <v>0.9802837343024704</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9627686129203544</v>
+        <v>0.9627686129203552</v>
       </c>
       <c r="D13">
-        <v>0.989742004344724</v>
+        <v>0.9897420043447246</v>
       </c>
       <c r="E13">
-        <v>0.974952489951101</v>
+        <v>0.9749524899511018</v>
       </c>
       <c r="F13">
-        <v>0.9649465527582188</v>
+        <v>0.9649465527582196</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030436547598282</v>
+        <v>1.030436547598283</v>
       </c>
       <c r="J13">
-        <v>0.994138009997082</v>
+        <v>0.9941380099970827</v>
       </c>
       <c r="K13">
         <v>1.005023701442183</v>
       </c>
       <c r="L13">
-        <v>0.9905301172126014</v>
+        <v>0.9905301172126024</v>
       </c>
       <c r="M13">
-        <v>0.9807311988905215</v>
+        <v>0.9807311988905224</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9642136569079325</v>
+        <v>0.9642136569079308</v>
       </c>
       <c r="D14">
-        <v>0.9908573834073345</v>
+        <v>0.9908573834073329</v>
       </c>
       <c r="E14">
-        <v>0.9761878656365207</v>
+        <v>0.9761878656365188</v>
       </c>
       <c r="F14">
-        <v>0.9665914358271065</v>
+        <v>0.9665914358271049</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031012890693031</v>
+        <v>1.031012890693029</v>
       </c>
       <c r="J14">
-        <v>0.9951927831721837</v>
+        <v>0.9951927831721822</v>
       </c>
       <c r="K14">
-        <v>1.005970998793648</v>
+        <v>1.005970998793646</v>
       </c>
       <c r="L14">
-        <v>0.9915908423039806</v>
+        <v>0.991590842303979</v>
       </c>
       <c r="M14">
-        <v>0.9821899801364679</v>
+        <v>0.9821899801364662</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9650986574931725</v>
+        <v>0.9650986574931711</v>
       </c>
       <c r="D15">
-        <v>0.9915406430494295</v>
+        <v>0.9915406430494279</v>
       </c>
       <c r="E15">
-        <v>0.9769446588332442</v>
+        <v>0.9769446588332427</v>
       </c>
       <c r="F15">
-        <v>0.9675987457764506</v>
+        <v>0.9675987457764493</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.031365542286105</v>
+        <v>1.031365542286104</v>
       </c>
       <c r="J15">
-        <v>0.995838690209659</v>
+        <v>0.9958386902096577</v>
       </c>
       <c r="K15">
-        <v>1.006551047498432</v>
+        <v>1.00655104749843</v>
       </c>
       <c r="L15">
-        <v>0.9922404387691305</v>
+        <v>0.9922404387691292</v>
       </c>
       <c r="M15">
-        <v>0.9830832170192491</v>
+        <v>0.9830832170192476</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9701709989692774</v>
+        <v>0.9701709989692789</v>
       </c>
       <c r="D16">
-        <v>0.9954589696134311</v>
+        <v>0.9954589696134324</v>
       </c>
       <c r="E16">
-        <v>0.9812851289130795</v>
+        <v>0.9812851289130808</v>
       </c>
       <c r="F16">
-        <v>0.973371060154589</v>
+        <v>0.9733710601545896</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.033381807602086</v>
       </c>
       <c r="J16">
-        <v>0.9995394482374073</v>
+        <v>0.9995394482374088</v>
       </c>
       <c r="K16">
-        <v>1.009873780250863</v>
+        <v>1.009873780250864</v>
       </c>
       <c r="L16">
-        <v>0.9959630133932204</v>
+        <v>0.9959630133932216</v>
       </c>
       <c r="M16">
-        <v>0.9882002013157428</v>
+        <v>0.9882002013157432</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,22 +991,22 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9732862527350161</v>
+        <v>0.9732862527350163</v>
       </c>
       <c r="D17">
-        <v>0.9978672978534876</v>
+        <v>0.9978672978534878</v>
       </c>
       <c r="E17">
-        <v>0.9839533679816828</v>
+        <v>0.9839533679816831</v>
       </c>
       <c r="F17">
-        <v>0.9769154738731188</v>
+        <v>0.9769154738731196</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034615732851469</v>
+        <v>1.03461573285147</v>
       </c>
       <c r="J17">
         <v>1.001811172379521</v>
@@ -1018,7 +1018,7 @@
         <v>0.9982487268867938</v>
       </c>
       <c r="M17">
-        <v>0.9913407382863891</v>
+        <v>0.9913407382863898</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1032,13 +1032,13 @@
         <v>0.9750804406629975</v>
       </c>
       <c r="D18">
-        <v>0.9992549452055749</v>
+        <v>0.999254945205575</v>
       </c>
       <c r="E18">
         <v>0.9854909552352549</v>
       </c>
       <c r="F18">
-        <v>0.9789566282013888</v>
+        <v>0.9789566282013887</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1053,10 +1053,10 @@
         <v>1.013086551670582</v>
       </c>
       <c r="L18">
-        <v>0.9995649234167405</v>
+        <v>0.9995649234167403</v>
       </c>
       <c r="M18">
-        <v>0.9931487606409474</v>
+        <v>0.9931487606409473</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.975688427235176</v>
+        <v>0.9756884272351773</v>
       </c>
       <c r="D19">
-        <v>0.9997252670209351</v>
+        <v>0.9997252670209363</v>
       </c>
       <c r="E19">
-        <v>0.9860121298272428</v>
+        <v>0.9860121298272438</v>
       </c>
       <c r="F19">
-        <v>0.9796482742453257</v>
+        <v>0.9796482742453265</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035564788812644</v>
+        <v>1.035564788812645</v>
       </c>
       <c r="J19">
-        <v>1.003562230579958</v>
+        <v>1.003562230579959</v>
       </c>
       <c r="K19">
-        <v>1.013484175496936</v>
+        <v>1.013484175496937</v>
       </c>
       <c r="L19">
-        <v>1.000010894355639</v>
+        <v>1.00001089435564</v>
       </c>
       <c r="M19">
-        <v>0.9937613155192108</v>
+        <v>0.9937613155192117</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9729544061169124</v>
+        <v>0.9729544061169108</v>
       </c>
       <c r="D20">
-        <v>0.9976106912303797</v>
+        <v>0.9976106912303785</v>
       </c>
       <c r="E20">
-        <v>0.9836690494301594</v>
+        <v>0.9836690494301576</v>
       </c>
       <c r="F20">
-        <v>0.9765379342027338</v>
+        <v>0.9765379342027323</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034484457610412</v>
+        <v>1.034484457610411</v>
       </c>
       <c r="J20">
-        <v>1.001569226550741</v>
+        <v>1.001569226550739</v>
       </c>
       <c r="K20">
-        <v>1.011695684265394</v>
+        <v>1.011695684265393</v>
       </c>
       <c r="L20">
-        <v>0.9980052687069554</v>
+        <v>0.9980052687069539</v>
       </c>
       <c r="M20">
-        <v>0.9910062748803954</v>
+        <v>0.9910062748803939</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9637892464909251</v>
+        <v>0.9637892464909239</v>
       </c>
       <c r="D21">
-        <v>0.9905297623276524</v>
+        <v>0.9905297623276512</v>
       </c>
       <c r="E21">
-        <v>0.9758249925793971</v>
+        <v>0.9758249925793959</v>
       </c>
       <c r="F21">
-        <v>0.9661083496252517</v>
+        <v>0.9661083496252503</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030843685690412</v>
+        <v>1.030843685690411</v>
       </c>
       <c r="J21">
-        <v>0.9948830114057906</v>
+        <v>0.9948830114057893</v>
       </c>
       <c r="K21">
-        <v>1.005692800229701</v>
+        <v>1.0056928002297</v>
       </c>
       <c r="L21">
-        <v>0.9912793132170791</v>
+        <v>0.9912793132170779</v>
       </c>
       <c r="M21">
-        <v>0.9817615723208922</v>
+        <v>0.9817615723208908</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9577964104910198</v>
+        <v>0.957796410491019</v>
       </c>
       <c r="D22">
-        <v>0.9859066583274455</v>
+        <v>0.9859066583274448</v>
       </c>
       <c r="E22">
-        <v>0.9707048579776375</v>
+        <v>0.9707048579776371</v>
       </c>
       <c r="F22">
-        <v>0.9592853606242806</v>
+        <v>0.9592853606242795</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.028448634117576</v>
       </c>
       <c r="J22">
-        <v>0.9905075964586181</v>
+        <v>0.9905075964586172</v>
       </c>
       <c r="K22">
-        <v>1.001762574249147</v>
+        <v>1.001762574249146</v>
       </c>
       <c r="L22">
-        <v>0.9868798861851875</v>
+        <v>0.9868798861851867</v>
       </c>
       <c r="M22">
-        <v>0.9757089576891073</v>
+        <v>0.9757089576891064</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1222,7 +1222,7 @@
         <v>0.9609964269853016</v>
       </c>
       <c r="D23">
-        <v>0.9883745613023965</v>
+        <v>0.988374561302397</v>
       </c>
       <c r="E23">
         <v>0.9734379972862588</v>
@@ -1237,16 +1237,16 @@
         <v>1.029728854300711</v>
       </c>
       <c r="J23">
-        <v>0.9928442465983712</v>
+        <v>0.9928442465983716</v>
       </c>
       <c r="K23">
-        <v>1.003861649067829</v>
+        <v>1.00386164906783</v>
       </c>
       <c r="L23">
-        <v>0.9892291745132424</v>
+        <v>0.9892291745132425</v>
       </c>
       <c r="M23">
-        <v>0.9789416732849748</v>
+        <v>0.9789416732849747</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9731044237931203</v>
+        <v>0.9731044237931197</v>
       </c>
       <c r="D24">
-        <v>0.9977266933509767</v>
+        <v>0.9977266933509761</v>
       </c>
       <c r="E24">
-        <v>0.9837975784898483</v>
+        <v>0.9837975784898472</v>
       </c>
       <c r="F24">
-        <v>0.9767086089199953</v>
+        <v>0.9767086089199947</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.034543808114916</v>
       </c>
       <c r="J24">
-        <v>1.001678604219239</v>
+        <v>1.001678604219238</v>
       </c>
       <c r="K24">
         <v>1.01179384876164</v>
       </c>
       <c r="L24">
-        <v>0.9981153293996083</v>
+        <v>0.9981153293996073</v>
       </c>
       <c r="M24">
-        <v>0.9911574777753371</v>
+        <v>0.9911574777753365</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9862659315721295</v>
+        <v>0.9862659315721306</v>
       </c>
       <c r="D25">
-        <v>1.007915098863984</v>
+        <v>1.007915098863985</v>
       </c>
       <c r="E25">
-        <v>0.9950906818285425</v>
+        <v>0.9950906818285434</v>
       </c>
       <c r="F25">
-        <v>0.991679883986032</v>
+        <v>0.9916798839860328</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.039716221962372</v>
       </c>
       <c r="J25">
-        <v>1.011264509897505</v>
+        <v>1.011264509897506</v>
       </c>
       <c r="K25">
-        <v>1.020391773249205</v>
+        <v>1.020391773249206</v>
       </c>
       <c r="L25">
-        <v>1.007765689714315</v>
+        <v>1.007765689714316</v>
       </c>
       <c r="M25">
-        <v>1.004408746901841</v>
+        <v>1.004408746901842</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_41/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_41/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9961520850820033</v>
+        <v>0.9961606542858412</v>
       </c>
       <c r="D2">
-        <v>1.015580671619672</v>
+        <v>1.015587718649132</v>
       </c>
       <c r="E2">
-        <v>1.003595205591552</v>
+        <v>1.003604122629806</v>
       </c>
       <c r="F2">
-        <v>1.002925525126801</v>
+        <v>1.002932750374132</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043550014599062</v>
+        <v>1.043554090647261</v>
       </c>
       <c r="J2">
-        <v>1.018448498919494</v>
+        <v>1.018456809088745</v>
       </c>
       <c r="K2">
-        <v>1.02682712795783</v>
+        <v>1.026834080560741</v>
       </c>
       <c r="L2">
-        <v>1.015004679699427</v>
+        <v>1.015013473630117</v>
       </c>
       <c r="M2">
-        <v>1.01434425265077</v>
+        <v>1.014351377978953</v>
+      </c>
+      <c r="N2">
+        <v>1.013769017144063</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.003019594100819</v>
+        <v>1.003024106070184</v>
       </c>
       <c r="D3">
-        <v>1.020910657670172</v>
+        <v>1.020914381156708</v>
       </c>
       <c r="E3">
-        <v>1.009513933125227</v>
+        <v>1.009519189582755</v>
       </c>
       <c r="F3">
-        <v>1.010739827014581</v>
+        <v>1.010743895760435</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046182410803471</v>
+        <v>1.046184569013984</v>
       </c>
       <c r="J3">
-        <v>1.023428279049679</v>
+        <v>1.023432669024377</v>
       </c>
       <c r="K3">
-        <v>1.031282795111968</v>
+        <v>1.031286473350937</v>
       </c>
       <c r="L3">
-        <v>1.020026511647052</v>
+        <v>1.020031702418704</v>
       </c>
       <c r="M3">
-        <v>1.021237109542176</v>
+        <v>1.021241127597551</v>
+      </c>
+      <c r="N3">
+        <v>1.017265200176942</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.007332108023672</v>
+        <v>1.007334115309308</v>
       </c>
       <c r="D4">
-        <v>1.024259326907047</v>
+        <v>1.024260993679653</v>
       </c>
       <c r="E4">
-        <v>1.013235261746779</v>
+        <v>1.013238257473804</v>
       </c>
       <c r="F4">
-        <v>1.015648663640421</v>
+        <v>1.015650797566468</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047820871878112</v>
+        <v>1.047821841734853</v>
       </c>
       <c r="J4">
-        <v>1.026550099306142</v>
+        <v>1.026552056248778</v>
       </c>
       <c r="K4">
-        <v>1.03407352094551</v>
+        <v>1.034075168760247</v>
       </c>
       <c r="L4">
-        <v>1.023176530698193</v>
+        <v>1.0231794914288</v>
       </c>
       <c r="M4">
-        <v>1.025561821677075</v>
+        <v>1.025563930820572</v>
+      </c>
+      <c r="N4">
+        <v>1.01945455159673</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.009115365460019</v>
+        <v>1.009116346211457</v>
       </c>
       <c r="D5">
-        <v>1.025644332914531</v>
+        <v>1.025645155677121</v>
       </c>
       <c r="E5">
-        <v>1.014775102346259</v>
+        <v>1.014777171435973</v>
       </c>
       <c r="F5">
-        <v>1.017679019724941</v>
+        <v>1.017680363699399</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048494840369148</v>
+        <v>1.048495322199398</v>
       </c>
       <c r="J5">
-        <v>1.027839679421183</v>
+        <v>1.0278406363591</v>
       </c>
       <c r="K5">
-        <v>1.035225704315803</v>
+        <v>1.035226517983946</v>
       </c>
       <c r="L5">
-        <v>1.02447820350181</v>
+        <v>1.024480249112887</v>
       </c>
       <c r="M5">
-        <v>1.02734928494256</v>
+        <v>1.027350613773525</v>
+      </c>
+      <c r="N5">
+        <v>1.020358346359787</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.009413085866631</v>
+        <v>1.009413895742645</v>
       </c>
       <c r="D6">
-        <v>1.025875579412309</v>
+        <v>1.025876261622156</v>
       </c>
       <c r="E6">
-        <v>1.015032243115124</v>
+        <v>1.015034157956687</v>
       </c>
       <c r="F6">
-        <v>1.0180180267293</v>
+        <v>1.018019239379806</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.0486071514277</v>
+        <v>1.048607551965758</v>
       </c>
       <c r="J6">
-        <v>1.028054900020419</v>
+        <v>1.028055690339507</v>
       </c>
       <c r="K6">
-        <v>1.035417957098894</v>
+        <v>1.035418631804352</v>
       </c>
       <c r="L6">
-        <v>1.024695468504249</v>
+        <v>1.024697361724304</v>
       </c>
       <c r="M6">
-        <v>1.0276476597042</v>
+        <v>1.027648858760724</v>
+      </c>
+      <c r="N6">
+        <v>1.020509146901285</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.007356050654593</v>
+        <v>1.007358044122781</v>
       </c>
       <c r="D7">
-        <v>1.024277921383882</v>
+        <v>1.024279576799988</v>
       </c>
       <c r="E7">
-        <v>1.013255932132491</v>
+        <v>1.013258915386884</v>
       </c>
       <c r="F7">
-        <v>1.015675921754628</v>
+        <v>1.015678045036041</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047829934919101</v>
+        <v>1.047830898210683</v>
       </c>
       <c r="J7">
-        <v>1.026567418929349</v>
+        <v>1.026569362422554</v>
       </c>
       <c r="K7">
-        <v>1.034088997775923</v>
+        <v>1.034090634370458</v>
       </c>
       <c r="L7">
-        <v>1.023194010968044</v>
+        <v>1.023196959385158</v>
       </c>
       <c r="M7">
-        <v>1.025585824026795</v>
+        <v>1.02558792265917</v>
+      </c>
+      <c r="N7">
+        <v>1.019466692337245</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9985012263996613</v>
+        <v>0.998508397907709</v>
       </c>
       <c r="D8">
-        <v>1.017403470645496</v>
+        <v>1.017409373868888</v>
       </c>
       <c r="E8">
-        <v>1.005618787543497</v>
+        <v>1.005626443813922</v>
       </c>
       <c r="F8">
-        <v>1.005598214461098</v>
+        <v>1.005604349174726</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044453512369528</v>
+        <v>1.044456928718655</v>
       </c>
       <c r="J8">
-        <v>1.020152994401962</v>
+        <v>1.020159957024402</v>
       </c>
       <c r="K8">
-        <v>1.02835275024577</v>
+        <v>1.028358576895302</v>
       </c>
       <c r="L8">
-        <v>1.016723182914315</v>
+        <v>1.01673073692716</v>
       </c>
       <c r="M8">
-        <v>1.016702884616851</v>
+        <v>1.016708937390531</v>
+      </c>
+      <c r="N8">
+        <v>1.01496619787931</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9818087442795491</v>
+        <v>0.9818260904920919</v>
       </c>
       <c r="D9">
-        <v>1.004462404429296</v>
+        <v>1.004476606103468</v>
       </c>
       <c r="E9">
-        <v>0.991262512402401</v>
+        <v>0.9912793359356307</v>
       </c>
       <c r="F9">
-        <v>0.9866101602799663</v>
+        <v>0.986624309699712</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03797261841248</v>
+        <v>1.037980813942136</v>
       </c>
       <c r="J9">
-        <v>1.00802065155446</v>
+        <v>1.00803735285849</v>
       </c>
       <c r="K9">
-        <v>1.017483494759309</v>
+        <v>1.017497468643587</v>
       </c>
       <c r="L9">
-        <v>1.004498957995736</v>
+        <v>1.004515502354627</v>
       </c>
       <c r="M9">
-        <v>0.9999242793499575</v>
+        <v>0.9999381911058184</v>
+      </c>
+      <c r="N9">
+        <v>1.006435269051086</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9698157725357119</v>
+        <v>0.9698408175181723</v>
       </c>
       <c r="D10">
-        <v>0.9951844391331159</v>
+        <v>0.9952048755439262</v>
       </c>
       <c r="E10">
-        <v>0.9809809941021194</v>
+        <v>0.9810047314972218</v>
       </c>
       <c r="F10">
-        <v>0.9729668651900452</v>
+        <v>0.9729871973406556</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03324088736353</v>
+        <v>1.033252664266993</v>
       </c>
       <c r="J10">
-        <v>0.9992803493189217</v>
+        <v>0.9993043101766373</v>
       </c>
       <c r="K10">
-        <v>1.009641187781932</v>
+        <v>1.009661250553162</v>
       </c>
       <c r="L10">
-        <v>0.9957023484495212</v>
+        <v>0.9957256352663794</v>
       </c>
       <c r="M10">
-        <v>0.9878419893987066</v>
+        <v>0.9878619272280573</v>
+      </c>
+      <c r="N10">
+        <v>1.000278203406786</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9643829014974833</v>
+        <v>0.9644115561221146</v>
       </c>
       <c r="D11">
-        <v>0.990988038470638</v>
+        <v>0.9910113845865549</v>
       </c>
       <c r="E11">
-        <v>0.9763325804371986</v>
+        <v>0.9763595508087576</v>
       </c>
       <c r="F11">
-        <v>0.9667840750281997</v>
+        <v>0.9668073415114334</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031080349777229</v>
+        <v>1.03109379583117</v>
       </c>
       <c r="J11">
-        <v>0.9953163088960933</v>
+        <v>0.9953436412850338</v>
       </c>
       <c r="K11">
-        <v>1.006081932131066</v>
+        <v>1.006104827433464</v>
       </c>
       <c r="L11">
-        <v>0.9917150709634679</v>
+        <v>0.9917414997591568</v>
       </c>
       <c r="M11">
-        <v>0.9823608101753583</v>
+        <v>0.9823835971949733</v>
+      </c>
+      <c r="N11">
+        <v>0.9974834312319474</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9623254335216148</v>
+        <v>0.9623554765521845</v>
       </c>
       <c r="D12">
-        <v>0.989399994669658</v>
+        <v>0.9894244576467439</v>
       </c>
       <c r="E12">
-        <v>0.9745736954602755</v>
+        <v>0.9746019077355779</v>
       </c>
       <c r="F12">
-        <v>0.9644420511365521</v>
+        <v>0.9644664523432139</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.030259660348059</v>
+        <v>1.030273746749749</v>
       </c>
       <c r="J12">
-        <v>0.993814492400041</v>
+        <v>0.9938431161843763</v>
       </c>
       <c r="K12">
-        <v>1.004733131250607</v>
+        <v>1.004757112290967</v>
       </c>
       <c r="L12">
-        <v>0.9902047919558693</v>
+        <v>0.9902324259005735</v>
       </c>
       <c r="M12">
-        <v>0.9802837343024704</v>
+        <v>0.980307621295521</v>
+      </c>
+      <c r="N12">
+        <v>0.9964242883707158</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9627686129203552</v>
+        <v>0.962798355866753</v>
       </c>
       <c r="D13">
-        <v>0.9897420043447246</v>
+        <v>0.9897662260378206</v>
       </c>
       <c r="E13">
-        <v>0.9749524899511018</v>
+        <v>0.9749804338852173</v>
       </c>
       <c r="F13">
-        <v>0.9649465527582196</v>
+        <v>0.9649707084245299</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030436547598283</v>
+        <v>1.030450495676046</v>
       </c>
       <c r="J13">
-        <v>0.9941380099970827</v>
+        <v>0.9941663549189734</v>
       </c>
       <c r="K13">
-        <v>1.005023701442183</v>
+        <v>1.005047447992151</v>
       </c>
       <c r="L13">
-        <v>0.9905301172126024</v>
+        <v>0.9905574908416929</v>
       </c>
       <c r="M13">
-        <v>0.9807311988905224</v>
+        <v>0.9807548479483069</v>
+      </c>
+      <c r="N13">
+        <v>0.9966524599673328</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9642136569079308</v>
+        <v>0.9642424252874567</v>
       </c>
       <c r="D14">
-        <v>0.9908573834073329</v>
+        <v>0.9908808210785857</v>
       </c>
       <c r="E14">
-        <v>0.9761878656365188</v>
+        <v>0.9762149377944583</v>
       </c>
       <c r="F14">
-        <v>0.9665914358271049</v>
+        <v>0.9666147951535622</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031012890693029</v>
+        <v>1.031026389246684</v>
       </c>
       <c r="J14">
-        <v>0.9951927831721822</v>
+        <v>0.9952202214807386</v>
       </c>
       <c r="K14">
-        <v>1.005970998793646</v>
+        <v>1.005993983131122</v>
       </c>
       <c r="L14">
-        <v>0.991590842303979</v>
+        <v>0.9916173699109611</v>
       </c>
       <c r="M14">
-        <v>0.9821899801364662</v>
+        <v>0.9822128571940486</v>
+      </c>
+      <c r="N14">
+        <v>0.9973963219919832</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9650986574931711</v>
+        <v>0.9651268319239361</v>
       </c>
       <c r="D15">
-        <v>0.9915406430494279</v>
+        <v>0.9915636025869614</v>
       </c>
       <c r="E15">
-        <v>0.9769446588332427</v>
+        <v>0.9769711994661631</v>
       </c>
       <c r="F15">
-        <v>0.9675987457764493</v>
+        <v>0.9676216205898622</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.031365542286104</v>
+        <v>1.031378766654354</v>
       </c>
       <c r="J15">
-        <v>0.9958386902096577</v>
+        <v>0.9958655752572092</v>
       </c>
       <c r="K15">
-        <v>1.00655104749843</v>
+        <v>1.006573566802398</v>
       </c>
       <c r="L15">
-        <v>0.9922404387691292</v>
+        <v>0.9922664503131828</v>
       </c>
       <c r="M15">
-        <v>0.9830832170192476</v>
+        <v>0.9831056241285634</v>
+      </c>
+      <c r="N15">
+        <v>0.9978517972750263</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9701709989692789</v>
+        <v>0.9701958107074732</v>
       </c>
       <c r="D16">
-        <v>0.9954589696134324</v>
+        <v>0.9954792177090314</v>
       </c>
       <c r="E16">
-        <v>0.9812851289130808</v>
+        <v>0.9813086572007526</v>
       </c>
       <c r="F16">
-        <v>0.9733710601545896</v>
+        <v>0.9733912034795156</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033381807602086</v>
+        <v>1.033393476432565</v>
       </c>
       <c r="J16">
-        <v>0.9995394482374088</v>
+        <v>0.999563190533447</v>
       </c>
       <c r="K16">
-        <v>1.009873780250864</v>
+        <v>1.009893659504775</v>
       </c>
       <c r="L16">
-        <v>0.9959630133932216</v>
+        <v>0.9959860967532109</v>
       </c>
       <c r="M16">
-        <v>0.9882002013157432</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9882199555632319</v>
+      </c>
+      <c r="N16">
+        <v>1.000460830950563</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9732862527350163</v>
+        <v>0.9733090330518912</v>
       </c>
       <c r="D17">
-        <v>0.9978672978534878</v>
+        <v>0.997885904307834</v>
       </c>
       <c r="E17">
-        <v>0.9839533679816831</v>
+        <v>0.98397507407417</v>
       </c>
       <c r="F17">
-        <v>0.9769154738731196</v>
+        <v>0.9769339766409417</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03461573285147</v>
+        <v>1.034626459303759</v>
       </c>
       <c r="J17">
-        <v>1.001811172379521</v>
+        <v>1.001833007506182</v>
       </c>
       <c r="K17">
-        <v>1.011912824682838</v>
+        <v>1.011931103096041</v>
       </c>
       <c r="L17">
-        <v>0.9982487268867938</v>
+        <v>0.9982700360704972</v>
       </c>
       <c r="M17">
-        <v>0.9913407382863898</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9913588963281945</v>
+      </c>
+      <c r="N17">
+        <v>1.002061812336504</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9750804406629975</v>
+        <v>0.9751020622485052</v>
       </c>
       <c r="D18">
-        <v>0.999254945205575</v>
+        <v>0.9992726140388661</v>
       </c>
       <c r="E18">
-        <v>0.9854909552352549</v>
+        <v>0.9855116211664109</v>
       </c>
       <c r="F18">
-        <v>0.9789566282013887</v>
+        <v>0.9789741984010195</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035324789430391</v>
+        <v>1.03533497743725</v>
       </c>
       <c r="J18">
-        <v>1.003119098493711</v>
+        <v>1.003139842844383</v>
       </c>
       <c r="K18">
-        <v>1.013086551670582</v>
+        <v>1.013103914935142</v>
       </c>
       <c r="L18">
-        <v>0.9995649234167403</v>
+        <v>0.9995852188620986</v>
       </c>
       <c r="M18">
-        <v>0.9931487606409473</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9931660103548839</v>
+      </c>
+      <c r="N18">
+        <v>1.002983343716066</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9756884272351773</v>
+        <v>0.975709657991564</v>
       </c>
       <c r="D19">
-        <v>0.9997252670209363</v>
+        <v>0.9997426194040736</v>
       </c>
       <c r="E19">
-        <v>0.9860121298272438</v>
+        <v>0.986032444799284</v>
       </c>
       <c r="F19">
-        <v>0.9796482742453265</v>
+        <v>0.9796655304239801</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035564788812645</v>
+        <v>1.035574795057284</v>
       </c>
       <c r="J19">
-        <v>1.003562230579959</v>
+        <v>1.003582606543158</v>
       </c>
       <c r="K19">
-        <v>1.013484175496937</v>
+        <v>1.013501229758596</v>
       </c>
       <c r="L19">
-        <v>1.00001089435564</v>
+        <v>1.000030847594349</v>
       </c>
       <c r="M19">
-        <v>0.9937613155192117</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9937782592152552</v>
+      </c>
+      <c r="N19">
+        <v>1.003295524987827</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9729544061169108</v>
+        <v>0.9729774016390301</v>
       </c>
       <c r="D20">
-        <v>0.9976106912303785</v>
+        <v>0.9976294717267233</v>
       </c>
       <c r="E20">
-        <v>0.9836690494301576</v>
+        <v>0.9836909486456297</v>
       </c>
       <c r="F20">
-        <v>0.9765379342027323</v>
+        <v>0.9765566104284239</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034484457610411</v>
+        <v>1.034495283992523</v>
       </c>
       <c r="J20">
-        <v>1.001569226550739</v>
+        <v>1.001591264027961</v>
       </c>
       <c r="K20">
-        <v>1.011695684265393</v>
+        <v>1.011714132482553</v>
       </c>
       <c r="L20">
-        <v>0.9980052687069539</v>
+        <v>0.9980267660285489</v>
       </c>
       <c r="M20">
-        <v>0.9910062748803939</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9910246017935067</v>
+      </c>
+      <c r="N20">
+        <v>1.00189132540575</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9637892464909239</v>
+        <v>0.9638183004863035</v>
       </c>
       <c r="D21">
-        <v>0.9905297623276512</v>
+        <v>0.9905534298378434</v>
       </c>
       <c r="E21">
-        <v>0.9758249925793959</v>
+        <v>0.9758523202754963</v>
       </c>
       <c r="F21">
-        <v>0.9661083496252503</v>
+        <v>0.9661319421623609</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030843685690411</v>
+        <v>1.030857316033011</v>
       </c>
       <c r="J21">
-        <v>0.9948830114057893</v>
+        <v>0.9949107155684142</v>
       </c>
       <c r="K21">
-        <v>1.0056928002297</v>
+        <v>1.005716008054793</v>
       </c>
       <c r="L21">
-        <v>0.9912793132170779</v>
+        <v>0.9913060888637405</v>
       </c>
       <c r="M21">
-        <v>0.9817615723208908</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9817846755127549</v>
+      </c>
+      <c r="N21">
+        <v>0.9971778687518633</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.957796410491019</v>
+        <v>0.9578295531642913</v>
       </c>
       <c r="D22">
-        <v>0.9859066583274448</v>
+        <v>0.9859336100387467</v>
       </c>
       <c r="E22">
-        <v>0.9707048579776371</v>
+        <v>0.9707358394140571</v>
       </c>
       <c r="F22">
-        <v>0.9592853606242795</v>
+        <v>0.959312307320744</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.028448634117576</v>
+        <v>1.028464146796515</v>
       </c>
       <c r="J22">
-        <v>0.9905075964586172</v>
+        <v>0.9905390925102612</v>
       </c>
       <c r="K22">
-        <v>1.001762574249146</v>
+        <v>1.001788971726952</v>
       </c>
       <c r="L22">
-        <v>0.9868798861851867</v>
+        <v>0.9869102037913488</v>
       </c>
       <c r="M22">
-        <v>0.9757089576891064</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9757353085668646</v>
+      </c>
+      <c r="N22">
+        <v>0.9940915871033118</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9609964269853016</v>
+        <v>0.9610273733137313</v>
       </c>
       <c r="D23">
-        <v>0.988374561302397</v>
+        <v>0.9883997502146226</v>
       </c>
       <c r="E23">
-        <v>0.9734379972862588</v>
+        <v>0.9734670170432059</v>
       </c>
       <c r="F23">
-        <v>0.9629290521421247</v>
+        <v>0.9629541934144654</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.029728854300711</v>
+        <v>1.02974335681878</v>
       </c>
       <c r="J23">
-        <v>0.9928442465983716</v>
+        <v>0.9928737089554127</v>
       </c>
       <c r="K23">
-        <v>1.00386164906783</v>
+        <v>1.003886335372973</v>
       </c>
       <c r="L23">
-        <v>0.9892291745132425</v>
+        <v>0.9892575915115398</v>
       </c>
       <c r="M23">
-        <v>0.9789416732849747</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9789662771368822</v>
+      </c>
+      <c r="N23">
+        <v>0.9957399466260585</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9731044237931197</v>
+        <v>0.9731273219928609</v>
       </c>
       <c r="D24">
-        <v>0.9977266933509761</v>
+        <v>0.9977453951440091</v>
       </c>
       <c r="E24">
-        <v>0.9837975784898472</v>
+        <v>0.983819390371602</v>
       </c>
       <c r="F24">
-        <v>0.9767086089199947</v>
+        <v>0.9767272066927755</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034543808114916</v>
+        <v>1.034554589308535</v>
       </c>
       <c r="J24">
-        <v>1.001678604219238</v>
+        <v>1.001700550196423</v>
       </c>
       <c r="K24">
-        <v>1.01179384876164</v>
+        <v>1.011812220194548</v>
       </c>
       <c r="L24">
-        <v>0.9981153293996073</v>
+        <v>0.9981367416449023</v>
       </c>
       <c r="M24">
-        <v>0.9911574777753365</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.991175728313004</v>
+      </c>
+      <c r="N24">
+        <v>1.001968398977316</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9862659315721306</v>
+        <v>0.9862805033466971</v>
       </c>
       <c r="D25">
-        <v>1.007915098863985</v>
+        <v>1.007927044231671</v>
       </c>
       <c r="E25">
-        <v>0.9950906818285434</v>
+        <v>0.9951050084568609</v>
       </c>
       <c r="F25">
-        <v>0.9916798839860328</v>
+        <v>0.9916918304069361</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039716221962372</v>
+        <v>1.039723119584516</v>
       </c>
       <c r="J25">
-        <v>1.011264509897506</v>
+        <v>1.011278571988042</v>
       </c>
       <c r="K25">
-        <v>1.020391773249206</v>
+        <v>1.020403536877521</v>
       </c>
       <c r="L25">
-        <v>1.007765689714316</v>
+        <v>1.007779791127631</v>
       </c>
       <c r="M25">
-        <v>1.004408746901842</v>
+        <v>1.004420503865855</v>
+      </c>
+      <c r="N25">
+        <v>1.008718227820133</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_41/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_41/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9961606542858412</v>
+        <v>1.028717680436</v>
       </c>
       <c r="D2">
-        <v>1.015587718649132</v>
+        <v>1.047743716439311</v>
       </c>
       <c r="E2">
-        <v>1.003604122629806</v>
+        <v>1.041476147299587</v>
       </c>
       <c r="F2">
-        <v>1.002932750374132</v>
+        <v>1.054284382059474</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043554090647261</v>
+        <v>1.062636917266057</v>
       </c>
       <c r="J2">
-        <v>1.018456809088745</v>
+        <v>1.050072111951224</v>
       </c>
       <c r="K2">
-        <v>1.026834080560741</v>
+        <v>1.058575686885037</v>
       </c>
       <c r="L2">
-        <v>1.015013473630117</v>
+        <v>1.05238638243849</v>
       </c>
       <c r="M2">
-        <v>1.014351377978953</v>
+        <v>1.065035911298096</v>
       </c>
       <c r="N2">
-        <v>1.013769017144063</v>
+        <v>1.051563334795149</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.003024106070184</v>
+        <v>1.035707282818173</v>
       </c>
       <c r="D3">
-        <v>1.020914381156708</v>
+        <v>1.053276498177478</v>
       </c>
       <c r="E3">
-        <v>1.009519189582755</v>
+        <v>1.047381464203651</v>
       </c>
       <c r="F3">
-        <v>1.010743895760435</v>
+        <v>1.060297126979495</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046184569013984</v>
+        <v>1.065109371752761</v>
       </c>
       <c r="J3">
-        <v>1.023432669024377</v>
+        <v>1.055269698180715</v>
       </c>
       <c r="K3">
-        <v>1.031286473350937</v>
+        <v>1.063270225484023</v>
       </c>
       <c r="L3">
-        <v>1.020031702418704</v>
+        <v>1.057441964740923</v>
       </c>
       <c r="M3">
-        <v>1.021241127597551</v>
+        <v>1.070212522692582</v>
       </c>
       <c r="N3">
-        <v>1.017265200176942</v>
+        <v>1.056768302193258</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.007334115309308</v>
+        <v>1.040106607453064</v>
       </c>
       <c r="D4">
-        <v>1.024260993679653</v>
+        <v>1.056760484628825</v>
       </c>
       <c r="E4">
-        <v>1.013238257473804</v>
+        <v>1.051103418088295</v>
       </c>
       <c r="F4">
-        <v>1.015650797566468</v>
+        <v>1.064086569568689</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047821841734853</v>
+        <v>1.066651460621997</v>
       </c>
       <c r="J4">
-        <v>1.026552056248778</v>
+        <v>1.058537192762981</v>
       </c>
       <c r="K4">
-        <v>1.034075168760247</v>
+        <v>1.066218924737366</v>
       </c>
       <c r="L4">
-        <v>1.0231794914288</v>
+        <v>1.060621842726302</v>
       </c>
       <c r="M4">
-        <v>1.025563930820572</v>
+        <v>1.073468484869763</v>
       </c>
       <c r="N4">
-        <v>1.01945455159673</v>
+        <v>1.060040436992617</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.009116346211457</v>
+        <v>1.041928054432034</v>
       </c>
       <c r="D5">
-        <v>1.025645155677121</v>
+        <v>1.058203247400463</v>
       </c>
       <c r="E5">
-        <v>1.014777171435973</v>
+        <v>1.052645554538463</v>
       </c>
       <c r="F5">
-        <v>1.017680363699399</v>
+        <v>1.065656607379935</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048495322199398</v>
+        <v>1.067286486337242</v>
       </c>
       <c r="J5">
-        <v>1.0278406363591</v>
+        <v>1.059889031514692</v>
       </c>
       <c r="K5">
-        <v>1.035226517983946</v>
+        <v>1.067438237422622</v>
       </c>
       <c r="L5">
-        <v>1.024480249112887</v>
+        <v>1.061937818798168</v>
       </c>
       <c r="M5">
-        <v>1.027350613773525</v>
+        <v>1.074815928855022</v>
       </c>
       <c r="N5">
-        <v>1.020358346359787</v>
+        <v>1.061394195510414</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.009413895742645</v>
+        <v>1.042232281740858</v>
       </c>
       <c r="D6">
-        <v>1.025876261622156</v>
+        <v>1.058444239570785</v>
       </c>
       <c r="E6">
-        <v>1.015034157956687</v>
+        <v>1.052903194803467</v>
       </c>
       <c r="F6">
-        <v>1.018019239379806</v>
+        <v>1.065918905176836</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048607551965758</v>
+        <v>1.067392347338391</v>
       </c>
       <c r="J6">
-        <v>1.028055690339507</v>
+        <v>1.060114762158246</v>
       </c>
       <c r="K6">
-        <v>1.035418631804352</v>
+        <v>1.067641800983891</v>
       </c>
       <c r="L6">
-        <v>1.024697361724304</v>
+        <v>1.06215758350071</v>
       </c>
       <c r="M6">
-        <v>1.027648858760724</v>
+        <v>1.075040947233452</v>
       </c>
       <c r="N6">
-        <v>1.020509146901285</v>
+        <v>1.061620246717373</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.007358044122781</v>
+        <v>1.040131053930335</v>
       </c>
       <c r="D7">
-        <v>1.024279576799988</v>
+        <v>1.056779847572551</v>
       </c>
       <c r="E7">
-        <v>1.013258915386884</v>
+        <v>1.05112411140167</v>
       </c>
       <c r="F7">
-        <v>1.015678045036041</v>
+        <v>1.064107637534085</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047830898210683</v>
+        <v>1.066659997294669</v>
       </c>
       <c r="J7">
-        <v>1.026569362422554</v>
+        <v>1.05855534043487</v>
       </c>
       <c r="K7">
-        <v>1.034090634370458</v>
+        <v>1.066235295853567</v>
       </c>
       <c r="L7">
-        <v>1.023196959385158</v>
+        <v>1.060639507446659</v>
       </c>
       <c r="M7">
-        <v>1.02558792265917</v>
+        <v>1.073486572080492</v>
       </c>
       <c r="N7">
-        <v>1.019466692337245</v>
+        <v>1.060058610436282</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.998508397907709</v>
+        <v>1.031106353796862</v>
       </c>
       <c r="D8">
-        <v>1.017409373868888</v>
+        <v>1.049634131200855</v>
       </c>
       <c r="E8">
-        <v>1.005626443813922</v>
+        <v>1.043493146082173</v>
       </c>
       <c r="F8">
-        <v>1.005604349174726</v>
+        <v>1.056338114373116</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044456928718655</v>
+        <v>1.063484802849241</v>
       </c>
       <c r="J8">
-        <v>1.020159957024402</v>
+        <v>1.051849158421607</v>
       </c>
       <c r="K8">
-        <v>1.028358576895302</v>
+        <v>1.060181267130402</v>
       </c>
       <c r="L8">
-        <v>1.01673073692716</v>
+        <v>1.054114522067965</v>
       </c>
       <c r="M8">
-        <v>1.016708937390531</v>
+        <v>1.066805424877145</v>
       </c>
       <c r="N8">
-        <v>1.01496619787931</v>
+        <v>1.053342904875351</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9818260904920919</v>
+        <v>1.014183702712796</v>
       </c>
       <c r="D9">
-        <v>1.004476606103468</v>
+        <v>1.036252437404121</v>
       </c>
       <c r="E9">
-        <v>0.9912793359356307</v>
+        <v>1.029229222830425</v>
       </c>
       <c r="F9">
-        <v>0.986624309699712</v>
+        <v>1.041813864084659</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037980813942136</v>
+        <v>1.057419906982187</v>
       </c>
       <c r="J9">
-        <v>1.00803735285849</v>
+        <v>1.039245351491436</v>
       </c>
       <c r="K9">
-        <v>1.017497468643587</v>
+        <v>1.048783504643275</v>
       </c>
       <c r="L9">
-        <v>1.004515502354627</v>
+        <v>1.041865230859503</v>
       </c>
       <c r="M9">
-        <v>0.9999381911058184</v>
+        <v>1.054263106399387</v>
       </c>
       <c r="N9">
-        <v>1.006435269051086</v>
+        <v>1.040721199093662</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9698408175181723</v>
+        <v>1.002099866550371</v>
       </c>
       <c r="D10">
-        <v>0.9952048755439262</v>
+        <v>1.026716296538036</v>
       </c>
       <c r="E10">
-        <v>0.9810047314972218</v>
+        <v>1.019081215710794</v>
       </c>
       <c r="F10">
-        <v>0.9729871973406556</v>
+        <v>1.031480422750277</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033252664266993</v>
+        <v>1.053018147457012</v>
       </c>
       <c r="J10">
-        <v>0.9993043101766373</v>
+        <v>1.030230418155316</v>
       </c>
       <c r="K10">
-        <v>1.009661250553162</v>
+        <v>1.040619371857893</v>
       </c>
       <c r="L10">
-        <v>0.9957256352663794</v>
+        <v>1.033114292499451</v>
       </c>
       <c r="M10">
-        <v>0.9878619272280573</v>
+        <v>1.04530363608291</v>
       </c>
       <c r="N10">
-        <v>1.000278203406786</v>
+        <v>1.031693463518177</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9644115561221146</v>
+        <v>0.9966471985537724</v>
       </c>
       <c r="D11">
-        <v>0.9910113845865549</v>
+        <v>1.022419641369225</v>
       </c>
       <c r="E11">
-        <v>0.9763595508087576</v>
+        <v>1.014512585524105</v>
       </c>
       <c r="F11">
-        <v>0.9668073415114334</v>
+        <v>1.026828427829866</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03109379583117</v>
+        <v>1.051016151191786</v>
       </c>
       <c r="J11">
-        <v>0.9953436412850338</v>
+        <v>1.026160126244926</v>
       </c>
       <c r="K11">
-        <v>1.006104827433464</v>
+        <v>1.036930789208576</v>
       </c>
       <c r="L11">
-        <v>0.9917414997591568</v>
+        <v>1.029165908893465</v>
       </c>
       <c r="M11">
-        <v>0.9823835971949733</v>
+        <v>1.041261534507778</v>
       </c>
       <c r="N11">
-        <v>0.9974834312319474</v>
+        <v>1.027617391326406</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9623554765521845</v>
+        <v>0.9945858214224759</v>
       </c>
       <c r="D12">
-        <v>0.9894244576467439</v>
+        <v>1.020796429430685</v>
       </c>
       <c r="E12">
-        <v>0.9746019077355779</v>
+        <v>1.012787156554174</v>
       </c>
       <c r="F12">
-        <v>0.9644664523432139</v>
+        <v>1.025071548556232</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.030273746749749</v>
+        <v>1.050257034652153</v>
       </c>
       <c r="J12">
-        <v>0.9938431161843763</v>
+        <v>1.024621099763192</v>
       </c>
       <c r="K12">
-        <v>1.004757112290967</v>
+        <v>1.035535761461849</v>
       </c>
       <c r="L12">
-        <v>0.9902324259005735</v>
+        <v>1.027673407863957</v>
       </c>
       <c r="M12">
-        <v>0.980307621295521</v>
+        <v>1.039733680358768</v>
       </c>
       <c r="N12">
-        <v>0.9964242883707158</v>
+        <v>1.026076179250538</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.962798355866753</v>
+        <v>0.9950296741725349</v>
       </c>
       <c r="D13">
-        <v>0.9897662260378206</v>
+        <v>1.02114588285903</v>
       </c>
       <c r="E13">
-        <v>0.9749804338852173</v>
+        <v>1.013158592263969</v>
       </c>
       <c r="F13">
-        <v>0.9649707084245299</v>
+        <v>1.025449752809073</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030450495676046</v>
+        <v>1.050420586910659</v>
       </c>
       <c r="J13">
-        <v>0.9941663549189734</v>
+        <v>1.024952490402288</v>
       </c>
       <c r="K13">
-        <v>1.005047447992151</v>
+        <v>1.035836159899905</v>
       </c>
       <c r="L13">
-        <v>0.9905574908416929</v>
+        <v>1.027994760594137</v>
       </c>
       <c r="M13">
-        <v>0.9807548479483069</v>
+        <v>1.040062641461366</v>
       </c>
       <c r="N13">
-        <v>0.9966524599673328</v>
+        <v>1.026408040502353</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9642424252874567</v>
+        <v>0.9964775572543019</v>
       </c>
       <c r="D14">
-        <v>0.9908808210785857</v>
+        <v>1.022286034838313</v>
       </c>
       <c r="E14">
-        <v>0.9762149377944583</v>
+        <v>1.014370554896267</v>
       </c>
       <c r="F14">
-        <v>0.9666147951535622</v>
+        <v>1.02668380754647</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031026389246684</v>
+        <v>1.050953724873225</v>
       </c>
       <c r="J14">
-        <v>0.9952202214807386</v>
+        <v>1.026033476381577</v>
       </c>
       <c r="K14">
-        <v>1.005993983131122</v>
+        <v>1.036815995800267</v>
       </c>
       <c r="L14">
-        <v>0.9916173699109611</v>
+        <v>1.029043078839801</v>
       </c>
       <c r="M14">
-        <v>0.9822128571940486</v>
+        <v>1.041135793383629</v>
       </c>
       <c r="N14">
-        <v>0.9973963219919832</v>
+        <v>1.027490561605723</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9651268319239361</v>
+        <v>0.9973647804873118</v>
       </c>
       <c r="D15">
-        <v>0.9915636025869614</v>
+        <v>1.022984843637155</v>
       </c>
       <c r="E15">
-        <v>0.9769711994661631</v>
+        <v>1.015113446099947</v>
       </c>
       <c r="F15">
-        <v>0.9676216205898622</v>
+        <v>1.027440245425684</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.031378766654354</v>
+        <v>1.051280122857174</v>
       </c>
       <c r="J15">
-        <v>0.9958655752572092</v>
+        <v>1.026695844877552</v>
       </c>
       <c r="K15">
-        <v>1.006573566802398</v>
+        <v>1.037416342793586</v>
       </c>
       <c r="L15">
-        <v>0.9922664503131828</v>
+        <v>1.029685487685106</v>
       </c>
       <c r="M15">
-        <v>0.9831056241285634</v>
+        <v>1.04179343036398</v>
       </c>
       <c r="N15">
-        <v>0.9978517972750263</v>
+        <v>1.028153870740937</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9701958107074732</v>
+        <v>1.002456859673324</v>
       </c>
       <c r="D16">
-        <v>0.9954792177090314</v>
+        <v>1.026997750856178</v>
       </c>
       <c r="E16">
-        <v>0.9813086572007526</v>
+        <v>1.019380560631535</v>
       </c>
       <c r="F16">
-        <v>0.9733912034795156</v>
+        <v>1.031785233652116</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033393476432565</v>
+        <v>1.053148902710028</v>
       </c>
       <c r="J16">
-        <v>0.999563190533447</v>
+        <v>1.030496864001753</v>
       </c>
       <c r="K16">
-        <v>1.009893659504775</v>
+        <v>1.040860783102827</v>
       </c>
       <c r="L16">
-        <v>0.9959860967532109</v>
+        <v>1.033372816159599</v>
       </c>
       <c r="M16">
-        <v>0.9882199555632319</v>
+        <v>1.045568305067117</v>
       </c>
       <c r="N16">
-        <v>1.000460830950563</v>
+        <v>1.031960287748278</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9733090330518912</v>
+        <v>1.00559005471333</v>
       </c>
       <c r="D17">
-        <v>0.997885904307834</v>
+        <v>1.029468712510965</v>
       </c>
       <c r="E17">
-        <v>0.98397507407417</v>
+        <v>1.022009005325645</v>
       </c>
       <c r="F17">
-        <v>0.9769339766409417</v>
+        <v>1.034461688355761</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034626459303759</v>
+        <v>1.054294722981058</v>
       </c>
       <c r="J17">
-        <v>1.001833007506182</v>
+        <v>1.032835097404811</v>
       </c>
       <c r="K17">
-        <v>1.011931103096041</v>
+        <v>1.042979050978166</v>
       </c>
       <c r="L17">
-        <v>0.9982700360704972</v>
+        <v>1.035641836317116</v>
       </c>
       <c r="M17">
-        <v>0.9913588963281945</v>
+        <v>1.047891305503703</v>
       </c>
       <c r="N17">
-        <v>1.002061812336504</v>
+        <v>1.034301841710967</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9751020622485052</v>
+        <v>1.007396554251821</v>
       </c>
       <c r="D18">
-        <v>0.9992726140388661</v>
+        <v>1.030893979778859</v>
       </c>
       <c r="E18">
-        <v>0.9855116211664109</v>
+        <v>1.023525461270249</v>
       </c>
       <c r="F18">
-        <v>0.9789741984010195</v>
+        <v>1.036005853169722</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03533497743725</v>
+        <v>1.054953875335407</v>
       </c>
       <c r="J18">
-        <v>1.003139842844383</v>
+        <v>1.034183011790891</v>
       </c>
       <c r="K18">
-        <v>1.013103914935142</v>
+        <v>1.044199931245238</v>
       </c>
       <c r="L18">
-        <v>0.9995852188620986</v>
+        <v>1.036950105228019</v>
       </c>
       <c r="M18">
-        <v>0.9931660103548839</v>
+        <v>1.049230732020236</v>
       </c>
       <c r="N18">
-        <v>1.002983343716066</v>
+        <v>1.035651670290084</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.975709657991564</v>
+        <v>1.008009038243065</v>
       </c>
       <c r="D19">
-        <v>0.9997426194040736</v>
+        <v>1.031377304253163</v>
       </c>
       <c r="E19">
-        <v>0.986032444799284</v>
+        <v>1.024039769228541</v>
       </c>
       <c r="F19">
-        <v>0.9796655304239801</v>
+        <v>1.036529559858621</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035574795057284</v>
+        <v>1.05517710158787</v>
       </c>
       <c r="J19">
-        <v>1.003582606543158</v>
+        <v>1.034639971895794</v>
       </c>
       <c r="K19">
-        <v>1.013501229758596</v>
+        <v>1.044613784949685</v>
       </c>
       <c r="L19">
-        <v>1.000030847594349</v>
+        <v>1.037393667407597</v>
       </c>
       <c r="M19">
-        <v>0.9937782592152552</v>
+        <v>1.049684863279961</v>
       </c>
       <c r="N19">
-        <v>1.003295524987827</v>
+        <v>1.03610927933075</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9729774016390301</v>
+        <v>1.005256088808607</v>
       </c>
       <c r="D20">
-        <v>0.9976294717267233</v>
+        <v>1.02920527127928</v>
       </c>
       <c r="E20">
-        <v>0.9836909486456297</v>
+        <v>1.021728737738689</v>
       </c>
       <c r="F20">
-        <v>0.9765566104284239</v>
+        <v>1.034176300380749</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034495283992523</v>
+        <v>1.054172744670289</v>
       </c>
       <c r="J20">
-        <v>1.001591264027961</v>
+        <v>1.032585889884176</v>
       </c>
       <c r="K20">
-        <v>1.011714132482553</v>
+        <v>1.042753311040727</v>
       </c>
       <c r="L20">
-        <v>0.9980267660285489</v>
+        <v>1.035399978991237</v>
       </c>
       <c r="M20">
-        <v>0.9910246017935067</v>
+        <v>1.047643690743367</v>
       </c>
       <c r="N20">
-        <v>1.00189132540575</v>
+        <v>1.034052280287068</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9638183004863035</v>
+        <v>0.9960522111057896</v>
       </c>
       <c r="D21">
-        <v>0.9905534298378434</v>
+        <v>1.021951058508626</v>
       </c>
       <c r="E21">
-        <v>0.9758523202754963</v>
+        <v>1.014014466244232</v>
       </c>
       <c r="F21">
-        <v>0.9661319421623609</v>
+        <v>1.026321226906672</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030857316033011</v>
+        <v>1.050797165671527</v>
       </c>
       <c r="J21">
-        <v>0.9949107155684142</v>
+        <v>1.025715920083635</v>
       </c>
       <c r="K21">
-        <v>1.005716008054793</v>
+        <v>1.036528162671561</v>
       </c>
       <c r="L21">
-        <v>0.9913060888637405</v>
+        <v>1.028735107170085</v>
       </c>
       <c r="M21">
-        <v>0.9817846755127549</v>
+        <v>1.040820524017104</v>
       </c>
       <c r="N21">
-        <v>0.9971778687518633</v>
+        <v>1.027172554341414</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9578295531642913</v>
+        <v>0.9900552939062532</v>
       </c>
       <c r="D22">
-        <v>0.9859336100387467</v>
+        <v>1.017231209906825</v>
       </c>
       <c r="E22">
-        <v>0.9707358394140571</v>
+        <v>1.008998375453479</v>
       </c>
       <c r="F22">
-        <v>0.959312307320744</v>
+        <v>1.021213789416114</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.028464146796515</v>
+        <v>1.048584587832982</v>
       </c>
       <c r="J22">
-        <v>0.9905390925102612</v>
+        <v>1.021238261787147</v>
       </c>
       <c r="K22">
-        <v>1.001788971726952</v>
+        <v>1.032468871124559</v>
       </c>
       <c r="L22">
-        <v>0.9869102037913488</v>
+        <v>1.024393655850852</v>
       </c>
       <c r="M22">
-        <v>0.9757353085668646</v>
+        <v>1.036376394209782</v>
       </c>
       <c r="N22">
-        <v>0.9940915871033118</v>
+        <v>1.02268853725655</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9610273733137313</v>
+        <v>0.9932553545012477</v>
       </c>
       <c r="D23">
-        <v>0.9883997502146226</v>
+        <v>1.019749109151686</v>
       </c>
       <c r="E23">
-        <v>0.9734670170432059</v>
+        <v>1.011674030537267</v>
       </c>
       <c r="F23">
-        <v>0.9629541934144654</v>
+        <v>1.023938144755583</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.02974335681878</v>
+        <v>1.049766456880352</v>
       </c>
       <c r="J23">
-        <v>0.9928737089554127</v>
+        <v>1.023627714179875</v>
       </c>
       <c r="K23">
-        <v>1.003886335372973</v>
+        <v>1.034635233435912</v>
       </c>
       <c r="L23">
-        <v>0.9892575915115398</v>
+        <v>1.02671017718394</v>
       </c>
       <c r="M23">
-        <v>0.9789662771368822</v>
+        <v>1.038747656177991</v>
       </c>
       <c r="N23">
-        <v>0.9957399466260585</v>
+        <v>1.025081382945751</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9731273219928609</v>
+        <v>1.005407058429624</v>
       </c>
       <c r="D24">
-        <v>0.9977453951440091</v>
+        <v>1.029324358331394</v>
       </c>
       <c r="E24">
-        <v>0.983819390371602</v>
+        <v>1.021855429952272</v>
       </c>
       <c r="F24">
-        <v>0.9767272066927755</v>
+        <v>1.034305307185824</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034554589308535</v>
+        <v>1.054227889724717</v>
       </c>
       <c r="J24">
-        <v>1.001700550196423</v>
+        <v>1.032698545133306</v>
       </c>
       <c r="K24">
-        <v>1.011812220194548</v>
+        <v>1.042855358396479</v>
       </c>
       <c r="L24">
-        <v>0.9981367416449023</v>
+        <v>1.03550931076951</v>
       </c>
       <c r="M24">
-        <v>0.991175728313004</v>
+        <v>1.047755625070562</v>
       </c>
       <c r="N24">
-        <v>1.001968398977316</v>
+        <v>1.034165095519573</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9862805033466971</v>
+        <v>1.018690723110036</v>
       </c>
       <c r="D25">
-        <v>1.007927044231671</v>
+        <v>1.039813663741431</v>
       </c>
       <c r="E25">
-        <v>0.9951050084568609</v>
+        <v>1.033022272213685</v>
       </c>
       <c r="F25">
-        <v>0.9916918304069361</v>
+        <v>1.045676229560888</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039723119584516</v>
+        <v>1.05904762615639</v>
       </c>
       <c r="J25">
-        <v>1.011278571988042</v>
+        <v>1.04260503672206</v>
       </c>
       <c r="K25">
-        <v>1.020403536877521</v>
+        <v>1.051823835717024</v>
       </c>
       <c r="L25">
-        <v>1.007779791127631</v>
+        <v>1.045128709642583</v>
       </c>
       <c r="M25">
-        <v>1.004420503865855</v>
+        <v>1.0576045703132</v>
       </c>
       <c r="N25">
-        <v>1.008718227820133</v>
+        <v>1.044085655462674</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_41/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_41/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.028717680436</v>
+        <v>1.023406013525973</v>
       </c>
       <c r="D2">
-        <v>1.047743716439311</v>
+        <v>1.041980115972992</v>
       </c>
       <c r="E2">
-        <v>1.041476147299587</v>
+        <v>1.037066761677606</v>
       </c>
       <c r="F2">
-        <v>1.054284382059474</v>
+        <v>1.048927531289494</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.062636917266057</v>
+        <v>1.05467892616361</v>
       </c>
       <c r="J2">
-        <v>1.050072111951224</v>
+        <v>1.044908502216949</v>
       </c>
       <c r="K2">
-        <v>1.058575686885037</v>
+        <v>1.052884014517819</v>
       </c>
       <c r="L2">
-        <v>1.05238638243849</v>
+        <v>1.048032765733104</v>
       </c>
       <c r="M2">
-        <v>1.065035911298096</v>
+        <v>1.059744849883113</v>
       </c>
       <c r="N2">
-        <v>1.051563334795149</v>
+        <v>1.046392392142778</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.035707282818173</v>
+        <v>1.027383526241521</v>
       </c>
       <c r="D3">
-        <v>1.053276498177478</v>
+        <v>1.045020718432783</v>
       </c>
       <c r="E3">
-        <v>1.047381464203651</v>
+        <v>1.040327199308419</v>
       </c>
       <c r="F3">
-        <v>1.060297126979495</v>
+        <v>1.052413654023332</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.065109371752761</v>
+        <v>1.055861753679548</v>
       </c>
       <c r="J3">
-        <v>1.055269698180715</v>
+        <v>1.047154538700854</v>
       </c>
       <c r="K3">
-        <v>1.063270225484023</v>
+        <v>1.055108219937583</v>
       </c>
       <c r="L3">
-        <v>1.057441964740923</v>
+        <v>1.050468832631979</v>
       </c>
       <c r="M3">
-        <v>1.070212522692582</v>
+        <v>1.062417097215062</v>
       </c>
       <c r="N3">
-        <v>1.056768302193258</v>
+        <v>1.048641618256113</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.040106607453064</v>
+        <v>1.02991148234351</v>
       </c>
       <c r="D4">
-        <v>1.056760484628825</v>
+        <v>1.04695626906262</v>
       </c>
       <c r="E4">
-        <v>1.051103418088295</v>
+        <v>1.042404855563154</v>
       </c>
       <c r="F4">
-        <v>1.064086569568689</v>
+        <v>1.054634727680041</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.066651460621997</v>
+        <v>1.056605950976647</v>
       </c>
       <c r="J4">
-        <v>1.058537192762981</v>
+        <v>1.048579808675942</v>
       </c>
       <c r="K4">
-        <v>1.066218924737366</v>
+        <v>1.056519172549556</v>
       </c>
       <c r="L4">
-        <v>1.060621842726302</v>
+        <v>1.052017073529559</v>
       </c>
       <c r="M4">
-        <v>1.073468484869763</v>
+        <v>1.064115615850915</v>
       </c>
       <c r="N4">
-        <v>1.060040436992617</v>
+        <v>1.050068912278047</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.041928054432034</v>
+        <v>1.030963616125408</v>
       </c>
       <c r="D5">
-        <v>1.058203247400463</v>
+        <v>1.047762538937355</v>
       </c>
       <c r="E5">
-        <v>1.052645554538463</v>
+        <v>1.043270847539955</v>
       </c>
       <c r="F5">
-        <v>1.065656607379935</v>
+        <v>1.05556040379547</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.067286486337242</v>
+        <v>1.056913841179488</v>
       </c>
       <c r="J5">
-        <v>1.059889031514692</v>
+        <v>1.049172444125925</v>
       </c>
       <c r="K5">
-        <v>1.067438237422622</v>
+        <v>1.057105737308327</v>
       </c>
       <c r="L5">
-        <v>1.061937818798168</v>
+        <v>1.052661413196686</v>
       </c>
       <c r="M5">
-        <v>1.074815928855022</v>
+        <v>1.06482253763993</v>
       </c>
       <c r="N5">
-        <v>1.061394195510414</v>
+        <v>1.050662389338345</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.042232281740858</v>
+        <v>1.031139660830743</v>
       </c>
       <c r="D6">
-        <v>1.058444239570785</v>
+        <v>1.047897485027347</v>
       </c>
       <c r="E6">
-        <v>1.052903194803467</v>
+        <v>1.043415820539734</v>
       </c>
       <c r="F6">
-        <v>1.065918905176836</v>
+        <v>1.055715362842697</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.067392347338391</v>
+        <v>1.056965248610807</v>
       </c>
       <c r="J6">
-        <v>1.060114762158246</v>
+        <v>1.049271571085149</v>
       </c>
       <c r="K6">
-        <v>1.067641800983891</v>
+        <v>1.057203841775657</v>
       </c>
       <c r="L6">
-        <v>1.06215758350071</v>
+        <v>1.052769222095722</v>
       </c>
       <c r="M6">
-        <v>1.075040947233452</v>
+        <v>1.064940819910545</v>
       </c>
       <c r="N6">
-        <v>1.061620246717373</v>
+        <v>1.050761657069222</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.040131053930335</v>
+        <v>1.029925582296026</v>
       </c>
       <c r="D7">
-        <v>1.056779847572551</v>
+        <v>1.046967071428317</v>
       </c>
       <c r="E7">
-        <v>1.05112411140167</v>
+        <v>1.042416455994124</v>
       </c>
       <c r="F7">
-        <v>1.064107637534085</v>
+        <v>1.054647127981485</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.066659997294669</v>
+        <v>1.05661008442316</v>
       </c>
       <c r="J7">
-        <v>1.05855534043487</v>
+        <v>1.048587753007166</v>
       </c>
       <c r="K7">
-        <v>1.066235295853567</v>
+        <v>1.056527035974487</v>
       </c>
       <c r="L7">
-        <v>1.060639507446659</v>
+        <v>1.052025708699757</v>
       </c>
       <c r="M7">
-        <v>1.073486572080492</v>
+        <v>1.064125089563378</v>
       </c>
       <c r="N7">
-        <v>1.060058610436282</v>
+        <v>1.050076867891133</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.031106353796862</v>
+        <v>1.024759914587254</v>
       </c>
       <c r="D8">
-        <v>1.049634131200855</v>
+        <v>1.043014438674556</v>
       </c>
       <c r="E8">
-        <v>1.043493146082173</v>
+        <v>1.038175417395343</v>
       </c>
       <c r="F8">
-        <v>1.056338114373116</v>
+        <v>1.050113010886869</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.063484802849241</v>
+        <v>1.055083112303425</v>
       </c>
       <c r="J8">
-        <v>1.051849158421607</v>
+        <v>1.045673477197059</v>
       </c>
       <c r="K8">
-        <v>1.060181267130402</v>
+        <v>1.053641647533866</v>
       </c>
       <c r="L8">
-        <v>1.054114522067965</v>
+        <v>1.048861963770982</v>
       </c>
       <c r="M8">
-        <v>1.066805424877145</v>
+        <v>1.060654402787092</v>
       </c>
       <c r="N8">
-        <v>1.053342904875351</v>
+        <v>1.047158453475103</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.014183702712796</v>
+        <v>1.015291044385108</v>
       </c>
       <c r="D9">
-        <v>1.036252437404121</v>
+        <v>1.035795200993103</v>
       </c>
       <c r="E9">
-        <v>1.029229222830425</v>
+        <v>1.030446180589032</v>
       </c>
       <c r="F9">
-        <v>1.041813864084659</v>
+        <v>1.041846466425367</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.057419906982187</v>
+        <v>1.05222562411052</v>
       </c>
       <c r="J9">
-        <v>1.039245351491436</v>
+        <v>1.040315155716962</v>
       </c>
       <c r="K9">
-        <v>1.048783504643275</v>
+        <v>1.048333045205221</v>
       </c>
       <c r="L9">
-        <v>1.041865230859503</v>
+        <v>1.043063874427838</v>
       </c>
       <c r="M9">
-        <v>1.054263106399387</v>
+        <v>1.054295232332199</v>
       </c>
       <c r="N9">
-        <v>1.040721199093662</v>
+        <v>1.041792522563896</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.002099866550371</v>
+        <v>1.008708891526676</v>
       </c>
       <c r="D10">
-        <v>1.026716296538036</v>
+        <v>1.030797239130536</v>
       </c>
       <c r="E10">
-        <v>1.019081215710794</v>
+        <v>1.025105993564252</v>
       </c>
       <c r="F10">
-        <v>1.031480422750277</v>
+        <v>1.036132829581685</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.053018147457012</v>
+        <v>1.050201704061644</v>
       </c>
       <c r="J10">
-        <v>1.030230418155316</v>
+        <v>1.036581189958577</v>
       </c>
       <c r="K10">
-        <v>1.040619371857893</v>
+        <v>1.044631846388033</v>
       </c>
       <c r="L10">
-        <v>1.033114292499451</v>
+        <v>1.039036279328942</v>
       </c>
       <c r="M10">
-        <v>1.04530363608291</v>
+        <v>1.049878965537095</v>
       </c>
       <c r="N10">
-        <v>1.031693463518177</v>
+        <v>1.038053254145842</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9966471985537724</v>
+        <v>1.005789256976917</v>
       </c>
       <c r="D11">
-        <v>1.022419641369225</v>
+        <v>1.028585778644644</v>
       </c>
       <c r="E11">
-        <v>1.014512585524105</v>
+        <v>1.022745576922284</v>
       </c>
       <c r="F11">
-        <v>1.026828427829866</v>
+        <v>1.033606801628545</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.051016151191786</v>
+        <v>1.0492954954233</v>
       </c>
       <c r="J11">
-        <v>1.026160126244926</v>
+        <v>1.034923163668513</v>
       </c>
       <c r="K11">
-        <v>1.036930789208576</v>
+        <v>1.042988019577434</v>
       </c>
       <c r="L11">
-        <v>1.029165908893465</v>
+        <v>1.037250925393585</v>
       </c>
       <c r="M11">
-        <v>1.041261534507778</v>
+        <v>1.047921602592198</v>
       </c>
       <c r="N11">
-        <v>1.027617391326406</v>
+        <v>1.036392873268267</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9945858214224759</v>
+        <v>1.004693826125501</v>
       </c>
       <c r="D12">
-        <v>1.020796429430685</v>
+        <v>1.027756930476132</v>
       </c>
       <c r="E12">
-        <v>1.012787156554174</v>
+        <v>1.021861262358361</v>
       </c>
       <c r="F12">
-        <v>1.025071548556232</v>
+        <v>1.032660358994781</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.050257034652153</v>
+        <v>1.048954259164745</v>
       </c>
       <c r="J12">
-        <v>1.024621099763192</v>
+        <v>1.034300854758735</v>
       </c>
       <c r="K12">
-        <v>1.035535761461849</v>
+        <v>1.04237099594715</v>
       </c>
       <c r="L12">
-        <v>1.027673407863957</v>
+        <v>1.036581287042178</v>
       </c>
       <c r="M12">
-        <v>1.039733680358768</v>
+        <v>1.047187492942383</v>
       </c>
       <c r="N12">
-        <v>1.026076179250538</v>
+        <v>1.035769680608458</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9950296741725349</v>
+        <v>1.004929303630969</v>
       </c>
       <c r="D13">
-        <v>1.02114588285903</v>
+        <v>1.02793506178032</v>
       </c>
       <c r="E13">
-        <v>1.013158592263969</v>
+        <v>1.02205129797396</v>
       </c>
       <c r="F13">
-        <v>1.025449752809073</v>
+        <v>1.032863749448467</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.050420586910659</v>
+        <v>1.04902766747581</v>
       </c>
       <c r="J13">
-        <v>1.024952490402288</v>
+        <v>1.034434637999915</v>
       </c>
       <c r="K13">
-        <v>1.035836159899905</v>
+        <v>1.042503644825566</v>
       </c>
       <c r="L13">
-        <v>1.027994760594137</v>
+        <v>1.036725224268719</v>
       </c>
       <c r="M13">
-        <v>1.040062641461366</v>
+        <v>1.047345286068133</v>
       </c>
       <c r="N13">
-        <v>1.026408040502353</v>
+        <v>1.035903653837186</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9964775572543019</v>
+        <v>1.00569893468839</v>
       </c>
       <c r="D14">
-        <v>1.022286034838313</v>
+        <v>1.028517418850836</v>
       </c>
       <c r="E14">
-        <v>1.014370554896267</v>
+        <v>1.022672635192454</v>
       </c>
       <c r="F14">
-        <v>1.02668380754647</v>
+        <v>1.033528737026066</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.050953724873225</v>
+        <v>1.049267384059614</v>
       </c>
       <c r="J14">
-        <v>1.026033476381577</v>
+        <v>1.03487185640442</v>
       </c>
       <c r="K14">
-        <v>1.036815995800267</v>
+        <v>1.042937148916563</v>
       </c>
       <c r="L14">
-        <v>1.029043078839801</v>
+        <v>1.037195706601264</v>
       </c>
       <c r="M14">
-        <v>1.041135793383629</v>
+        <v>1.047861066534103</v>
       </c>
       <c r="N14">
-        <v>1.027490561605723</v>
+        <v>1.036341493141975</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9973647804873118</v>
+        <v>1.006171663411497</v>
       </c>
       <c r="D15">
-        <v>1.022984843637155</v>
+        <v>1.028875236509734</v>
       </c>
       <c r="E15">
-        <v>1.015113446099947</v>
+        <v>1.023054450924962</v>
       </c>
       <c r="F15">
-        <v>1.027440245425684</v>
+        <v>1.033937365202799</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.051280122857174</v>
+        <v>1.049414463290749</v>
       </c>
       <c r="J15">
-        <v>1.026695844877552</v>
+        <v>1.035140379309013</v>
       </c>
       <c r="K15">
-        <v>1.037416342793586</v>
+        <v>1.043203385051317</v>
       </c>
       <c r="L15">
-        <v>1.029685487685106</v>
+        <v>1.037484719766279</v>
       </c>
       <c r="M15">
-        <v>1.04179343036398</v>
+        <v>1.048177911912755</v>
       </c>
       <c r="N15">
-        <v>1.028153870740937</v>
+        <v>1.036610397379893</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.002456859673324</v>
+        <v>1.00890115100783</v>
       </c>
       <c r="D16">
-        <v>1.026997750856178</v>
+        <v>1.030942984017382</v>
       </c>
       <c r="E16">
-        <v>1.019380560631535</v>
+        <v>1.02526160612326</v>
       </c>
       <c r="F16">
-        <v>1.031785233652116</v>
+        <v>1.036299348757917</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.053148902710028</v>
+        <v>1.050261205118449</v>
       </c>
       <c r="J16">
-        <v>1.030496864001753</v>
+        <v>1.036690338334748</v>
       </c>
       <c r="K16">
-        <v>1.040860783102827</v>
+        <v>1.044740053404197</v>
       </c>
       <c r="L16">
-        <v>1.033372816159599</v>
+        <v>1.039153873580079</v>
       </c>
       <c r="M16">
-        <v>1.045568305067117</v>
+        <v>1.050007895419244</v>
       </c>
       <c r="N16">
-        <v>1.031960287748278</v>
+        <v>1.038162557525228</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.00559005471333</v>
+        <v>1.010594327514825</v>
       </c>
       <c r="D17">
-        <v>1.029468712510965</v>
+        <v>1.03222715071771</v>
       </c>
       <c r="E17">
-        <v>1.022009005325645</v>
+        <v>1.02663299836937</v>
       </c>
       <c r="F17">
-        <v>1.034461688355761</v>
+        <v>1.037766797344336</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.054294722981058</v>
+        <v>1.050784254119093</v>
       </c>
       <c r="J17">
-        <v>1.032835097404811</v>
+        <v>1.037651382143859</v>
       </c>
       <c r="K17">
-        <v>1.042979050978166</v>
+        <v>1.045692769664462</v>
       </c>
       <c r="L17">
-        <v>1.035641836317116</v>
+        <v>1.040189631198223</v>
       </c>
       <c r="M17">
-        <v>1.047891305503703</v>
+        <v>1.051143528462144</v>
       </c>
       <c r="N17">
-        <v>1.034301841710967</v>
+        <v>1.039124966126781</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.007396554251821</v>
+        <v>1.011575256724107</v>
       </c>
       <c r="D18">
-        <v>1.030893979778859</v>
+        <v>1.032971640192714</v>
       </c>
       <c r="E18">
-        <v>1.023525461270249</v>
+        <v>1.027428292222163</v>
       </c>
       <c r="F18">
-        <v>1.036005853169722</v>
+        <v>1.038617744276642</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.054953875335407</v>
+        <v>1.051086471203449</v>
       </c>
       <c r="J18">
-        <v>1.034183011790891</v>
+        <v>1.03820798604534</v>
       </c>
       <c r="K18">
-        <v>1.044199931245238</v>
+        <v>1.046244516665152</v>
       </c>
       <c r="L18">
-        <v>1.036950105228019</v>
+        <v>1.040789797081739</v>
       </c>
       <c r="M18">
-        <v>1.049230732020236</v>
+        <v>1.051801593409645</v>
       </c>
       <c r="N18">
-        <v>1.035651670290084</v>
+        <v>1.039682360469645</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.008009038243065</v>
+        <v>1.011908611376711</v>
       </c>
       <c r="D19">
-        <v>1.031377304253163</v>
+        <v>1.033224730255104</v>
       </c>
       <c r="E19">
-        <v>1.024039769228541</v>
+        <v>1.027698693555036</v>
       </c>
       <c r="F19">
-        <v>1.036529559858621</v>
+        <v>1.038907059037684</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.05517710158787</v>
+        <v>1.051189037196963</v>
       </c>
       <c r="J19">
-        <v>1.034639971895794</v>
+        <v>1.038397109978702</v>
       </c>
       <c r="K19">
-        <v>1.044613784949685</v>
+        <v>1.04643198432056</v>
       </c>
       <c r="L19">
-        <v>1.037393667407597</v>
+        <v>1.040993771785687</v>
       </c>
       <c r="M19">
-        <v>1.049684863279961</v>
+        <v>1.052025250361555</v>
       </c>
       <c r="N19">
-        <v>1.03610927933075</v>
+        <v>1.039871752980685</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.005256088808607</v>
+        <v>1.010413359366078</v>
       </c>
       <c r="D20">
-        <v>1.02920527127928</v>
+        <v>1.032089843866878</v>
       </c>
       <c r="E20">
-        <v>1.021728737738689</v>
+        <v>1.026486340726864</v>
       </c>
       <c r="F20">
-        <v>1.034176300380749</v>
+        <v>1.037609872732562</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.054172744670289</v>
+        <v>1.050728433656368</v>
       </c>
       <c r="J20">
-        <v>1.032585889884176</v>
+        <v>1.037548682295682</v>
       </c>
       <c r="K20">
-        <v>1.042753311040727</v>
+        <v>1.045590963175342</v>
       </c>
       <c r="L20">
-        <v>1.035399978991237</v>
+        <v>1.040078917104056</v>
       </c>
       <c r="M20">
-        <v>1.047643690743367</v>
+        <v>1.051022135717547</v>
       </c>
       <c r="N20">
-        <v>1.034052280287068</v>
+        <v>1.039022120433039</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9960522111057896</v>
+        <v>1.005472603957271</v>
       </c>
       <c r="D21">
-        <v>1.021951058508626</v>
+        <v>1.02834613638964</v>
       </c>
       <c r="E21">
-        <v>1.014014466244232</v>
+        <v>1.022489878023688</v>
       </c>
       <c r="F21">
-        <v>1.026321226906672</v>
+        <v>1.033333143042293</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.050797165671527</v>
+        <v>1.04919692253646</v>
       </c>
       <c r="J21">
-        <v>1.025715920083635</v>
+        <v>1.034743286493214</v>
       </c>
       <c r="K21">
-        <v>1.036528162671561</v>
+        <v>1.042809672397641</v>
       </c>
       <c r="L21">
-        <v>1.028735107170085</v>
+        <v>1.037057342292683</v>
       </c>
       <c r="M21">
-        <v>1.040820524017104</v>
+        <v>1.047709379232378</v>
       </c>
       <c r="N21">
-        <v>1.027172554341414</v>
+        <v>1.036212740646749</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9900552939062532</v>
+        <v>1.002302538177908</v>
       </c>
       <c r="D22">
-        <v>1.017231209906825</v>
+        <v>1.025949264212886</v>
       </c>
       <c r="E22">
-        <v>1.008998375453479</v>
+        <v>1.019933281755711</v>
       </c>
       <c r="F22">
-        <v>1.021213789416114</v>
+        <v>1.030596773278377</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.048584587832982</v>
+        <v>1.048207133705733</v>
       </c>
       <c r="J22">
-        <v>1.021238261787147</v>
+        <v>1.032942001997825</v>
       </c>
       <c r="K22">
-        <v>1.032468871124559</v>
+        <v>1.041023612197896</v>
       </c>
       <c r="L22">
-        <v>1.024393655850852</v>
+        <v>1.035119935721411</v>
       </c>
       <c r="M22">
-        <v>1.036376394209782</v>
+        <v>1.045585530760369</v>
       </c>
       <c r="N22">
-        <v>1.02268853725655</v>
+        <v>1.034408898120765</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9932553545012477</v>
+        <v>1.003989256361767</v>
       </c>
       <c r="D23">
-        <v>1.019749109151686</v>
+        <v>1.027224079060979</v>
       </c>
       <c r="E23">
-        <v>1.011674030537267</v>
+        <v>1.021292853406895</v>
       </c>
       <c r="F23">
-        <v>1.023938144755583</v>
+        <v>1.032051992604335</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.049766456880352</v>
+        <v>1.048734437558894</v>
       </c>
       <c r="J23">
-        <v>1.023627714179875</v>
+        <v>1.033900533090759</v>
       </c>
       <c r="K23">
-        <v>1.034635233435912</v>
+        <v>1.041974062832288</v>
       </c>
       <c r="L23">
-        <v>1.02671017718394</v>
+        <v>1.036150649075626</v>
       </c>
       <c r="M23">
-        <v>1.038747656177991</v>
+        <v>1.046715406999764</v>
       </c>
       <c r="N23">
-        <v>1.025081382945751</v>
+        <v>1.035368790437797</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.005407058429624</v>
+        <v>1.010495151665038</v>
       </c>
       <c r="D24">
-        <v>1.029324358331394</v>
+        <v>1.032151900940801</v>
       </c>
       <c r="E24">
-        <v>1.021855429952272</v>
+        <v>1.026552623244505</v>
       </c>
       <c r="F24">
-        <v>1.034305307185824</v>
+        <v>1.037680795608556</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.054227889724717</v>
+        <v>1.050753665374813</v>
       </c>
       <c r="J24">
-        <v>1.032698545133306</v>
+        <v>1.037595100145561</v>
       </c>
       <c r="K24">
-        <v>1.042855358396479</v>
+        <v>1.045636977354123</v>
       </c>
       <c r="L24">
-        <v>1.03550931076951</v>
+        <v>1.040128956299848</v>
       </c>
       <c r="M24">
-        <v>1.047755625070562</v>
+        <v>1.051077001236217</v>
       </c>
       <c r="N24">
-        <v>1.034165095519573</v>
+        <v>1.039068604201589</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.018690723110036</v>
+        <v>1.017784702860661</v>
       </c>
       <c r="D25">
-        <v>1.039813663741431</v>
+        <v>1.037693090282847</v>
       </c>
       <c r="E25">
-        <v>1.033022272213685</v>
+        <v>1.032476231266667</v>
       </c>
       <c r="F25">
-        <v>1.045676229560888</v>
+        <v>1.044018018153023</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.05904762615639</v>
+        <v>1.052984793819315</v>
       </c>
       <c r="J25">
-        <v>1.04260503672206</v>
+        <v>1.041728014615726</v>
       </c>
       <c r="K25">
-        <v>1.051823835717024</v>
+        <v>1.04973314958115</v>
       </c>
       <c r="L25">
-        <v>1.045128709642583</v>
+        <v>1.044590478246439</v>
       </c>
       <c r="M25">
-        <v>1.0576045703132</v>
+        <v>1.055969387040038</v>
       </c>
       <c r="N25">
-        <v>1.044085655462674</v>
+        <v>1.043207387884354</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_41/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_41/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.023406013525973</v>
+        <v>1.047805713851277</v>
       </c>
       <c r="D2">
-        <v>1.041980115972992</v>
+        <v>1.055831166408274</v>
       </c>
       <c r="E2">
-        <v>1.037066761677606</v>
+        <v>1.055693980354425</v>
       </c>
       <c r="F2">
-        <v>1.048927531289494</v>
+        <v>1.067563987234846</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.05467892616361</v>
+        <v>1.046581727576755</v>
       </c>
       <c r="J2">
-        <v>1.044908502216949</v>
+        <v>1.052852826138828</v>
       </c>
       <c r="K2">
-        <v>1.052884014517819</v>
+        <v>1.058570543986037</v>
       </c>
       <c r="L2">
-        <v>1.048032765733104</v>
+        <v>1.058433734901368</v>
       </c>
       <c r="M2">
-        <v>1.059744849883113</v>
+        <v>1.070271512438324</v>
       </c>
       <c r="N2">
-        <v>1.046392392142778</v>
+        <v>1.054347997915852</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.027383526241521</v>
+        <v>1.048660813739666</v>
       </c>
       <c r="D3">
-        <v>1.045020718432783</v>
+        <v>1.056510869454215</v>
       </c>
       <c r="E3">
-        <v>1.040327199308419</v>
+        <v>1.05644292037201</v>
       </c>
       <c r="F3">
-        <v>1.052413654023332</v>
+        <v>1.068365478828986</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.055861753679548</v>
+        <v>1.046793066235077</v>
       </c>
       <c r="J3">
-        <v>1.047154538700854</v>
+        <v>1.053357011502135</v>
       </c>
       <c r="K3">
-        <v>1.055108219937583</v>
+        <v>1.05906410726893</v>
       </c>
       <c r="L3">
-        <v>1.050468832631979</v>
+        <v>1.058996331465311</v>
       </c>
       <c r="M3">
-        <v>1.062417097215062</v>
+        <v>1.070888849259337</v>
       </c>
       <c r="N3">
-        <v>1.048641618256113</v>
+        <v>1.054852899280207</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.02991148234351</v>
+        <v>1.049214869018332</v>
       </c>
       <c r="D4">
-        <v>1.04695626906262</v>
+        <v>1.056951346823777</v>
       </c>
       <c r="E4">
-        <v>1.042404855563154</v>
+        <v>1.05692855212181</v>
       </c>
       <c r="F4">
-        <v>1.054634727680041</v>
+        <v>1.06888515607793</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.056605950976647</v>
+        <v>1.04692904354447</v>
       </c>
       <c r="J4">
-        <v>1.048579808675942</v>
+        <v>1.053683321878806</v>
       </c>
       <c r="K4">
-        <v>1.056519172549556</v>
+        <v>1.059383457344274</v>
       </c>
       <c r="L4">
-        <v>1.052017073529559</v>
+        <v>1.05936071785764</v>
       </c>
       <c r="M4">
-        <v>1.064115615850915</v>
+        <v>1.071288706662163</v>
       </c>
       <c r="N4">
-        <v>1.050068912278047</v>
+        <v>1.05517967305504</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.030963616125408</v>
+        <v>1.049447971343948</v>
       </c>
       <c r="D5">
-        <v>1.047762538937355</v>
+        <v>1.057136680645537</v>
       </c>
       <c r="E5">
-        <v>1.043270847539955</v>
+        <v>1.057132953398287</v>
       </c>
       <c r="F5">
-        <v>1.05556040379547</v>
+        <v>1.069103879819791</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.056913841179488</v>
+        <v>1.046986022605227</v>
       </c>
       <c r="J5">
-        <v>1.049172444125925</v>
+        <v>1.053820517884157</v>
       </c>
       <c r="K5">
-        <v>1.057105737308327</v>
+        <v>1.059517706332912</v>
       </c>
       <c r="L5">
-        <v>1.052661413196686</v>
+        <v>1.059513987913921</v>
       </c>
       <c r="M5">
-        <v>1.06482253763993</v>
+        <v>1.071456900645536</v>
       </c>
       <c r="N5">
-        <v>1.050662389338345</v>
+        <v>1.055317063894456</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.031139660830743</v>
+        <v>1.049487120608688</v>
       </c>
       <c r="D6">
-        <v>1.047897485027347</v>
+        <v>1.057167808170738</v>
       </c>
       <c r="E6">
-        <v>1.043415820539734</v>
+        <v>1.057167287389581</v>
       </c>
       <c r="F6">
-        <v>1.055715362842697</v>
+        <v>1.069140619184002</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.056965248610807</v>
+        <v>1.046995578722844</v>
       </c>
       <c r="J6">
-        <v>1.049271571085149</v>
+        <v>1.053843554545265</v>
       </c>
       <c r="K6">
-        <v>1.057203841775657</v>
+        <v>1.059540246949462</v>
       </c>
       <c r="L6">
-        <v>1.052769222095722</v>
+        <v>1.059539727397117</v>
       </c>
       <c r="M6">
-        <v>1.064940819910545</v>
+        <v>1.071485146615987</v>
       </c>
       <c r="N6">
-        <v>1.050761657069222</v>
+        <v>1.055340133270264</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.029925582296026</v>
+        <v>1.049217983047738</v>
       </c>
       <c r="D7">
-        <v>1.046967071428317</v>
+        <v>1.056953822648251</v>
       </c>
       <c r="E7">
-        <v>1.042416455994124</v>
+        <v>1.056931282394383</v>
       </c>
       <c r="F7">
-        <v>1.054647127981485</v>
+        <v>1.068888077689856</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.05661008442316</v>
+        <v>1.04692980563248</v>
       </c>
       <c r="J7">
-        <v>1.048587753007166</v>
+        <v>1.05368515504079</v>
       </c>
       <c r="K7">
-        <v>1.056527035974487</v>
+        <v>1.05938525121029</v>
       </c>
       <c r="L7">
-        <v>1.052025708699757</v>
+        <v>1.059362765539228</v>
       </c>
       <c r="M7">
-        <v>1.064125089563378</v>
+        <v>1.071290953711372</v>
       </c>
       <c r="N7">
-        <v>1.050076867891133</v>
+        <v>1.055181508820325</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.024759914587254</v>
+        <v>1.048094542863258</v>
       </c>
       <c r="D8">
-        <v>1.043014438674556</v>
+        <v>1.05606073663402</v>
       </c>
       <c r="E8">
-        <v>1.038175417395343</v>
+        <v>1.055946876323669</v>
       </c>
       <c r="F8">
-        <v>1.050113010886869</v>
+        <v>1.067834634678712</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.055083112303425</v>
+        <v>1.0466533100506</v>
       </c>
       <c r="J8">
-        <v>1.045673477197059</v>
+        <v>1.053023202910428</v>
       </c>
       <c r="K8">
-        <v>1.053641647533866</v>
+        <v>1.058737348979744</v>
       </c>
       <c r="L8">
-        <v>1.048861963770982</v>
+        <v>1.058623793930598</v>
       </c>
       <c r="M8">
-        <v>1.060654402787092</v>
+        <v>1.07048006066557</v>
       </c>
       <c r="N8">
-        <v>1.047158453475103</v>
+        <v>1.05451861664201</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.015291044385108</v>
+        <v>1.046120705406469</v>
       </c>
       <c r="D9">
-        <v>1.035795200993103</v>
+        <v>1.054492172116043</v>
       </c>
       <c r="E9">
-        <v>1.030446180589032</v>
+        <v>1.054220103648379</v>
       </c>
       <c r="F9">
-        <v>1.041846466425367</v>
+        <v>1.065986529672524</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.05222562411052</v>
+        <v>1.046160203362361</v>
       </c>
       <c r="J9">
-        <v>1.040315155716962</v>
+        <v>1.051857344030366</v>
       </c>
       <c r="K9">
-        <v>1.048333045205221</v>
+        <v>1.057595583036072</v>
       </c>
       <c r="L9">
-        <v>1.043063874427838</v>
+        <v>1.057324368619307</v>
       </c>
       <c r="M9">
-        <v>1.054295232332199</v>
+        <v>1.069054293379266</v>
       </c>
       <c r="N9">
-        <v>1.041792522563896</v>
+        <v>1.053351102108613</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.008708891526676</v>
+        <v>1.044808819968652</v>
       </c>
       <c r="D10">
-        <v>1.030797239130536</v>
+        <v>1.053450046420203</v>
       </c>
       <c r="E10">
-        <v>1.025105993564252</v>
+        <v>1.053074331041592</v>
       </c>
       <c r="F10">
-        <v>1.036132829581685</v>
+        <v>1.064760090044467</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.050201704061644</v>
+        <v>1.045827553446746</v>
       </c>
       <c r="J10">
-        <v>1.036581189958577</v>
+        <v>1.051080577883082</v>
       </c>
       <c r="K10">
-        <v>1.044631846388033</v>
+        <v>1.056834435079203</v>
       </c>
       <c r="L10">
-        <v>1.039036279328942</v>
+        <v>1.056460014086817</v>
       </c>
       <c r="M10">
-        <v>1.049878965537095</v>
+        <v>1.068105984092427</v>
       </c>
       <c r="N10">
-        <v>1.038053254145842</v>
+        <v>1.052573232864303</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.005789256976917</v>
+        <v>1.044241730678205</v>
       </c>
       <c r="D11">
-        <v>1.028585778644644</v>
+        <v>1.05299966782085</v>
       </c>
       <c r="E11">
-        <v>1.022745576922284</v>
+        <v>1.052579505844349</v>
       </c>
       <c r="F11">
-        <v>1.033606801628545</v>
+        <v>1.064230388941324</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.0492954954233</v>
+        <v>1.045682594039424</v>
       </c>
       <c r="J11">
-        <v>1.034923163668513</v>
+        <v>1.050744358582581</v>
       </c>
       <c r="K11">
-        <v>1.042988019577434</v>
+        <v>1.05650487405885</v>
       </c>
       <c r="L11">
-        <v>1.037250925393585</v>
+        <v>1.056086215332801</v>
       </c>
       <c r="M11">
-        <v>1.047921602592198</v>
+        <v>1.067695898748992</v>
       </c>
       <c r="N11">
-        <v>1.036392873268267</v>
+        <v>1.05223653609383</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.004693826125501</v>
+        <v>1.044031235279619</v>
       </c>
       <c r="D12">
-        <v>1.027756930476132</v>
+        <v>1.052832509557397</v>
       </c>
       <c r="E12">
-        <v>1.021861262358361</v>
+        <v>1.052395903283041</v>
       </c>
       <c r="F12">
-        <v>1.032660358994781</v>
+        <v>1.064033840053496</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.048954259164745</v>
+        <v>1.045628612232929</v>
       </c>
       <c r="J12">
-        <v>1.034300854758735</v>
+        <v>1.050619491983034</v>
       </c>
       <c r="K12">
-        <v>1.04237099594715</v>
+        <v>1.056382464997327</v>
       </c>
       <c r="L12">
-        <v>1.036581287042178</v>
+        <v>1.055947442332586</v>
       </c>
       <c r="M12">
-        <v>1.047187492942383</v>
+        <v>1.067543657423469</v>
       </c>
       <c r="N12">
-        <v>1.035769680608458</v>
+        <v>1.052111492169389</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.004929303630969</v>
+        <v>1.044076380585898</v>
       </c>
       <c r="D13">
-        <v>1.02793506178032</v>
+        <v>1.052868359550588</v>
       </c>
       <c r="E13">
-        <v>1.02205129797396</v>
+        <v>1.052435277684843</v>
       </c>
       <c r="F13">
-        <v>1.032863749448467</v>
+        <v>1.064075991116293</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.04902766747581</v>
+        <v>1.045640197720346</v>
       </c>
       <c r="J13">
-        <v>1.034434637999915</v>
+        <v>1.050646275355818</v>
       </c>
       <c r="K13">
-        <v>1.042503644825566</v>
+        <v>1.056408721926873</v>
       </c>
       <c r="L13">
-        <v>1.036725224268719</v>
+        <v>1.055977206307036</v>
       </c>
       <c r="M13">
-        <v>1.047345286068133</v>
+        <v>1.067576309938493</v>
       </c>
       <c r="N13">
-        <v>1.035903653837186</v>
+        <v>1.052138313577635</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.00569893468839</v>
+        <v>1.044224328057985</v>
       </c>
       <c r="D14">
-        <v>1.028517418850836</v>
+        <v>1.052985847754781</v>
       </c>
       <c r="E14">
-        <v>1.022672635192454</v>
+        <v>1.052564325158126</v>
       </c>
       <c r="F14">
-        <v>1.033528737026066</v>
+        <v>1.064214137941077</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.049267384059614</v>
+        <v>1.045678134685545</v>
       </c>
       <c r="J14">
-        <v>1.03487185640442</v>
+        <v>1.050734036650219</v>
       </c>
       <c r="K14">
-        <v>1.042937148916563</v>
+        <v>1.05649475558615</v>
       </c>
       <c r="L14">
-        <v>1.037195706601264</v>
+        <v>1.056074742825546</v>
       </c>
       <c r="M14">
-        <v>1.047861066534103</v>
+        <v>1.06768331273821</v>
       </c>
       <c r="N14">
-        <v>1.036341493141975</v>
+        <v>1.052226199503141</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.006171663411497</v>
+        <v>1.044315502884127</v>
       </c>
       <c r="D15">
-        <v>1.028875236509734</v>
+        <v>1.053058253715927</v>
       </c>
       <c r="E15">
-        <v>1.023054450924962</v>
+        <v>1.052643861801077</v>
       </c>
       <c r="F15">
-        <v>1.033937365202799</v>
+        <v>1.064299282076381</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.049414463290749</v>
+        <v>1.045701490714103</v>
       </c>
       <c r="J15">
-        <v>1.035140379309013</v>
+        <v>1.050788111999888</v>
       </c>
       <c r="K15">
-        <v>1.043203385051317</v>
+        <v>1.056547764411535</v>
       </c>
       <c r="L15">
-        <v>1.037484719766279</v>
+        <v>1.056134847946134</v>
       </c>
       <c r="M15">
-        <v>1.048177911912755</v>
+        <v>1.067749251694077</v>
       </c>
       <c r="N15">
-        <v>1.036610397379893</v>
+        <v>1.052280351646009</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.00890115100783</v>
+        <v>1.044846476311298</v>
       </c>
       <c r="D16">
-        <v>1.030942984017382</v>
+        <v>1.053479955028383</v>
       </c>
       <c r="E16">
-        <v>1.02526160612326</v>
+        <v>1.053107198556583</v>
       </c>
       <c r="F16">
-        <v>1.036299348757917</v>
+        <v>1.064795273293741</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.050261205118449</v>
+        <v>1.045837154611008</v>
       </c>
       <c r="J16">
-        <v>1.036690338334748</v>
+        <v>1.051102894411839</v>
       </c>
       <c r="K16">
-        <v>1.044740053404197</v>
+        <v>1.056856307522955</v>
       </c>
       <c r="L16">
-        <v>1.039153873580079</v>
+        <v>1.056484831962885</v>
       </c>
       <c r="M16">
-        <v>1.050007895419244</v>
+        <v>1.068133211601807</v>
       </c>
       <c r="N16">
-        <v>1.038162557525228</v>
+        <v>1.052595581085091</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.010594327514825</v>
+        <v>1.045179801687818</v>
       </c>
       <c r="D17">
-        <v>1.03222715071771</v>
+        <v>1.053744711030778</v>
       </c>
       <c r="E17">
-        <v>1.02663299836937</v>
+        <v>1.053398187397389</v>
       </c>
       <c r="F17">
-        <v>1.037766797344336</v>
+        <v>1.065106759801028</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.050784254119093</v>
+        <v>1.045922007269658</v>
       </c>
       <c r="J17">
-        <v>1.037651382143859</v>
+        <v>1.05130038367572</v>
       </c>
       <c r="K17">
-        <v>1.045692769664462</v>
+        <v>1.057049855100739</v>
       </c>
       <c r="L17">
-        <v>1.040189631198223</v>
+        <v>1.056704495253553</v>
       </c>
       <c r="M17">
-        <v>1.051143528462144</v>
+        <v>1.068374204952655</v>
       </c>
       <c r="N17">
-        <v>1.039124966126781</v>
+        <v>1.05279335080638</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.011575256724107</v>
+        <v>1.045374317806987</v>
       </c>
       <c r="D18">
-        <v>1.032971640192714</v>
+        <v>1.053899222418414</v>
       </c>
       <c r="E18">
-        <v>1.027428292222163</v>
+        <v>1.053568041748896</v>
       </c>
       <c r="F18">
-        <v>1.038617744276642</v>
+        <v>1.065288575244153</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.051086471203449</v>
+        <v>1.045971411591456</v>
       </c>
       <c r="J18">
-        <v>1.03820798604534</v>
+        <v>1.051415587846663</v>
       </c>
       <c r="K18">
-        <v>1.046244516665152</v>
+        <v>1.057162750066442</v>
       </c>
       <c r="L18">
-        <v>1.040789797081739</v>
+        <v>1.056832666618545</v>
       </c>
       <c r="M18">
-        <v>1.051801593409645</v>
+        <v>1.068514824174337</v>
       </c>
       <c r="N18">
-        <v>1.039682360469645</v>
+        <v>1.052908718580458</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.011908611376711</v>
+        <v>1.045440658510331</v>
       </c>
       <c r="D19">
-        <v>1.033224730255104</v>
+        <v>1.053951920946596</v>
       </c>
       <c r="E19">
-        <v>1.027698693555036</v>
+        <v>1.053625978918126</v>
       </c>
       <c r="F19">
-        <v>1.038907059037684</v>
+        <v>1.065350591706698</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.051189037196963</v>
+        <v>1.045988242103596</v>
       </c>
       <c r="J19">
-        <v>1.038397109978702</v>
+        <v>1.051454871490213</v>
       </c>
       <c r="K19">
-        <v>1.04643198432056</v>
+        <v>1.057201244618135</v>
       </c>
       <c r="L19">
-        <v>1.040993771785687</v>
+        <v>1.056876377410437</v>
       </c>
       <c r="M19">
-        <v>1.052025250361555</v>
+        <v>1.068562780443322</v>
       </c>
       <c r="N19">
-        <v>1.039871752980685</v>
+        <v>1.052948058011288</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.010413359366078</v>
+        <v>1.045144029390778</v>
       </c>
       <c r="D20">
-        <v>1.032089843866878</v>
+        <v>1.053716296547199</v>
       </c>
       <c r="E20">
-        <v>1.026486340726864</v>
+        <v>1.053366954055197</v>
       </c>
       <c r="F20">
-        <v>1.037609872732562</v>
+        <v>1.065073326719791</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.050728433656368</v>
+        <v>1.045912912561773</v>
       </c>
       <c r="J20">
-        <v>1.037548682295682</v>
+        <v>1.051279193693203</v>
       </c>
       <c r="K20">
-        <v>1.045590963175342</v>
+        <v>1.057029089066718</v>
       </c>
       <c r="L20">
-        <v>1.040078917104056</v>
+        <v>1.056680922745768</v>
       </c>
       <c r="M20">
-        <v>1.051022135717547</v>
+        <v>1.068348343268834</v>
       </c>
       <c r="N20">
-        <v>1.039022120433039</v>
+        <v>1.052772130731656</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.005472603957271</v>
+        <v>1.044180757148353</v>
       </c>
       <c r="D21">
-        <v>1.02834613638964</v>
+        <v>1.052951246736876</v>
       </c>
       <c r="E21">
-        <v>1.022489878023688</v>
+        <v>1.05252631842467</v>
       </c>
       <c r="F21">
-        <v>1.033333143042293</v>
+        <v>1.064173451449888</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.04919692253646</v>
+        <v>1.045666966982419</v>
       </c>
       <c r="J21">
-        <v>1.034743286493214</v>
+        <v>1.050708192567396</v>
       </c>
       <c r="K21">
-        <v>1.042809672397641</v>
+        <v>1.056469420680204</v>
       </c>
       <c r="L21">
-        <v>1.037057342292683</v>
+        <v>1.056046018738319</v>
       </c>
       <c r="M21">
-        <v>1.047709379232378</v>
+        <v>1.067651800786213</v>
       </c>
       <c r="N21">
-        <v>1.036212740646749</v>
+        <v>1.052200318718756</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>1.002302538177908</v>
+        <v>1.043575959929088</v>
       </c>
       <c r="D22">
-        <v>1.025949264212886</v>
+        <v>1.052470996524158</v>
       </c>
       <c r="E22">
-        <v>1.019933281755711</v>
+        <v>1.051998921362597</v>
       </c>
       <c r="F22">
-        <v>1.030596773278377</v>
+        <v>1.063608855211856</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.048207133705733</v>
+        <v>1.045511536495727</v>
       </c>
       <c r="J22">
-        <v>1.032942001997825</v>
+        <v>1.050349299147233</v>
       </c>
       <c r="K22">
-        <v>1.041023612197896</v>
+        <v>1.056117562121106</v>
       </c>
       <c r="L22">
-        <v>1.035119935721411</v>
+        <v>1.05564724960613</v>
       </c>
       <c r="M22">
-        <v>1.045585530760369</v>
+        <v>1.067214335783532</v>
       </c>
       <c r="N22">
-        <v>1.034408898120765</v>
+        <v>1.05184091562877</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.003989256361767</v>
+        <v>1.04389649320719</v>
       </c>
       <c r="D23">
-        <v>1.027224079060979</v>
+        <v>1.052725512918637</v>
       </c>
       <c r="E23">
-        <v>1.021292853406895</v>
+        <v>1.05227839544138</v>
       </c>
       <c r="F23">
-        <v>1.032051992604335</v>
+        <v>1.063908044773441</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.048734437558894</v>
+        <v>1.045594008214959</v>
       </c>
       <c r="J23">
-        <v>1.033900533090759</v>
+        <v>1.050539543735568</v>
       </c>
       <c r="K23">
-        <v>1.041974062832288</v>
+        <v>1.056304085954447</v>
       </c>
       <c r="L23">
-        <v>1.036150649075626</v>
+        <v>1.055858604329428</v>
       </c>
       <c r="M23">
-        <v>1.046715406999764</v>
+        <v>1.067446198304523</v>
       </c>
       <c r="N23">
-        <v>1.035368790437797</v>
+        <v>1.052031430386243</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.010495151665038</v>
+        <v>1.045160193064661</v>
       </c>
       <c r="D24">
-        <v>1.032151900940801</v>
+        <v>1.053729135570899</v>
       </c>
       <c r="E24">
-        <v>1.026552623244505</v>
+        <v>1.053381066670644</v>
       </c>
       <c r="F24">
-        <v>1.037680795608556</v>
+        <v>1.065088433286728</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.050753665374813</v>
+        <v>1.045917022343257</v>
       </c>
       <c r="J24">
-        <v>1.037595100145561</v>
+        <v>1.051288768497209</v>
       </c>
       <c r="K24">
-        <v>1.045636977354123</v>
+        <v>1.05703847233782</v>
       </c>
       <c r="L24">
-        <v>1.040128956299848</v>
+        <v>1.056691574007028</v>
       </c>
       <c r="M24">
-        <v>1.051077001236217</v>
+        <v>1.068360028890474</v>
       </c>
       <c r="N24">
-        <v>1.039068604201589</v>
+        <v>1.052781719132982</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.017784702860661</v>
+        <v>1.046630291023701</v>
       </c>
       <c r="D25">
-        <v>1.037693090282847</v>
+        <v>1.054897059982211</v>
       </c>
       <c r="E25">
-        <v>1.032476231266667</v>
+        <v>1.05466557067015</v>
       </c>
       <c r="F25">
-        <v>1.044018018153023</v>
+        <v>1.066463325487791</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.052984793819315</v>
+        <v>1.046288376131126</v>
       </c>
       <c r="J25">
-        <v>1.041728014615726</v>
+        <v>1.052158668935996</v>
       </c>
       <c r="K25">
-        <v>1.04973314958115</v>
+        <v>1.057890757790195</v>
       </c>
       <c r="L25">
-        <v>1.044590478246439</v>
+        <v>1.057659967706949</v>
       </c>
       <c r="M25">
-        <v>1.055969387040038</v>
+        <v>1.069422507407023</v>
       </c>
       <c r="N25">
-        <v>1.043207387884354</v>
+        <v>1.053652854930171</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_41/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_41/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.047805713851277</v>
+        <v>1.023406013525974</v>
       </c>
       <c r="D2">
-        <v>1.055831166408274</v>
+        <v>1.041980115972992</v>
       </c>
       <c r="E2">
-        <v>1.055693980354425</v>
+        <v>1.037066761677606</v>
       </c>
       <c r="F2">
-        <v>1.067563987234846</v>
+        <v>1.048927531289494</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046581727576755</v>
+        <v>1.05467892616361</v>
       </c>
       <c r="J2">
-        <v>1.052852826138828</v>
+        <v>1.044908502216949</v>
       </c>
       <c r="K2">
-        <v>1.058570543986037</v>
+        <v>1.052884014517819</v>
       </c>
       <c r="L2">
-        <v>1.058433734901368</v>
+        <v>1.048032765733103</v>
       </c>
       <c r="M2">
-        <v>1.070271512438324</v>
+        <v>1.059744849883113</v>
       </c>
       <c r="N2">
-        <v>1.054347997915852</v>
+        <v>1.046392392142778</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.048660813739666</v>
+        <v>1.02738352624152</v>
       </c>
       <c r="D3">
-        <v>1.056510869454215</v>
+        <v>1.045020718432782</v>
       </c>
       <c r="E3">
-        <v>1.05644292037201</v>
+        <v>1.040327199308418</v>
       </c>
       <c r="F3">
-        <v>1.068365478828986</v>
+        <v>1.052413654023331</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046793066235077</v>
+        <v>1.055861753679547</v>
       </c>
       <c r="J3">
-        <v>1.053357011502135</v>
+        <v>1.047154538700853</v>
       </c>
       <c r="K3">
-        <v>1.05906410726893</v>
+        <v>1.055108219937581</v>
       </c>
       <c r="L3">
-        <v>1.058996331465311</v>
+        <v>1.050468832631978</v>
       </c>
       <c r="M3">
-        <v>1.070888849259337</v>
+        <v>1.062417097215061</v>
       </c>
       <c r="N3">
-        <v>1.054852899280207</v>
+        <v>1.048641618256112</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.049214869018332</v>
+        <v>1.029911482343511</v>
       </c>
       <c r="D4">
-        <v>1.056951346823777</v>
+        <v>1.046956269062622</v>
       </c>
       <c r="E4">
-        <v>1.05692855212181</v>
+        <v>1.042404855563155</v>
       </c>
       <c r="F4">
-        <v>1.06888515607793</v>
+        <v>1.054634727680042</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04692904354447</v>
+        <v>1.056605950976648</v>
       </c>
       <c r="J4">
-        <v>1.053683321878806</v>
+        <v>1.048579808675943</v>
       </c>
       <c r="K4">
-        <v>1.059383457344274</v>
+        <v>1.056519172549556</v>
       </c>
       <c r="L4">
-        <v>1.05936071785764</v>
+        <v>1.05201707352956</v>
       </c>
       <c r="M4">
-        <v>1.071288706662163</v>
+        <v>1.064115615850916</v>
       </c>
       <c r="N4">
-        <v>1.05517967305504</v>
+        <v>1.050068912278048</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.049447971343948</v>
+        <v>1.030963616125407</v>
       </c>
       <c r="D5">
-        <v>1.057136680645537</v>
+        <v>1.047762538937354</v>
       </c>
       <c r="E5">
-        <v>1.057132953398287</v>
+        <v>1.043270847539954</v>
       </c>
       <c r="F5">
-        <v>1.069103879819791</v>
+        <v>1.055560403795469</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046986022605227</v>
+        <v>1.056913841179487</v>
       </c>
       <c r="J5">
-        <v>1.053820517884157</v>
+        <v>1.049172444125924</v>
       </c>
       <c r="K5">
-        <v>1.059517706332912</v>
+        <v>1.057105737308326</v>
       </c>
       <c r="L5">
-        <v>1.059513987913921</v>
+        <v>1.052661413196685</v>
       </c>
       <c r="M5">
-        <v>1.071456900645536</v>
+        <v>1.064822537639929</v>
       </c>
       <c r="N5">
-        <v>1.055317063894456</v>
+        <v>1.050662389338344</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.049487120608688</v>
+        <v>1.031139660830743</v>
       </c>
       <c r="D6">
-        <v>1.057167808170738</v>
+        <v>1.047897485027347</v>
       </c>
       <c r="E6">
-        <v>1.057167287389581</v>
+        <v>1.043415820539733</v>
       </c>
       <c r="F6">
-        <v>1.069140619184002</v>
+        <v>1.055715362842696</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046995578722844</v>
+        <v>1.056965248610807</v>
       </c>
       <c r="J6">
-        <v>1.053843554545265</v>
+        <v>1.049271571085149</v>
       </c>
       <c r="K6">
-        <v>1.059540246949462</v>
+        <v>1.057203841775657</v>
       </c>
       <c r="L6">
-        <v>1.059539727397117</v>
+        <v>1.052769222095722</v>
       </c>
       <c r="M6">
-        <v>1.071485146615987</v>
+        <v>1.064940819910545</v>
       </c>
       <c r="N6">
-        <v>1.055340133270264</v>
+        <v>1.050761657069221</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.049217983047738</v>
+        <v>1.029925582296026</v>
       </c>
       <c r="D7">
-        <v>1.056953822648251</v>
+        <v>1.046967071428317</v>
       </c>
       <c r="E7">
-        <v>1.056931282394383</v>
+        <v>1.042416455994124</v>
       </c>
       <c r="F7">
-        <v>1.068888077689856</v>
+        <v>1.054647127981486</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04692980563248</v>
+        <v>1.056610084423161</v>
       </c>
       <c r="J7">
-        <v>1.05368515504079</v>
+        <v>1.048587753007166</v>
       </c>
       <c r="K7">
-        <v>1.05938525121029</v>
+        <v>1.056527035974488</v>
       </c>
       <c r="L7">
-        <v>1.059362765539228</v>
+        <v>1.052025708699757</v>
       </c>
       <c r="M7">
-        <v>1.071290953711372</v>
+        <v>1.064125089563378</v>
       </c>
       <c r="N7">
-        <v>1.055181508820325</v>
+        <v>1.050076867891133</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.048094542863258</v>
+        <v>1.024759914587253</v>
       </c>
       <c r="D8">
-        <v>1.05606073663402</v>
+        <v>1.043014438674555</v>
       </c>
       <c r="E8">
-        <v>1.055946876323669</v>
+        <v>1.038175417395342</v>
       </c>
       <c r="F8">
-        <v>1.067834634678712</v>
+        <v>1.050113010886868</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.0466533100506</v>
+        <v>1.055083112303425</v>
       </c>
       <c r="J8">
-        <v>1.053023202910428</v>
+        <v>1.045673477197058</v>
       </c>
       <c r="K8">
-        <v>1.058737348979744</v>
+        <v>1.053641647533865</v>
       </c>
       <c r="L8">
-        <v>1.058623793930598</v>
+        <v>1.048861963770981</v>
       </c>
       <c r="M8">
-        <v>1.07048006066557</v>
+        <v>1.060654402787091</v>
       </c>
       <c r="N8">
-        <v>1.05451861664201</v>
+        <v>1.047158453475102</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.046120705406469</v>
+        <v>1.015291044385107</v>
       </c>
       <c r="D9">
-        <v>1.054492172116043</v>
+        <v>1.035795200993102</v>
       </c>
       <c r="E9">
-        <v>1.054220103648379</v>
+        <v>1.030446180589031</v>
       </c>
       <c r="F9">
-        <v>1.065986529672524</v>
+        <v>1.041846466425367</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.046160203362361</v>
+        <v>1.05222562411052</v>
       </c>
       <c r="J9">
-        <v>1.051857344030366</v>
+        <v>1.040315155716961</v>
       </c>
       <c r="K9">
-        <v>1.057595583036072</v>
+        <v>1.04833304520522</v>
       </c>
       <c r="L9">
-        <v>1.057324368619307</v>
+        <v>1.043063874427837</v>
       </c>
       <c r="M9">
-        <v>1.069054293379266</v>
+        <v>1.054295232332199</v>
       </c>
       <c r="N9">
-        <v>1.053351102108613</v>
+        <v>1.041792522563895</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.044808819968652</v>
+        <v>1.008708891526675</v>
       </c>
       <c r="D10">
-        <v>1.053450046420203</v>
+        <v>1.030797239130536</v>
       </c>
       <c r="E10">
-        <v>1.053074331041592</v>
+        <v>1.025105993564251</v>
       </c>
       <c r="F10">
-        <v>1.064760090044467</v>
+        <v>1.036132829581684</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.045827553446746</v>
+        <v>1.050201704061644</v>
       </c>
       <c r="J10">
-        <v>1.051080577883082</v>
+        <v>1.036581189958576</v>
       </c>
       <c r="K10">
-        <v>1.056834435079203</v>
+        <v>1.044631846388032</v>
       </c>
       <c r="L10">
-        <v>1.056460014086817</v>
+        <v>1.039036279328941</v>
       </c>
       <c r="M10">
-        <v>1.068105984092427</v>
+        <v>1.049878965537094</v>
       </c>
       <c r="N10">
-        <v>1.052573232864303</v>
+        <v>1.038053254145841</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.044241730678205</v>
+        <v>1.005789256976917</v>
       </c>
       <c r="D11">
-        <v>1.05299966782085</v>
+        <v>1.028585778644644</v>
       </c>
       <c r="E11">
-        <v>1.052579505844349</v>
+        <v>1.022745576922284</v>
       </c>
       <c r="F11">
-        <v>1.064230388941324</v>
+        <v>1.033606801628546</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.045682594039424</v>
+        <v>1.0492954954233</v>
       </c>
       <c r="J11">
-        <v>1.050744358582581</v>
+        <v>1.034923163668513</v>
       </c>
       <c r="K11">
-        <v>1.05650487405885</v>
+        <v>1.042988019577434</v>
       </c>
       <c r="L11">
-        <v>1.056086215332801</v>
+        <v>1.037250925393585</v>
       </c>
       <c r="M11">
-        <v>1.067695898748992</v>
+        <v>1.047921602592198</v>
       </c>
       <c r="N11">
-        <v>1.05223653609383</v>
+        <v>1.036392873268267</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.044031235279619</v>
+        <v>1.004693826125501</v>
       </c>
       <c r="D12">
-        <v>1.052832509557397</v>
+        <v>1.027756930476132</v>
       </c>
       <c r="E12">
-        <v>1.052395903283041</v>
+        <v>1.02186126235836</v>
       </c>
       <c r="F12">
-        <v>1.064033840053496</v>
+        <v>1.03266035899478</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.045628612232929</v>
+        <v>1.048954259164745</v>
       </c>
       <c r="J12">
-        <v>1.050619491983034</v>
+        <v>1.034300854758734</v>
       </c>
       <c r="K12">
-        <v>1.056382464997327</v>
+        <v>1.04237099594715</v>
       </c>
       <c r="L12">
-        <v>1.055947442332586</v>
+        <v>1.036581287042178</v>
       </c>
       <c r="M12">
-        <v>1.067543657423469</v>
+        <v>1.047187492942383</v>
       </c>
       <c r="N12">
-        <v>1.052111492169389</v>
+        <v>1.035769680608458</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.044076380585898</v>
+        <v>1.004929303630969</v>
       </c>
       <c r="D13">
-        <v>1.052868359550588</v>
+        <v>1.02793506178032</v>
       </c>
       <c r="E13">
-        <v>1.052435277684843</v>
+        <v>1.02205129797396</v>
       </c>
       <c r="F13">
-        <v>1.064075991116293</v>
+        <v>1.032863749448466</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.045640197720346</v>
+        <v>1.04902766747581</v>
       </c>
       <c r="J13">
-        <v>1.050646275355818</v>
+        <v>1.034434637999915</v>
       </c>
       <c r="K13">
-        <v>1.056408721926873</v>
+        <v>1.042503644825566</v>
       </c>
       <c r="L13">
-        <v>1.055977206307036</v>
+        <v>1.036725224268719</v>
       </c>
       <c r="M13">
-        <v>1.067576309938493</v>
+        <v>1.047345286068132</v>
       </c>
       <c r="N13">
-        <v>1.052138313577635</v>
+        <v>1.035903653837186</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.044224328057985</v>
+        <v>1.005698934688391</v>
       </c>
       <c r="D14">
-        <v>1.052985847754781</v>
+        <v>1.028517418850837</v>
       </c>
       <c r="E14">
-        <v>1.052564325158126</v>
+        <v>1.022672635192454</v>
       </c>
       <c r="F14">
-        <v>1.064214137941077</v>
+        <v>1.033528737026066</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.045678134685545</v>
+        <v>1.049267384059614</v>
       </c>
       <c r="J14">
-        <v>1.050734036650219</v>
+        <v>1.034871856404419</v>
       </c>
       <c r="K14">
-        <v>1.05649475558615</v>
+        <v>1.042937148916563</v>
       </c>
       <c r="L14">
-        <v>1.056074742825546</v>
+        <v>1.037195706601264</v>
       </c>
       <c r="M14">
-        <v>1.06768331273821</v>
+        <v>1.047861066534103</v>
       </c>
       <c r="N14">
-        <v>1.052226199503141</v>
+        <v>1.036341493141975</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.044315502884127</v>
+        <v>1.006171663411497</v>
       </c>
       <c r="D15">
-        <v>1.053058253715927</v>
+        <v>1.028875236509734</v>
       </c>
       <c r="E15">
-        <v>1.052643861801077</v>
+        <v>1.023054450924962</v>
       </c>
       <c r="F15">
-        <v>1.064299282076381</v>
+        <v>1.033937365202799</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.045701490714103</v>
+        <v>1.049414463290749</v>
       </c>
       <c r="J15">
-        <v>1.050788111999888</v>
+        <v>1.035140379309013</v>
       </c>
       <c r="K15">
-        <v>1.056547764411535</v>
+        <v>1.043203385051317</v>
       </c>
       <c r="L15">
-        <v>1.056134847946134</v>
+        <v>1.037484719766279</v>
       </c>
       <c r="M15">
-        <v>1.067749251694077</v>
+        <v>1.048177911912755</v>
       </c>
       <c r="N15">
-        <v>1.052280351646009</v>
+        <v>1.036610397379893</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.044846476311298</v>
+        <v>1.008901151007829</v>
       </c>
       <c r="D16">
-        <v>1.053479955028383</v>
+        <v>1.030942984017381</v>
       </c>
       <c r="E16">
-        <v>1.053107198556583</v>
+        <v>1.025261606123259</v>
       </c>
       <c r="F16">
-        <v>1.064795273293741</v>
+        <v>1.036299348757916</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.045837154611008</v>
+        <v>1.050261205118449</v>
       </c>
       <c r="J16">
-        <v>1.051102894411839</v>
+        <v>1.036690338334748</v>
       </c>
       <c r="K16">
-        <v>1.056856307522955</v>
+        <v>1.044740053404196</v>
       </c>
       <c r="L16">
-        <v>1.056484831962885</v>
+        <v>1.039153873580078</v>
       </c>
       <c r="M16">
-        <v>1.068133211601807</v>
+        <v>1.050007895419243</v>
       </c>
       <c r="N16">
-        <v>1.052595581085091</v>
+        <v>1.038162557525227</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.045179801687818</v>
+        <v>1.010594327514825</v>
       </c>
       <c r="D17">
-        <v>1.053744711030778</v>
+        <v>1.03222715071771</v>
       </c>
       <c r="E17">
-        <v>1.053398187397389</v>
+        <v>1.02663299836937</v>
       </c>
       <c r="F17">
-        <v>1.065106759801028</v>
+        <v>1.037766797344336</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.045922007269658</v>
+        <v>1.050784254119093</v>
       </c>
       <c r="J17">
-        <v>1.05130038367572</v>
+        <v>1.037651382143859</v>
       </c>
       <c r="K17">
-        <v>1.057049855100739</v>
+        <v>1.045692769664462</v>
       </c>
       <c r="L17">
-        <v>1.056704495253553</v>
+        <v>1.040189631198223</v>
       </c>
       <c r="M17">
-        <v>1.068374204952655</v>
+        <v>1.051143528462144</v>
       </c>
       <c r="N17">
-        <v>1.05279335080638</v>
+        <v>1.039124966126781</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.045374317806987</v>
+        <v>1.011575256724108</v>
       </c>
       <c r="D18">
-        <v>1.053899222418414</v>
+        <v>1.032971640192715</v>
       </c>
       <c r="E18">
-        <v>1.053568041748896</v>
+        <v>1.027428292222165</v>
       </c>
       <c r="F18">
-        <v>1.065288575244153</v>
+        <v>1.038617744276643</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.045971411591456</v>
+        <v>1.051086471203449</v>
       </c>
       <c r="J18">
-        <v>1.051415587846663</v>
+        <v>1.038207986045341</v>
       </c>
       <c r="K18">
-        <v>1.057162750066442</v>
+        <v>1.046244516665152</v>
       </c>
       <c r="L18">
-        <v>1.056832666618545</v>
+        <v>1.04078979708174</v>
       </c>
       <c r="M18">
-        <v>1.068514824174337</v>
+        <v>1.051801593409645</v>
       </c>
       <c r="N18">
-        <v>1.052908718580458</v>
+        <v>1.039682360469645</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.045440658510331</v>
+        <v>1.01190861137671</v>
       </c>
       <c r="D19">
-        <v>1.053951920946596</v>
+        <v>1.033224730255103</v>
       </c>
       <c r="E19">
-        <v>1.053625978918126</v>
+        <v>1.027698693555035</v>
       </c>
       <c r="F19">
-        <v>1.065350591706698</v>
+        <v>1.038907059037683</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.045988242103596</v>
+        <v>1.051189037196963</v>
       </c>
       <c r="J19">
-        <v>1.051454871490213</v>
+        <v>1.038397109978701</v>
       </c>
       <c r="K19">
-        <v>1.057201244618135</v>
+        <v>1.046431984320559</v>
       </c>
       <c r="L19">
-        <v>1.056876377410437</v>
+        <v>1.040993771785686</v>
       </c>
       <c r="M19">
-        <v>1.068562780443322</v>
+        <v>1.052025250361554</v>
       </c>
       <c r="N19">
-        <v>1.052948058011288</v>
+        <v>1.039871752980684</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.045144029390778</v>
+        <v>1.010413359366079</v>
       </c>
       <c r="D20">
-        <v>1.053716296547199</v>
+        <v>1.032089843866879</v>
       </c>
       <c r="E20">
-        <v>1.053366954055197</v>
+        <v>1.026486340726864</v>
       </c>
       <c r="F20">
-        <v>1.065073326719791</v>
+        <v>1.037609872732562</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045912912561773</v>
+        <v>1.050728433656368</v>
       </c>
       <c r="J20">
-        <v>1.051279193693203</v>
+        <v>1.037548682295683</v>
       </c>
       <c r="K20">
-        <v>1.057029089066718</v>
+        <v>1.045590963175342</v>
       </c>
       <c r="L20">
-        <v>1.056680922745768</v>
+        <v>1.040078917104056</v>
       </c>
       <c r="M20">
-        <v>1.068348343268834</v>
+        <v>1.051022135717548</v>
       </c>
       <c r="N20">
-        <v>1.052772130731656</v>
+        <v>1.03902212043304</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.044180757148353</v>
+        <v>1.005472603957271</v>
       </c>
       <c r="D21">
-        <v>1.052951246736876</v>
+        <v>1.028346136389641</v>
       </c>
       <c r="E21">
-        <v>1.05252631842467</v>
+        <v>1.022489878023689</v>
       </c>
       <c r="F21">
-        <v>1.064173451449888</v>
+        <v>1.033333143042293</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.045666966982419</v>
+        <v>1.049196922536461</v>
       </c>
       <c r="J21">
-        <v>1.050708192567396</v>
+        <v>1.034743286493215</v>
       </c>
       <c r="K21">
-        <v>1.056469420680204</v>
+        <v>1.042809672397642</v>
       </c>
       <c r="L21">
-        <v>1.056046018738319</v>
+        <v>1.037057342292683</v>
       </c>
       <c r="M21">
-        <v>1.067651800786213</v>
+        <v>1.047709379232379</v>
       </c>
       <c r="N21">
-        <v>1.052200318718756</v>
+        <v>1.036212740646749</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.043575959929088</v>
+        <v>1.002302538177907</v>
       </c>
       <c r="D22">
-        <v>1.052470996524158</v>
+        <v>1.025949264212886</v>
       </c>
       <c r="E22">
-        <v>1.051998921362597</v>
+        <v>1.019933281755711</v>
       </c>
       <c r="F22">
-        <v>1.063608855211856</v>
+        <v>1.030596773278377</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.045511536495727</v>
+        <v>1.048207133705733</v>
       </c>
       <c r="J22">
-        <v>1.050349299147233</v>
+        <v>1.032942001997824</v>
       </c>
       <c r="K22">
-        <v>1.056117562121106</v>
+        <v>1.041023612197896</v>
       </c>
       <c r="L22">
-        <v>1.05564724960613</v>
+        <v>1.03511993572141</v>
       </c>
       <c r="M22">
-        <v>1.067214335783532</v>
+        <v>1.045585530760369</v>
       </c>
       <c r="N22">
-        <v>1.05184091562877</v>
+        <v>1.034408898120765</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.04389649320719</v>
+        <v>1.003989256361766</v>
       </c>
       <c r="D23">
-        <v>1.052725512918637</v>
+        <v>1.027224079060978</v>
       </c>
       <c r="E23">
-        <v>1.05227839544138</v>
+        <v>1.021292853406894</v>
       </c>
       <c r="F23">
-        <v>1.063908044773441</v>
+        <v>1.032051992604335</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.045594008214959</v>
+        <v>1.048734437558893</v>
       </c>
       <c r="J23">
-        <v>1.050539543735568</v>
+        <v>1.033900533090758</v>
       </c>
       <c r="K23">
-        <v>1.056304085954447</v>
+        <v>1.041974062832288</v>
       </c>
       <c r="L23">
-        <v>1.055858604329428</v>
+        <v>1.036150649075625</v>
       </c>
       <c r="M23">
-        <v>1.067446198304523</v>
+        <v>1.046715406999764</v>
       </c>
       <c r="N23">
-        <v>1.052031430386243</v>
+        <v>1.035368790437796</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.045160193064661</v>
+        <v>1.010495151665037</v>
       </c>
       <c r="D24">
-        <v>1.053729135570899</v>
+        <v>1.032151900940801</v>
       </c>
       <c r="E24">
-        <v>1.053381066670644</v>
+        <v>1.026552623244505</v>
       </c>
       <c r="F24">
-        <v>1.065088433286728</v>
+        <v>1.037680795608556</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045917022343257</v>
+        <v>1.050753665374813</v>
       </c>
       <c r="J24">
-        <v>1.051288768497209</v>
+        <v>1.037595100145561</v>
       </c>
       <c r="K24">
-        <v>1.05703847233782</v>
+        <v>1.045636977354123</v>
       </c>
       <c r="L24">
-        <v>1.056691574007028</v>
+        <v>1.040128956299848</v>
       </c>
       <c r="M24">
-        <v>1.068360028890474</v>
+        <v>1.051077001236216</v>
       </c>
       <c r="N24">
-        <v>1.052781719132982</v>
+        <v>1.039068604201589</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.046630291023701</v>
+        <v>1.017784702860661</v>
       </c>
       <c r="D25">
-        <v>1.054897059982211</v>
+        <v>1.037693090282847</v>
       </c>
       <c r="E25">
-        <v>1.05466557067015</v>
+        <v>1.032476231266667</v>
       </c>
       <c r="F25">
-        <v>1.066463325487791</v>
+        <v>1.044018018153023</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046288376131126</v>
+        <v>1.052984793819315</v>
       </c>
       <c r="J25">
-        <v>1.052158668935996</v>
+        <v>1.041728014615726</v>
       </c>
       <c r="K25">
-        <v>1.057890757790195</v>
+        <v>1.04973314958115</v>
       </c>
       <c r="L25">
-        <v>1.057659967706949</v>
+        <v>1.044590478246439</v>
       </c>
       <c r="M25">
-        <v>1.069422507407023</v>
+        <v>1.055969387040038</v>
       </c>
       <c r="N25">
-        <v>1.053652854930171</v>
+        <v>1.043207387884354</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_41/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_41/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.023406013525974</v>
+        <v>1.007937850575885</v>
       </c>
       <c r="D2">
-        <v>1.041980115972992</v>
+        <v>1.031685597619179</v>
       </c>
       <c r="E2">
-        <v>1.037066761677606</v>
+        <v>1.024814811137267</v>
       </c>
       <c r="F2">
-        <v>1.048927531289494</v>
+        <v>1.039218454381994</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.05467892616361</v>
+        <v>1.054110536775879</v>
       </c>
       <c r="J2">
-        <v>1.044908502216949</v>
+        <v>1.029883706579528</v>
       </c>
       <c r="K2">
-        <v>1.052884014517819</v>
+        <v>1.042720469093917</v>
       </c>
       <c r="L2">
-        <v>1.048032765733103</v>
+        <v>1.035938931056267</v>
       </c>
       <c r="M2">
-        <v>1.059744849883113</v>
+        <v>1.050157170520444</v>
       </c>
       <c r="N2">
-        <v>1.046392392142778</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.013871413803661</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.048268385377928</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.041277354550896</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.02738352624152</v>
+        <v>1.011378666168044</v>
       </c>
       <c r="D3">
-        <v>1.045020718432782</v>
+        <v>1.033980691022719</v>
       </c>
       <c r="E3">
-        <v>1.040327199308418</v>
+        <v>1.027430905677678</v>
       </c>
       <c r="F3">
-        <v>1.052413654023331</v>
+        <v>1.041695228747013</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.055861753679547</v>
+        <v>1.054828419215694</v>
       </c>
       <c r="J3">
-        <v>1.047154538700853</v>
+        <v>1.03156387140475</v>
       </c>
       <c r="K3">
-        <v>1.055108219937581</v>
+        <v>1.044196487948755</v>
       </c>
       <c r="L3">
-        <v>1.050468832631978</v>
+        <v>1.037724432867691</v>
       </c>
       <c r="M3">
-        <v>1.062417097215061</v>
+        <v>1.051821021932194</v>
       </c>
       <c r="N3">
-        <v>1.048641618256112</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.014434981955697</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.04958519705125</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.042318364768109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,81 +539,105 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.029911482343511</v>
+        <v>1.013569007399035</v>
       </c>
       <c r="D4">
-        <v>1.046956269062622</v>
+        <v>1.035443671737073</v>
       </c>
       <c r="E4">
-        <v>1.042404855563155</v>
+        <v>1.029101832924905</v>
       </c>
       <c r="F4">
-        <v>1.054634727680042</v>
+        <v>1.043276675532196</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.056605950976648</v>
+        <v>1.055273025653152</v>
       </c>
       <c r="J4">
-        <v>1.048579808675943</v>
+        <v>1.032631872066723</v>
       </c>
       <c r="K4">
-        <v>1.056519172549556</v>
+        <v>1.045132344821008</v>
       </c>
       <c r="L4">
-        <v>1.05201707352956</v>
+        <v>1.038861267448931</v>
       </c>
       <c r="M4">
-        <v>1.064115615850916</v>
+        <v>1.052879406468259</v>
       </c>
       <c r="N4">
-        <v>1.050068912278048</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.014793242133752</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.050422826592916</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.042980982586796</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C5">
-        <v>1.030963616125407</v>
+        <v>1.014483741543381</v>
       </c>
       <c r="D5">
-        <v>1.047762538937354</v>
+        <v>1.036056684468807</v>
       </c>
       <c r="E5">
-        <v>1.043270847539954</v>
+        <v>1.029801328948409</v>
       </c>
       <c r="F5">
-        <v>1.055560403795469</v>
+        <v>1.043938673845818</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.056913841179487</v>
+        <v>1.055456845676924</v>
       </c>
       <c r="J5">
-        <v>1.049172444125924</v>
+        <v>1.033078632126502</v>
       </c>
       <c r="K5">
-        <v>1.057105737308326</v>
+        <v>1.045524380750074</v>
       </c>
       <c r="L5">
-        <v>1.052661413196685</v>
+        <v>1.039336978538948</v>
       </c>
       <c r="M5">
-        <v>1.064822537639929</v>
+        <v>1.053322165360351</v>
       </c>
       <c r="N5">
-        <v>1.050662389338344</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.014943384793359</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.050773235749699</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.043265321663608</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.031139660830743</v>
+        <v>1.014639667767205</v>
       </c>
       <c r="D6">
-        <v>1.047897485027347</v>
+        <v>1.036163149720077</v>
       </c>
       <c r="E6">
-        <v>1.043415820539733</v>
+        <v>1.029921090749153</v>
       </c>
       <c r="F6">
-        <v>1.055715362842696</v>
+        <v>1.044052113730538</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.056965248610807</v>
+        <v>1.055489411637032</v>
       </c>
       <c r="J6">
-        <v>1.049271571085149</v>
+        <v>1.033156142104635</v>
       </c>
       <c r="K6">
-        <v>1.057203841775657</v>
+        <v>1.045593739923772</v>
       </c>
       <c r="L6">
-        <v>1.052769222095722</v>
+        <v>1.039419181855368</v>
       </c>
       <c r="M6">
-        <v>1.064940819910545</v>
+        <v>1.053398805927872</v>
       </c>
       <c r="N6">
-        <v>1.050761657069221</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.014969764692974</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.05083389076926</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.043323069992796</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.029925582296026</v>
+        <v>1.013588829834633</v>
       </c>
       <c r="D7">
-        <v>1.046967071428317</v>
+        <v>1.035462136046181</v>
       </c>
       <c r="E7">
-        <v>1.042416455994124</v>
+        <v>1.029118188781837</v>
       </c>
       <c r="F7">
-        <v>1.054647127981486</v>
+        <v>1.043292419957425</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.056610084423161</v>
+        <v>1.055280778966151</v>
       </c>
       <c r="J7">
-        <v>1.048587753007166</v>
+        <v>1.032645239614557</v>
       </c>
       <c r="K7">
-        <v>1.056527035974488</v>
+        <v>1.045147740358965</v>
       </c>
       <c r="L7">
-        <v>1.052025708699757</v>
+        <v>1.038874551536336</v>
       </c>
       <c r="M7">
-        <v>1.064125089563378</v>
+        <v>1.052892144012418</v>
       </c>
       <c r="N7">
-        <v>1.050076867891133</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.014798633619358</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.050432907368715</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.043011892964027</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.024759914587253</v>
+        <v>1.00911762991299</v>
       </c>
       <c r="D8">
-        <v>1.043014438674555</v>
+        <v>1.032478383632078</v>
       </c>
       <c r="E8">
-        <v>1.038175417395342</v>
+        <v>1.025712144158981</v>
       </c>
       <c r="F8">
-        <v>1.050113010886868</v>
+        <v>1.040068342780233</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.055083112303425</v>
+        <v>1.054363728697675</v>
       </c>
       <c r="J8">
-        <v>1.045673477197058</v>
+        <v>1.030464614964312</v>
       </c>
       <c r="K8">
-        <v>1.053641647533865</v>
+        <v>1.043235677153372</v>
       </c>
       <c r="L8">
-        <v>1.048861963770981</v>
+        <v>1.036554737198376</v>
       </c>
       <c r="M8">
-        <v>1.060654402787091</v>
+        <v>1.050731595757455</v>
       </c>
       <c r="N8">
-        <v>1.047158453475102</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.01406742883446</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.048722999468521</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.04166446426715</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.015291044385107</v>
+        <v>1.000939461896993</v>
       </c>
       <c r="D9">
-        <v>1.035795200993102</v>
+        <v>1.027030281787319</v>
       </c>
       <c r="E9">
-        <v>1.030446180589031</v>
+        <v>1.01952590378889</v>
       </c>
       <c r="F9">
-        <v>1.041846466425367</v>
+        <v>1.034208781396051</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.05222562411052</v>
+        <v>1.052584768677098</v>
       </c>
       <c r="J9">
-        <v>1.040315155716961</v>
+        <v>1.026459088904448</v>
       </c>
       <c r="K9">
-        <v>1.04833304520522</v>
+        <v>1.039699522266361</v>
       </c>
       <c r="L9">
-        <v>1.043063874427837</v>
+        <v>1.032309935615517</v>
       </c>
       <c r="M9">
-        <v>1.054295232332199</v>
+        <v>1.046770197957682</v>
       </c>
       <c r="N9">
-        <v>1.041792522563895</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.012723047211007</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.045587847308548</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.039161023471304</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.008708891526675</v>
+        <v>0.9953189385076782</v>
       </c>
       <c r="D10">
-        <v>1.030797239130536</v>
+        <v>1.023315689554768</v>
       </c>
       <c r="E10">
-        <v>1.025105993564251</v>
+        <v>1.015329350030072</v>
       </c>
       <c r="F10">
-        <v>1.036132829581684</v>
+        <v>1.030268024605665</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.050201704061644</v>
+        <v>1.051316544258803</v>
       </c>
       <c r="J10">
-        <v>1.036581189958576</v>
+        <v>1.023719518896305</v>
       </c>
       <c r="K10">
-        <v>1.044631846388032</v>
+        <v>1.037276357175065</v>
       </c>
       <c r="L10">
-        <v>1.039036279328941</v>
+        <v>1.029427236522351</v>
       </c>
       <c r="M10">
-        <v>1.049878965537094</v>
+        <v>1.044111471322953</v>
       </c>
       <c r="N10">
-        <v>1.038053254145841</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.01180810467018</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.043534779839137</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.037464466379918</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.005789256976917</v>
+        <v>0.993143918183769</v>
       </c>
       <c r="D11">
-        <v>1.028585778644644</v>
+        <v>1.021994168122164</v>
       </c>
       <c r="E11">
-        <v>1.022745576922284</v>
+        <v>1.013885932602173</v>
       </c>
       <c r="F11">
-        <v>1.033606801628546</v>
+        <v>1.029200936354211</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.0492954954233</v>
+        <v>1.050932648452511</v>
       </c>
       <c r="J11">
-        <v>1.034923163668513</v>
+        <v>1.022804726081717</v>
       </c>
       <c r="K11">
-        <v>1.042988019577434</v>
+        <v>1.036512893628182</v>
       </c>
       <c r="L11">
-        <v>1.037250925393585</v>
+        <v>1.028550647124661</v>
       </c>
       <c r="M11">
-        <v>1.047921602592198</v>
+        <v>1.043592405048646</v>
       </c>
       <c r="N11">
-        <v>1.036392873268267</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.011537155877223</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.043557665807835</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.036957422258863</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.004693826125501</v>
+        <v>0.9924294994020241</v>
       </c>
       <c r="D12">
-        <v>1.027756930476132</v>
+        <v>1.021598018980392</v>
       </c>
       <c r="E12">
-        <v>1.02186126235836</v>
+        <v>1.013479376043928</v>
       </c>
       <c r="F12">
-        <v>1.03266035899478</v>
+        <v>1.029032898552658</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.048954259164745</v>
+        <v>1.050847539842429</v>
       </c>
       <c r="J12">
-        <v>1.034300854758734</v>
+        <v>1.022557748496693</v>
       </c>
       <c r="K12">
-        <v>1.04237099594715</v>
+        <v>1.036322811871912</v>
       </c>
       <c r="L12">
-        <v>1.036581287042178</v>
+        <v>1.028352810005153</v>
       </c>
       <c r="M12">
-        <v>1.047187492942383</v>
+        <v>1.043624239250113</v>
       </c>
       <c r="N12">
-        <v>1.035769680608458</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.011481527086125</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.043907508165667</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.036823028973015</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.004929303630969</v>
+        <v>0.9928032133919339</v>
       </c>
       <c r="D13">
-        <v>1.02793506178032</v>
+        <v>1.021903025508203</v>
       </c>
       <c r="E13">
-        <v>1.02205129797396</v>
+        <v>1.013855343681087</v>
       </c>
       <c r="F13">
-        <v>1.032863749448466</v>
+        <v>1.029564975408854</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.04902766747581</v>
+        <v>1.051000580071195</v>
       </c>
       <c r="J13">
-        <v>1.034434637999915</v>
+        <v>1.022821560476479</v>
       </c>
       <c r="K13">
-        <v>1.042503644825566</v>
+        <v>1.036579626852576</v>
       </c>
       <c r="L13">
-        <v>1.036725224268719</v>
+        <v>1.028678666297525</v>
       </c>
       <c r="M13">
-        <v>1.047345286068132</v>
+        <v>1.044104652626563</v>
       </c>
       <c r="N13">
-        <v>1.035903653837186</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.011593599243333</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.044562728154205</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.037002118517435</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.005698934688391</v>
+        <v>0.993558641003184</v>
       </c>
       <c r="D14">
-        <v>1.028517418850837</v>
+        <v>1.022435416932008</v>
       </c>
       <c r="E14">
-        <v>1.022672635192454</v>
+        <v>1.014473233286553</v>
       </c>
       <c r="F14">
-        <v>1.033528737026066</v>
+        <v>1.030255088013863</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.049267384059614</v>
+        <v>1.051215828417051</v>
       </c>
       <c r="J14">
-        <v>1.034871856404419</v>
+        <v>1.023237906033135</v>
       </c>
       <c r="K14">
-        <v>1.042937148916563</v>
+        <v>1.03696271497388</v>
       </c>
       <c r="L14">
-        <v>1.037195706601264</v>
+        <v>1.029143889393407</v>
       </c>
       <c r="M14">
-        <v>1.047861066534103</v>
+        <v>1.044644387305434</v>
       </c>
       <c r="N14">
-        <v>1.036341493141975</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.011748183938658</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.045161980212896</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.037274393843264</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.006171663411497</v>
+        <v>0.9939835852656284</v>
       </c>
       <c r="D15">
-        <v>1.028875236509734</v>
+        <v>1.022724416455299</v>
       </c>
       <c r="E15">
-        <v>1.023054450924962</v>
+        <v>1.014801133739373</v>
       </c>
       <c r="F15">
-        <v>1.033937365202799</v>
+        <v>1.030587580580709</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.049414463290749</v>
+        <v>1.051324042416981</v>
       </c>
       <c r="J15">
-        <v>1.035140379309013</v>
+        <v>1.023456195627903</v>
       </c>
       <c r="K15">
-        <v>1.043203385051317</v>
+        <v>1.037160520611808</v>
       </c>
       <c r="L15">
-        <v>1.037484719766279</v>
+        <v>1.02937881006816</v>
       </c>
       <c r="M15">
-        <v>1.048177911912755</v>
+        <v>1.044885971794592</v>
       </c>
       <c r="N15">
-        <v>1.036610397379893</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.011824637345644</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.045390322047746</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.037420103154531</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.008901151007829</v>
+        <v>0.9962932301935185</v>
       </c>
       <c r="D16">
-        <v>1.030942984017381</v>
+        <v>1.024247495650507</v>
       </c>
       <c r="E16">
-        <v>1.025261606123259</v>
+        <v>1.016511294061261</v>
       </c>
       <c r="F16">
-        <v>1.036299348757916</v>
+        <v>1.032182486884304</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.050261205118449</v>
+        <v>1.051854592044626</v>
       </c>
       <c r="J16">
-        <v>1.036690338334748</v>
+        <v>1.024577433052986</v>
       </c>
       <c r="K16">
-        <v>1.044740053404196</v>
+        <v>1.038156899040255</v>
       </c>
       <c r="L16">
-        <v>1.039153873580078</v>
+        <v>1.030552875237564</v>
       </c>
       <c r="M16">
-        <v>1.050007895419243</v>
+        <v>1.0459589662605</v>
       </c>
       <c r="N16">
-        <v>1.038162557525227</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.012194922008661</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.046199852678311</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.038127732576716</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.010594327514825</v>
+        <v>0.9976710677807248</v>
       </c>
       <c r="D17">
-        <v>1.03222715071771</v>
+        <v>1.025137820912613</v>
       </c>
       <c r="E17">
-        <v>1.02663299836937</v>
+        <v>1.017500838575983</v>
       </c>
       <c r="F17">
-        <v>1.037766797344336</v>
+        <v>1.033040910437964</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.050784254119093</v>
+        <v>1.052145243786995</v>
       </c>
       <c r="J17">
-        <v>1.037651382143859</v>
+        <v>1.02521903854755</v>
       </c>
       <c r="K17">
-        <v>1.045692769664462</v>
+        <v>1.0387189958478</v>
       </c>
       <c r="L17">
-        <v>1.040189631198223</v>
+        <v>1.031208818495009</v>
       </c>
       <c r="M17">
-        <v>1.051143528462144</v>
+        <v>1.046493395338279</v>
       </c>
       <c r="N17">
-        <v>1.039124966126781</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.012397790761145</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.046493789627115</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.038527734130122</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.011575256724108</v>
+        <v>0.9983678076529333</v>
       </c>
       <c r="D18">
-        <v>1.032971640192715</v>
+        <v>1.025549339916412</v>
       </c>
       <c r="E18">
-        <v>1.027428292222165</v>
+        <v>1.017942180523289</v>
       </c>
       <c r="F18">
-        <v>1.038617744276643</v>
+        <v>1.033309711723971</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.051086471203449</v>
+        <v>1.052248554505145</v>
       </c>
       <c r="J18">
-        <v>1.038207986045341</v>
+        <v>1.025492619378233</v>
       </c>
       <c r="K18">
-        <v>1.046244516665152</v>
+        <v>1.038941165023042</v>
       </c>
       <c r="L18">
-        <v>1.04078979708174</v>
+        <v>1.031458232410888</v>
       </c>
       <c r="M18">
-        <v>1.051801593409645</v>
+        <v>1.046577222435542</v>
       </c>
       <c r="N18">
-        <v>1.039682360469645</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.012469007852262</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.04632351636267</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.038673213323817</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.01190861137671</v>
+        <v>0.9984477174218467</v>
       </c>
       <c r="D19">
-        <v>1.033224730255103</v>
+        <v>1.025530931105999</v>
       </c>
       <c r="E19">
-        <v>1.027698693555035</v>
+        <v>1.017883542401556</v>
       </c>
       <c r="F19">
-        <v>1.038907059037683</v>
+        <v>1.033041707536715</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.051189037196963</v>
+        <v>1.052186396504928</v>
       </c>
       <c r="J19">
-        <v>1.038397109978701</v>
+        <v>1.025434525639349</v>
       </c>
       <c r="K19">
-        <v>1.046431984320559</v>
+        <v>1.038860792732038</v>
       </c>
       <c r="L19">
-        <v>1.040993771785686</v>
+        <v>1.031337633519408</v>
       </c>
       <c r="M19">
-        <v>1.052025250361554</v>
+        <v>1.046251851084114</v>
       </c>
       <c r="N19">
-        <v>1.039871752980684</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.012424329698831</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.045742542620513</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.038622762774505</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.010413359366079</v>
+        <v>0.996792870285411</v>
       </c>
       <c r="D20">
-        <v>1.032089843866879</v>
+        <v>1.024301336267595</v>
       </c>
       <c r="E20">
-        <v>1.026486340726864</v>
+        <v>1.016431654184744</v>
       </c>
       <c r="F20">
-        <v>1.037609872732562</v>
+        <v>1.031305348465919</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.050728433656368</v>
+        <v>1.051662492860385</v>
       </c>
       <c r="J20">
-        <v>1.037548682295683</v>
+        <v>1.024447983667178</v>
       </c>
       <c r="K20">
-        <v>1.045590963175342</v>
+        <v>1.037929923959791</v>
       </c>
       <c r="L20">
-        <v>1.040078917104056</v>
+        <v>1.030191597896633</v>
       </c>
       <c r="M20">
-        <v>1.051022135717548</v>
+        <v>1.044819195001744</v>
       </c>
       <c r="N20">
-        <v>1.03902212043304</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.012054173583664</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.044084379933377</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.037968513969735</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.005472603957271</v>
+        <v>0.9925188551936334</v>
       </c>
       <c r="D21">
-        <v>1.028346136389641</v>
+        <v>1.021457782396435</v>
       </c>
       <c r="E21">
-        <v>1.022489878023689</v>
+        <v>1.013218059349959</v>
       </c>
       <c r="F21">
-        <v>1.033333143042293</v>
+        <v>1.028230754123125</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.049196922536461</v>
+        <v>1.050652098819504</v>
       </c>
       <c r="J21">
-        <v>1.034743286493215</v>
+        <v>1.022332724506494</v>
       </c>
       <c r="K21">
-        <v>1.042809672397642</v>
+        <v>1.036043723230123</v>
       </c>
       <c r="L21">
-        <v>1.037057342292683</v>
+        <v>1.027953265298994</v>
       </c>
       <c r="M21">
-        <v>1.047709379232379</v>
+        <v>1.042696322944311</v>
       </c>
       <c r="N21">
-        <v>1.036212740646749</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.01134122964769</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.042363663823297</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.036638124006233</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.002302538177907</v>
+        <v>0.9897947440688831</v>
       </c>
       <c r="D22">
-        <v>1.025949264212886</v>
+        <v>1.019651698603828</v>
       </c>
       <c r="E22">
-        <v>1.019933281755711</v>
+        <v>1.011187172553714</v>
       </c>
       <c r="F22">
-        <v>1.030596773278377</v>
+        <v>1.026305630591145</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.048207133705733</v>
+        <v>1.05000044097372</v>
       </c>
       <c r="J22">
-        <v>1.032942001997824</v>
+        <v>1.020989484155831</v>
       </c>
       <c r="K22">
-        <v>1.041023612197896</v>
+        <v>1.034843651556847</v>
       </c>
       <c r="L22">
-        <v>1.03511993572141</v>
+        <v>1.026540219998398</v>
       </c>
       <c r="M22">
-        <v>1.045585530760369</v>
+        <v>1.041373379804467</v>
       </c>
       <c r="N22">
-        <v>1.034408898120765</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.010889424932807</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.041316644970573</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.03577615136728</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.003989256361766</v>
+        <v>0.9912369556360587</v>
       </c>
       <c r="D23">
-        <v>1.027224079060978</v>
+        <v>1.020603326648714</v>
       </c>
       <c r="E23">
-        <v>1.021292853406894</v>
+        <v>1.012260476140665</v>
       </c>
       <c r="F23">
-        <v>1.032051992604335</v>
+        <v>1.027323093101559</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.048734437558893</v>
+        <v>1.050343769964915</v>
       </c>
       <c r="J23">
-        <v>1.033900533090758</v>
+        <v>1.021697613040419</v>
       </c>
       <c r="K23">
-        <v>1.041974062832288</v>
+        <v>1.035473761745591</v>
       </c>
       <c r="L23">
-        <v>1.036150649075625</v>
+        <v>1.027285622302267</v>
       </c>
       <c r="M23">
-        <v>1.046715406999764</v>
+        <v>1.042071290827335</v>
       </c>
       <c r="N23">
-        <v>1.035368790437796</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.011126626793271</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.041868993915869</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.036212051526227</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.010495151665037</v>
+        <v>0.9968221897945565</v>
       </c>
       <c r="D24">
-        <v>1.032151900940801</v>
+        <v>1.024303052373249</v>
       </c>
       <c r="E24">
-        <v>1.026552623244505</v>
+        <v>1.016434600877284</v>
       </c>
       <c r="F24">
-        <v>1.037680795608556</v>
+        <v>1.031279495527121</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.050753665374813</v>
+        <v>1.051652845003203</v>
       </c>
       <c r="J24">
-        <v>1.037595100145561</v>
+        <v>1.024443118072809</v>
       </c>
       <c r="K24">
-        <v>1.045636977354123</v>
+        <v>1.037916410262419</v>
       </c>
       <c r="L24">
-        <v>1.040128956299848</v>
+        <v>1.030179125128684</v>
       </c>
       <c r="M24">
-        <v>1.051077001236216</v>
+        <v>1.044778706653524</v>
       </c>
       <c r="N24">
-        <v>1.039068604201589</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.012047997109788</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.044011724795018</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.037931630954447</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.017784702860661</v>
+        <v>1.003101075132296</v>
       </c>
       <c r="D25">
-        <v>1.037693090282847</v>
+        <v>1.028475643083137</v>
       </c>
       <c r="E25">
-        <v>1.032476231266667</v>
+        <v>1.021157395141957</v>
       </c>
       <c r="F25">
-        <v>1.044018018153023</v>
+        <v>1.035754646002084</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.052984793819315</v>
+        <v>1.053071293149269</v>
       </c>
       <c r="J25">
-        <v>1.041728014615726</v>
+        <v>1.027524524537053</v>
       </c>
       <c r="K25">
-        <v>1.04973314958115</v>
+        <v>1.040647427536122</v>
       </c>
       <c r="L25">
-        <v>1.044590478246439</v>
+        <v>1.033435913836678</v>
       </c>
       <c r="M25">
-        <v>1.055969387040038</v>
+        <v>1.047822161095353</v>
       </c>
       <c r="N25">
-        <v>1.043207387884354</v>
+        <v>1.013082159779991</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.046420399305762</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.03985973581783</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_41/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_41/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.007937850575885</v>
+        <v>1.007385734903071</v>
       </c>
       <c r="D2">
-        <v>1.031685597619179</v>
+        <v>1.030563708450582</v>
       </c>
       <c r="E2">
-        <v>1.024814811137267</v>
+        <v>1.024274193519309</v>
       </c>
       <c r="F2">
-        <v>1.039218454381994</v>
+        <v>1.038517614905485</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.054110536775879</v>
+        <v>1.053533219929882</v>
       </c>
       <c r="J2">
-        <v>1.029883706579528</v>
+        <v>1.02934776186484</v>
       </c>
       <c r="K2">
-        <v>1.042720469093917</v>
+        <v>1.041613051053384</v>
       </c>
       <c r="L2">
-        <v>1.035938931056267</v>
+        <v>1.035405399496181</v>
       </c>
       <c r="M2">
-        <v>1.050157170520444</v>
+        <v>1.049465203637954</v>
       </c>
       <c r="N2">
-        <v>1.013871413803661</v>
+        <v>1.014986892990845</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.048268385377928</v>
+        <v>1.047720745602745</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.041277354550896</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.040503063068256</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.023137304309259</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.011378666168044</v>
+        <v>1.010713428387774</v>
       </c>
       <c r="D3">
-        <v>1.033980691022719</v>
+        <v>1.032712470357505</v>
       </c>
       <c r="E3">
-        <v>1.027430905677678</v>
+        <v>1.026790047268296</v>
       </c>
       <c r="F3">
-        <v>1.041695228747013</v>
+        <v>1.04089313128855</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.054828419215694</v>
+        <v>1.054174715541481</v>
       </c>
       <c r="J3">
-        <v>1.03156387140475</v>
+        <v>1.030916235000847</v>
       </c>
       <c r="K3">
-        <v>1.044196487948755</v>
+        <v>1.042943222691008</v>
       </c>
       <c r="L3">
-        <v>1.037724432867691</v>
+        <v>1.037091245974471</v>
       </c>
       <c r="M3">
-        <v>1.051821021932194</v>
+        <v>1.051028205559373</v>
       </c>
       <c r="N3">
-        <v>1.014434981955697</v>
+        <v>1.015404994565696</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.04958519705125</v>
+        <v>1.048957743564132</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.042318364768109</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.041440672298869</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.023390923458235</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,105 +563,123 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.013569007399035</v>
+        <v>1.012832421523573</v>
       </c>
       <c r="D4">
-        <v>1.035443671737073</v>
+        <v>1.034082734248615</v>
       </c>
       <c r="E4">
-        <v>1.029101832924905</v>
+        <v>1.028397635576537</v>
       </c>
       <c r="F4">
-        <v>1.043276675532196</v>
+        <v>1.042410504522022</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.055273025653152</v>
+        <v>1.054570827541485</v>
       </c>
       <c r="J4">
-        <v>1.032631872066723</v>
+        <v>1.031913472827321</v>
       </c>
       <c r="K4">
-        <v>1.045132344821008</v>
+        <v>1.043786502532223</v>
       </c>
       <c r="L4">
-        <v>1.038861267448931</v>
+        <v>1.038164993755004</v>
       </c>
       <c r="M4">
-        <v>1.052879406468259</v>
+        <v>1.052022660954512</v>
       </c>
       <c r="N4">
-        <v>1.014793242133752</v>
+        <v>1.015670878354114</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.050422826592916</v>
+        <v>1.049744778822209</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.042980982586796</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.042037913456018</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.023549304994151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.014483741543381</v>
+        <v>1.013717528830864</v>
       </c>
       <c r="D5">
-        <v>1.036056684468807</v>
+        <v>1.03465720662313</v>
       </c>
       <c r="E5">
-        <v>1.029801328948409</v>
+        <v>1.029070809966369</v>
       </c>
       <c r="F5">
-        <v>1.043938673845818</v>
+        <v>1.043045874693579</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.055456845676924</v>
+        <v>1.054734466149412</v>
       </c>
       <c r="J5">
-        <v>1.033078632126502</v>
+        <v>1.032330779047033</v>
       </c>
       <c r="K5">
-        <v>1.045524380750074</v>
+        <v>1.0441400182366</v>
       </c>
       <c r="L5">
-        <v>1.039336978538948</v>
+        <v>1.038614461502579</v>
       </c>
       <c r="M5">
-        <v>1.053322165360351</v>
+        <v>1.052438825935862</v>
       </c>
       <c r="N5">
-        <v>1.014943384793359</v>
+        <v>1.015782364140782</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.050773235749699</v>
+        <v>1.05007414127494</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.043265321663608</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.042295726174083</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.023615481332854</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.014639667767205</v>
+        <v>1.013868436052999</v>
       </c>
       <c r="D6">
-        <v>1.036163149720077</v>
+        <v>1.034757204356548</v>
       </c>
       <c r="E6">
-        <v>1.029921090749153</v>
+        <v>1.029186116534641</v>
       </c>
       <c r="F6">
-        <v>1.044052113730538</v>
+        <v>1.043154831516259</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.055489411637032</v>
+        <v>1.054763643399619</v>
       </c>
       <c r="J6">
-        <v>1.033156142104635</v>
+        <v>1.032403296413919</v>
       </c>
       <c r="K6">
-        <v>1.045593739923772</v>
+        <v>1.044202911188948</v>
       </c>
       <c r="L6">
-        <v>1.039419181855368</v>
+        <v>1.038692221699584</v>
       </c>
       <c r="M6">
-        <v>1.053398805927872</v>
+        <v>1.052510987951756</v>
       </c>
       <c r="N6">
-        <v>1.014969764692974</v>
+        <v>1.015801994901358</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.05083389076926</v>
+        <v>1.050131251924459</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.043323069992796</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.042349770240875</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.023627664662745</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.013588829834633</v>
+        <v>1.012858641949707</v>
       </c>
       <c r="D7">
-        <v>1.035462136046181</v>
+        <v>1.03410521839964</v>
       </c>
       <c r="E7">
-        <v>1.029118188781837</v>
+        <v>1.028419135662118</v>
       </c>
       <c r="F7">
-        <v>1.043292419957425</v>
+        <v>1.042429976525109</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.055280778966151</v>
+        <v>1.054580712263123</v>
       </c>
       <c r="J7">
-        <v>1.032645239614557</v>
+        <v>1.031933072717532</v>
       </c>
       <c r="K7">
-        <v>1.045147740358965</v>
+        <v>1.043805867580748</v>
       </c>
       <c r="L7">
-        <v>1.038874551536336</v>
+        <v>1.038183361208022</v>
       </c>
       <c r="M7">
-        <v>1.052892144012418</v>
+        <v>1.052039082006394</v>
       </c>
       <c r="N7">
-        <v>1.014798633619358</v>
+        <v>1.015702624369348</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.050432907368715</v>
+        <v>1.049757774819744</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.043011892964027</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.042073627225716</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.023554620320212</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.00911762991299</v>
+        <v>1.008548068840587</v>
       </c>
       <c r="D8">
-        <v>1.032478383632078</v>
+        <v>1.031320663665729</v>
       </c>
       <c r="E8">
-        <v>1.025712144158981</v>
+        <v>1.025154476927491</v>
       </c>
       <c r="F8">
-        <v>1.040068342780233</v>
+        <v>1.039345675111217</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.054363728697675</v>
+        <v>1.053767824928532</v>
       </c>
       <c r="J8">
-        <v>1.030464614964312</v>
+        <v>1.029911182545862</v>
       </c>
       <c r="K8">
-        <v>1.043235677153372</v>
+        <v>1.042092453170902</v>
       </c>
       <c r="L8">
-        <v>1.036554737198376</v>
+        <v>1.036004163001349</v>
       </c>
       <c r="M8">
-        <v>1.050731595757455</v>
+        <v>1.050017808419734</v>
       </c>
       <c r="N8">
-        <v>1.01406742883446</v>
+        <v>1.015216445064725</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.048722999468521</v>
+        <v>1.048158090783049</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.04166446426715</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.040867120228595</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.023232126916811</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.000939461896993</v>
+        <v>1.000645960375134</v>
       </c>
       <c r="D9">
-        <v>1.027030281787319</v>
+        <v>1.026224779076704</v>
       </c>
       <c r="E9">
-        <v>1.01952590378889</v>
+        <v>1.019211835268552</v>
       </c>
       <c r="F9">
-        <v>1.034208781396051</v>
+        <v>1.033730904726351</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.052584768677098</v>
+        <v>1.052172176385393</v>
       </c>
       <c r="J9">
-        <v>1.026459088904448</v>
+        <v>1.026175928719371</v>
       </c>
       <c r="K9">
-        <v>1.039699522266361</v>
+        <v>1.038906238485709</v>
       </c>
       <c r="L9">
-        <v>1.032309935615517</v>
+        <v>1.032000718331302</v>
       </c>
       <c r="M9">
-        <v>1.046770197957682</v>
+        <v>1.046299440012082</v>
       </c>
       <c r="N9">
-        <v>1.012723047211007</v>
+        <v>1.014229765169188</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.045587847308548</v>
+        <v>1.045215276469099</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.039161023471304</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.038610828623006</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.022610046592729</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9953189385076782</v>
+        <v>0.9952483777585461</v>
       </c>
       <c r="D10">
-        <v>1.023315689554768</v>
+        <v>1.022773412427857</v>
       </c>
       <c r="E10">
-        <v>1.015329350030072</v>
+        <v>1.015208761184952</v>
       </c>
       <c r="F10">
-        <v>1.030268024605665</v>
+        <v>1.029977950343084</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.051316544258803</v>
+        <v>1.05104058924</v>
       </c>
       <c r="J10">
-        <v>1.023719518896305</v>
+        <v>1.023651795436554</v>
       </c>
       <c r="K10">
-        <v>1.037276357175065</v>
+        <v>1.036743309714484</v>
       </c>
       <c r="L10">
-        <v>1.029427236522351</v>
+        <v>1.029308741011781</v>
       </c>
       <c r="M10">
-        <v>1.044111471322953</v>
+        <v>1.043826247131757</v>
       </c>
       <c r="N10">
-        <v>1.01180810467018</v>
+        <v>1.013676814321966</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.043534779839137</v>
+        <v>1.043309058830773</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.037464466379918</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.037099951511206</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.022181505742672</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.993143918183769</v>
+        <v>0.9931933494983514</v>
       </c>
       <c r="D11">
-        <v>1.021994168122164</v>
+        <v>1.021571150622496</v>
       </c>
       <c r="E11">
-        <v>1.013885932602173</v>
+        <v>1.013864911997262</v>
       </c>
       <c r="F11">
-        <v>1.029200936354211</v>
+        <v>1.029001859129494</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.050932648452511</v>
+        <v>1.050718915831078</v>
       </c>
       <c r="J11">
-        <v>1.022804726081717</v>
+        <v>1.02285206046323</v>
       </c>
       <c r="K11">
-        <v>1.036512893628182</v>
+        <v>1.036097418182343</v>
       </c>
       <c r="L11">
-        <v>1.028550647124661</v>
+        <v>1.028530008945107</v>
       </c>
       <c r="M11">
-        <v>1.043592405048646</v>
+        <v>1.043396812107588</v>
       </c>
       <c r="N11">
-        <v>1.011537155877223</v>
+        <v>1.013716716406168</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.043557665807835</v>
+        <v>1.043402954196748</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.036957422258863</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.036679249607864</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.022082274484593</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9924294994020241</v>
+        <v>0.9925186699729752</v>
       </c>
       <c r="D12">
-        <v>1.021598018980392</v>
+        <v>1.021212492548959</v>
       </c>
       <c r="E12">
-        <v>1.013479376043928</v>
+        <v>1.013490174192987</v>
       </c>
       <c r="F12">
-        <v>1.029032898552658</v>
+        <v>1.028863269517961</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.050847539842429</v>
+        <v>1.050653471070586</v>
       </c>
       <c r="J12">
-        <v>1.022557748496693</v>
+        <v>1.02264306300727</v>
       </c>
       <c r="K12">
-        <v>1.036322811871912</v>
+        <v>1.035944274369069</v>
       </c>
       <c r="L12">
-        <v>1.028352810005153</v>
+        <v>1.028363408393183</v>
       </c>
       <c r="M12">
-        <v>1.043624239250113</v>
+        <v>1.043457627063388</v>
       </c>
       <c r="N12">
-        <v>1.011481527086125</v>
+        <v>1.013781150266823</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.043907508165667</v>
+        <v>1.043775764114866</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.036823028973015</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.036570974694529</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.022070646676633</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9928032133919339</v>
+        <v>0.9928628623354591</v>
       </c>
       <c r="D13">
-        <v>1.021903025508203</v>
+        <v>1.021487770120526</v>
       </c>
       <c r="E13">
-        <v>1.013855343681087</v>
+        <v>1.013840025800538</v>
       </c>
       <c r="F13">
-        <v>1.029564975408854</v>
+        <v>1.029373408881694</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.051000580071195</v>
+        <v>1.050791208872424</v>
       </c>
       <c r="J13">
-        <v>1.022821560476479</v>
+        <v>1.02287864208861</v>
       </c>
       <c r="K13">
-        <v>1.036579626852576</v>
+        <v>1.036171868645885</v>
       </c>
       <c r="L13">
-        <v>1.028678666297525</v>
+        <v>1.028663630578975</v>
       </c>
       <c r="M13">
-        <v>1.044104652626563</v>
+        <v>1.043916477292748</v>
       </c>
       <c r="N13">
-        <v>1.011593599243333</v>
+        <v>1.013837400816619</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.044562728154205</v>
+        <v>1.044413970700797</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.037002118517435</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.036729158834677</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.022130543736504</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.993558641003184</v>
+        <v>0.9935669540135909</v>
       </c>
       <c r="D14">
-        <v>1.022435416932008</v>
+        <v>1.021969465258792</v>
       </c>
       <c r="E14">
-        <v>1.014473233286553</v>
+        <v>1.014414144414545</v>
       </c>
       <c r="F14">
-        <v>1.030255088013863</v>
+        <v>1.030025443491648</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.051215828417051</v>
+        <v>1.05098019660739</v>
       </c>
       <c r="J14">
-        <v>1.023237906033135</v>
+        <v>1.023245866290331</v>
       </c>
       <c r="K14">
-        <v>1.03696271497388</v>
+        <v>1.036505072804506</v>
       </c>
       <c r="L14">
-        <v>1.029143889393407</v>
+        <v>1.029085875355074</v>
       </c>
       <c r="M14">
-        <v>1.044644387305434</v>
+        <v>1.044418756785579</v>
       </c>
       <c r="N14">
-        <v>1.011748183938658</v>
+        <v>1.013874511216134</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.045161980212896</v>
+        <v>1.044983637394419</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.037274393843264</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.036966298514318</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.022205293893501</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9939835852656284</v>
+        <v>0.9939646873234014</v>
       </c>
       <c r="D15">
-        <v>1.022724416455299</v>
+        <v>1.022231576688077</v>
       </c>
       <c r="E15">
-        <v>1.014801133739373</v>
+        <v>1.014719080929826</v>
       </c>
       <c r="F15">
-        <v>1.030587580580709</v>
+        <v>1.030337639851727</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.051324042416981</v>
+        <v>1.051074451152311</v>
       </c>
       <c r="J15">
-        <v>1.023456195627903</v>
+        <v>1.023438092658766</v>
       </c>
       <c r="K15">
-        <v>1.037160520611808</v>
+        <v>1.036676403807512</v>
       </c>
       <c r="L15">
-        <v>1.02937881006816</v>
+        <v>1.029298238404509</v>
       </c>
       <c r="M15">
-        <v>1.044885971794592</v>
+        <v>1.044640366588214</v>
       </c>
       <c r="N15">
-        <v>1.011824637345644</v>
+        <v>1.013886391961399</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.045390322047746</v>
+        <v>1.045196195929371</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.037420103154531</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.037093857766757</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.022241376863616</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9962932301935185</v>
+        <v>0.9961393515740044</v>
       </c>
       <c r="D16">
-        <v>1.024247495650507</v>
+        <v>1.023618143750378</v>
       </c>
       <c r="E16">
-        <v>1.016511294061261</v>
+        <v>1.016315670374751</v>
       </c>
       <c r="F16">
-        <v>1.032182486884304</v>
+        <v>1.031829781711177</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.051854592044626</v>
+        <v>1.051533998588459</v>
       </c>
       <c r="J16">
-        <v>1.024577433052986</v>
+        <v>1.024429705794529</v>
       </c>
       <c r="K16">
-        <v>1.038156899040255</v>
+        <v>1.037538203651131</v>
       </c>
       <c r="L16">
-        <v>1.030552875237564</v>
+        <v>1.030360627640857</v>
       </c>
       <c r="M16">
-        <v>1.0459589662605</v>
+        <v>1.045612113568232</v>
       </c>
       <c r="N16">
-        <v>1.012194922008661</v>
+        <v>1.013940637841374</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.046199852678311</v>
+        <v>1.045925692884626</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.038127732576716</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.037706633445674</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.022411867927249</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9976710677807248</v>
+        <v>0.9974481283921353</v>
       </c>
       <c r="D17">
-        <v>1.025137820912613</v>
+        <v>1.024435259790959</v>
       </c>
       <c r="E17">
-        <v>1.017500838575983</v>
+        <v>1.01724687494433</v>
       </c>
       <c r="F17">
-        <v>1.033040910437964</v>
+        <v>1.032633715455065</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.052145243786995</v>
+        <v>1.051786517884709</v>
       </c>
       <c r="J17">
-        <v>1.02521903854755</v>
+        <v>1.025004725706608</v>
       </c>
       <c r="K17">
-        <v>1.0387189958478</v>
+        <v>1.038027998514697</v>
       </c>
       <c r="L17">
-        <v>1.031208818495009</v>
+        <v>1.030959113861045</v>
       </c>
       <c r="M17">
-        <v>1.046493395338279</v>
+        <v>1.04609276914371</v>
       </c>
       <c r="N17">
-        <v>1.012397790761145</v>
+        <v>1.01399139092406</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.046493789627115</v>
+        <v>1.046177094777763</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.038527734130122</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.03805576146102</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.022503582869498</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9983678076529333</v>
+        <v>0.9981174434307626</v>
       </c>
       <c r="D18">
-        <v>1.025549339916412</v>
+        <v>1.024816060059345</v>
       </c>
       <c r="E18">
-        <v>1.017942180523289</v>
+        <v>1.017665251991683</v>
       </c>
       <c r="F18">
-        <v>1.033309711723971</v>
+        <v>1.032879624039959</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.052248554505145</v>
+        <v>1.051873740179385</v>
       </c>
       <c r="J18">
-        <v>1.025492619378233</v>
+        <v>1.02525176062663</v>
       </c>
       <c r="K18">
-        <v>1.038941165023042</v>
+        <v>1.038219756672127</v>
       </c>
       <c r="L18">
-        <v>1.031458232410888</v>
+        <v>1.031185871268591</v>
       </c>
       <c r="M18">
-        <v>1.046577222435542</v>
+        <v>1.04615396174175</v>
       </c>
       <c r="N18">
-        <v>1.012469007852262</v>
+        <v>1.014001870562833</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.04632351636267</v>
+        <v>1.045988859805071</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.038673213323817</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.038178604147753</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.022529149620751</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9984477174218467</v>
+        <v>0.9982032391193529</v>
       </c>
       <c r="D19">
-        <v>1.025530931105999</v>
+        <v>1.024803218168469</v>
       </c>
       <c r="E19">
-        <v>1.017883542401556</v>
+        <v>1.017612426732176</v>
       </c>
       <c r="F19">
-        <v>1.033041707536715</v>
+        <v>1.032615229365462</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.052186396504928</v>
+        <v>1.051814312985811</v>
       </c>
       <c r="J19">
-        <v>1.025434525639349</v>
+        <v>1.025199272871386</v>
       </c>
       <c r="K19">
-        <v>1.038860792732038</v>
+        <v>1.038144798836729</v>
       </c>
       <c r="L19">
-        <v>1.031337633519408</v>
+        <v>1.031070966109563</v>
       </c>
       <c r="M19">
-        <v>1.046251851084114</v>
+        <v>1.045832111050457</v>
       </c>
       <c r="N19">
-        <v>1.012424329698831</v>
+        <v>1.013958650195865</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.045742542620513</v>
+        <v>1.045410562399508</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.038622762774505</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.03813260565286</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.022495964424854</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.996792870285411</v>
+        <v>0.9966441985051909</v>
       </c>
       <c r="D20">
-        <v>1.024301336267595</v>
+        <v>1.023677555483018</v>
       </c>
       <c r="E20">
-        <v>1.016431654184744</v>
+        <v>1.01624442383639</v>
       </c>
       <c r="F20">
-        <v>1.031305348465919</v>
+        <v>1.030954442041161</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.051662492860385</v>
+        <v>1.051344160729149</v>
       </c>
       <c r="J20">
-        <v>1.024447983667178</v>
+        <v>1.024305096397996</v>
       </c>
       <c r="K20">
-        <v>1.037929923959791</v>
+        <v>1.037316460087678</v>
       </c>
       <c r="L20">
-        <v>1.030191597896633</v>
+        <v>1.030007524644806</v>
       </c>
       <c r="M20">
-        <v>1.044819195001744</v>
+        <v>1.044473989545441</v>
       </c>
       <c r="N20">
-        <v>1.012054173583664</v>
+        <v>1.013754062869666</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.044084379933377</v>
+        <v>1.043811187631768</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.037968513969735</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.037551239391637</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.022297493175424</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9925188551936334</v>
+        <v>0.9926378297897074</v>
       </c>
       <c r="D21">
-        <v>1.021457782396435</v>
+        <v>1.021099893740788</v>
       </c>
       <c r="E21">
-        <v>1.013218059349959</v>
+        <v>1.013257908603658</v>
       </c>
       <c r="F21">
-        <v>1.028230754123125</v>
+        <v>1.028081983285922</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.050652098819504</v>
+        <v>1.050472033768769</v>
       </c>
       <c r="J21">
-        <v>1.022332724506494</v>
+        <v>1.022446618123942</v>
       </c>
       <c r="K21">
-        <v>1.036043723230123</v>
+        <v>1.035692252823706</v>
       </c>
       <c r="L21">
-        <v>1.027953265298994</v>
+        <v>1.027992385064283</v>
       </c>
       <c r="M21">
-        <v>1.042696322944311</v>
+        <v>1.042550174035691</v>
       </c>
       <c r="N21">
-        <v>1.01134122964769</v>
+        <v>1.0136731536084</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.042363663823297</v>
+        <v>1.042247997049956</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.036638124006233</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.036406418104666</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.021971612620524</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9897947440688831</v>
+        <v>0.990082559365738</v>
       </c>
       <c r="D22">
-        <v>1.019651698603828</v>
+        <v>1.019461684483187</v>
       </c>
       <c r="E22">
-        <v>1.011187172553714</v>
+        <v>1.011370256272232</v>
       </c>
       <c r="F22">
-        <v>1.026305630591145</v>
+        <v>1.026284593895679</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.05000044097372</v>
+        <v>1.049907524176722</v>
       </c>
       <c r="J22">
-        <v>1.020989484155831</v>
+        <v>1.021264295847447</v>
       </c>
       <c r="K22">
-        <v>1.034843651556847</v>
+        <v>1.03465721538785</v>
       </c>
       <c r="L22">
-        <v>1.026540219998398</v>
+        <v>1.026719781955916</v>
       </c>
       <c r="M22">
-        <v>1.041373379804467</v>
+        <v>1.041352732475741</v>
       </c>
       <c r="N22">
-        <v>1.010889424932807</v>
+        <v>1.013614665567998</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.041316644970573</v>
+        <v>1.041300304012551</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.03577615136728</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.035659833288253</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.021762275694767</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9912369556360587</v>
+        <v>0.9914241999124557</v>
       </c>
       <c r="D23">
-        <v>1.020603326648714</v>
+        <v>1.020316825271723</v>
       </c>
       <c r="E23">
-        <v>1.012260476140665</v>
+        <v>1.012358615395966</v>
       </c>
       <c r="F23">
-        <v>1.027323093101559</v>
+        <v>1.02722759870817</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.050343769964915</v>
+        <v>1.050200727726051</v>
       </c>
       <c r="J23">
-        <v>1.021697613040419</v>
+        <v>1.021876644420376</v>
       </c>
       <c r="K23">
-        <v>1.035473761745591</v>
+        <v>1.035192518649997</v>
       </c>
       <c r="L23">
-        <v>1.027285622302267</v>
+        <v>1.02738192229703</v>
       </c>
       <c r="M23">
-        <v>1.042071290827335</v>
+        <v>1.041977518983335</v>
       </c>
       <c r="N23">
-        <v>1.011126626793271</v>
+        <v>1.013601623389948</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.041868993915869</v>
+        <v>1.041794779925362</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.036212051526227</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.036027758268734</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.021869137641602</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9968221897945565</v>
+        <v>0.9966733298994253</v>
       </c>
       <c r="D24">
-        <v>1.024303052373249</v>
+        <v>1.023678770483159</v>
       </c>
       <c r="E24">
-        <v>1.016434600877284</v>
+        <v>1.016247370929052</v>
       </c>
       <c r="F24">
-        <v>1.031279495527121</v>
+        <v>1.030928275108499</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.051652845003203</v>
+        <v>1.051334236414821</v>
       </c>
       <c r="J24">
-        <v>1.024443118072809</v>
+        <v>1.024300041386412</v>
       </c>
       <c r="K24">
-        <v>1.037916410262419</v>
+        <v>1.037302440313984</v>
       </c>
       <c r="L24">
-        <v>1.030179125128684</v>
+        <v>1.029995048195214</v>
       </c>
       <c r="M24">
-        <v>1.044778706653524</v>
+        <v>1.044433185382575</v>
       </c>
       <c r="N24">
-        <v>1.012047997109788</v>
+        <v>1.013745491175693</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.044011724795018</v>
+        <v>1.043738269148156</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.037931630954447</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.037511327612687</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.02229043583182</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.003101075132296</v>
+        <v>1.00272542401613</v>
       </c>
       <c r="D25">
-        <v>1.028475643083137</v>
+        <v>1.02757134057409</v>
       </c>
       <c r="E25">
-        <v>1.021157395141957</v>
+        <v>1.020771593942255</v>
       </c>
       <c r="F25">
-        <v>1.035754646002084</v>
+        <v>1.035206725298725</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.053071293149269</v>
+        <v>1.052607322854483</v>
       </c>
       <c r="J25">
-        <v>1.027524524537053</v>
+        <v>1.027161413608019</v>
       </c>
       <c r="K25">
-        <v>1.040647427536122</v>
+        <v>1.039756209624955</v>
       </c>
       <c r="L25">
-        <v>1.033435913836678</v>
+        <v>1.033055793352598</v>
       </c>
       <c r="M25">
-        <v>1.047822161095353</v>
+        <v>1.047282024623764</v>
       </c>
       <c r="N25">
-        <v>1.013082159779991</v>
+        <v>1.014460858955514</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.046420399305762</v>
+        <v>1.045992920853117</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.03985973581783</v>
+        <v>1.039243097398082</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.02277929945044</v>
       </c>
     </row>
   </sheetData>
